--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930E9F83-3B62-6E44-8078-D4F803E425CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D053ABA-7F13-EA43-8293-F5EA83DD59B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15160" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="54">
   <si>
     <t>Data</t>
   </si>
@@ -142,9 +142,6 @@
     <t>Commerciali Ferramenta</t>
   </si>
   <si>
-    <t>Officina Ronconi</t>
-  </si>
-  <si>
     <t>Bar Caligo Spazio Kura</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>lacorte.png</t>
   </si>
   <si>
-    <t>ronconi.png</t>
-  </si>
-  <si>
     <t>commferr.png</t>
   </si>
   <si>
@@ -184,7 +178,13 @@
     <t>Monday, 7 July 2025</t>
   </si>
   <si>
-    <t>√</t>
+    <t>s</t>
+  </si>
+  <si>
+    <t>PM Sport</t>
+  </si>
+  <si>
+    <t>piemme.png</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="13">
         <v>0.85416666666666663</v>
@@ -663,13 +663,13 @@
         <v>31</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="237" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -735,7 +735,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -838,10 +838,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="I1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -851,7 +851,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -886,12 +886,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -918,13 +918,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -956,18 +953,15 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -994,10 +988,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1029,12 +1023,12 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -1064,12 +1058,12 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -1099,15 +1093,15 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1134,12 +1128,12 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
@@ -1169,12 +1163,12 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -1204,7 +1198,12 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1216,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="112" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1270,13 +1269,13 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
@@ -1293,16 +1292,16 @@
         <v>27</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
         <v>30</v>
@@ -1322,13 +1321,13 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
         <v>30</v>
@@ -1348,13 +1347,13 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
         <v>30</v>
@@ -1374,13 +1373,13 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
         <v>30</v>
@@ -1397,16 +1396,16 @@
         <v>28</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
         <v>30</v>
@@ -1423,16 +1422,16 @@
         <v>27</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
         <v>30</v>
@@ -1452,13 +1451,13 @@
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
         <v>30</v>
@@ -1475,16 +1474,16 @@
         <v>28</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
         <v>30</v>
@@ -1492,7 +1491,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2">
         <v>0.85416666666666663</v>
@@ -1504,13 +1503,13 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
         <v>30</v>
@@ -1518,7 +1517,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2">
         <v>0.89583333333333337</v>
@@ -1530,13 +1529,13 @@
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
         <v>30</v>
@@ -1553,16 +1552,16 @@
         <v>28</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
         <v>30</v>
@@ -1582,13 +1581,13 @@
         <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
@@ -1608,13 +1607,13 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
         <v>30</v>
@@ -1634,13 +1633,13 @@
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
         <v>30</v>
@@ -1660,13 +1659,13 @@
         <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
         <v>30</v>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D053ABA-7F13-EA43-8293-F5EA83DD59B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B90272C-C8E9-F240-BAA4-938FB824FF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -681,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="237" workbookViewId="0">
+    <sheetView zoomScale="237" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -840,9 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1216,7 +1214,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B90272C-C8E9-F240-BAA4-938FB824FF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6318CF-774F-8840-B471-C8C19500F083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -840,7 +840,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" zoomScale="342" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1213,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="190" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6318CF-774F-8840-B471-C8C19500F083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD36BEB2-8B92-1E44-BB55-AD7315F186C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="53">
   <si>
     <t>Data</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>Caffè Bistrot Mini</t>
-  </si>
-  <si>
-    <t>Commerciali Ferramenta</t>
   </si>
   <si>
     <t>Bar Caligo Spazio Kura</t>
@@ -651,7 +648,7 @@
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="13">
         <v>0.85416666666666663</v>
@@ -663,13 +660,13 @@
         <v>31</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -681,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="237" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="237" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -707,7 +704,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -735,7 +732,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -791,7 +788,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -840,7 +837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="342" workbookViewId="0">
+    <sheetView zoomScale="342" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -918,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -953,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -961,7 +958,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -988,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1023,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1058,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1093,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1101,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1128,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1163,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1198,12 +1195,12 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1215,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="190" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="190" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1269,13 +1266,13 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
@@ -1292,16 +1289,16 @@
         <v>27</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
         <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
         <v>30</v>
@@ -1321,13 +1318,13 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
         <v>30</v>
@@ -1347,13 +1344,13 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
         <v>30</v>
@@ -1373,13 +1370,13 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>48</v>
-      </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
         <v>30</v>
@@ -1396,16 +1393,16 @@
         <v>28</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
         <v>30</v>
@@ -1422,16 +1419,16 @@
         <v>27</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
         <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
         <v>30</v>
@@ -1451,13 +1448,13 @@
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
         <v>30</v>
@@ -1474,16 +1471,16 @@
         <v>28</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
         <v>30</v>
@@ -1491,7 +1488,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2">
         <v>0.85416666666666663</v>
@@ -1503,13 +1500,13 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
         <v>30</v>
@@ -1517,7 +1514,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2">
         <v>0.89583333333333337</v>
@@ -1529,13 +1526,13 @@
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
         <v>30</v>
@@ -1552,16 +1549,16 @@
         <v>28</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
         <v>30</v>
@@ -1581,13 +1578,13 @@
         <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
@@ -1607,13 +1604,13 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s">
         <v>30</v>
@@ -1633,13 +1630,13 @@
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
         <v>52</v>
-      </c>
-      <c r="G16" t="s">
-        <v>53</v>
       </c>
       <c r="H16" t="s">
         <v>30</v>
@@ -1659,13 +1656,13 @@
         <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
         <v>30</v>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD36BEB2-8B92-1E44-BB55-AD7315F186C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0303DC-170D-E043-A396-443A1094DAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="132">
   <si>
     <t>Data</t>
   </si>
@@ -58,21 +58,12 @@
     <t>Numero</t>
   </si>
   <si>
-    <t>Giocatore 1</t>
-  </si>
-  <si>
     <t>Attaccante</t>
   </si>
   <si>
-    <t>Giocatore 2</t>
-  </si>
-  <si>
     <t>Centrocampista</t>
   </si>
   <si>
-    <t>Giocatore 3</t>
-  </si>
-  <si>
     <t>Difensore</t>
   </si>
   <si>
@@ -172,9 +163,6 @@
     <t>caligo.png</t>
   </si>
   <si>
-    <t>Monday, 7 July 2025</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
@@ -182,6 +170,255 @@
   </si>
   <si>
     <t>piemme.png</t>
+  </si>
+  <si>
+    <t>Luca Cecchetto</t>
+  </si>
+  <si>
+    <t>Portiere</t>
+  </si>
+  <si>
+    <t>Gianmarco Augusti</t>
+  </si>
+  <si>
+    <t>Luca Naluzzi</t>
+  </si>
+  <si>
+    <t>Nico Roma</t>
+  </si>
+  <si>
+    <t>Thomas Tessarin</t>
+  </si>
+  <si>
+    <t>Federico Bresciani</t>
+  </si>
+  <si>
+    <t>Matteo Rossi</t>
+  </si>
+  <si>
+    <t>Luca Rossi</t>
+  </si>
+  <si>
+    <t>Enrico Crepaldi</t>
+  </si>
+  <si>
+    <t>Gol</t>
+  </si>
+  <si>
+    <t>Lorenzo Pregnolato</t>
+  </si>
+  <si>
+    <t>Matteo Girello</t>
+  </si>
+  <si>
+    <t>Riccardo Tiengo</t>
+  </si>
+  <si>
+    <t>Stefano Vianello</t>
+  </si>
+  <si>
+    <t>Michael Crivellari</t>
+  </si>
+  <si>
+    <t>Martino Granfo</t>
+  </si>
+  <si>
+    <t>Adam Gaaida</t>
+  </si>
+  <si>
+    <t>Raffaele Micheletti</t>
+  </si>
+  <si>
+    <t>Marco Colombi</t>
+  </si>
+  <si>
+    <t>Francesco Colombi</t>
+  </si>
+  <si>
+    <t>Andrea Visentin</t>
+  </si>
+  <si>
+    <t>Riccardo Pellegrini</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Luca Cinti</t>
+  </si>
+  <si>
+    <t>Alessandro Chieregato</t>
+  </si>
+  <si>
+    <t>Marco Ayari</t>
+  </si>
+  <si>
+    <t>Andrea Bersani</t>
+  </si>
+  <si>
+    <t>Paolo Tiozzo</t>
+  </si>
+  <si>
+    <t>Teddy Crivellari</t>
+  </si>
+  <si>
+    <t>Matteo Ferro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matteo Ferro </t>
+  </si>
+  <si>
+    <t>Gabriel Andreello</t>
+  </si>
+  <si>
+    <t>Cristofer Segato</t>
+  </si>
+  <si>
+    <t>Yassine Qtyab</t>
+  </si>
+  <si>
+    <t>Manuel Andreello</t>
+  </si>
+  <si>
+    <t>Niccolò Limaj</t>
+  </si>
+  <si>
+    <t>Luca Nonnato</t>
+  </si>
+  <si>
+    <t>Giulio Mazzucco</t>
+  </si>
+  <si>
+    <t>Riccardo Alessio</t>
+  </si>
+  <si>
+    <t>Mattia Biolcati</t>
+  </si>
+  <si>
+    <t>Edoardo Cavallari</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>Francesco Pasqua</t>
+  </si>
+  <si>
+    <t>Stefano Braghin</t>
+  </si>
+  <si>
+    <t>Sebastiano Aguiaro</t>
+  </si>
+  <si>
+    <t>Stefano Catozzi</t>
+  </si>
+  <si>
+    <t>Andrea Amà</t>
+  </si>
+  <si>
+    <t>Filippo Clemente</t>
+  </si>
+  <si>
+    <t>Arcangelo Padricelli</t>
+  </si>
+  <si>
+    <t>Giulio Biolcati</t>
+  </si>
+  <si>
+    <t>3-0</t>
+  </si>
+  <si>
+    <t>Andrea Zaninello</t>
+  </si>
+  <si>
+    <t>Pullum Peza</t>
+  </si>
+  <si>
+    <t>Francesco Marchetti</t>
+  </si>
+  <si>
+    <t>Nicola Lionello</t>
+  </si>
+  <si>
+    <t>Alex Zaninello</t>
+  </si>
+  <si>
+    <t>Mattia Pozzati</t>
+  </si>
+  <si>
+    <t>Edoardo Ferro</t>
+  </si>
+  <si>
+    <t>Daniele Pregnolato</t>
+  </si>
+  <si>
+    <t>Nicholas Zanetti</t>
+  </si>
+  <si>
+    <t>Emanuele Mauri</t>
+  </si>
+  <si>
+    <t>Elia Azzalin</t>
+  </si>
+  <si>
+    <t>Alberto Balestra</t>
+  </si>
+  <si>
+    <t>Filippo Laurenti</t>
+  </si>
+  <si>
+    <t>Nicola Buttino</t>
+  </si>
+  <si>
+    <t>Devis Isarò</t>
+  </si>
+  <si>
+    <t>Alessandro Sette</t>
+  </si>
+  <si>
+    <t>Othmane Chemseddine</t>
+  </si>
+  <si>
+    <t>Lorenzo Raisa</t>
+  </si>
+  <si>
+    <t>Lorenzo Beltrame</t>
+  </si>
+  <si>
+    <t>Luca Pregnolato</t>
+  </si>
+  <si>
+    <t>Lorenzo Albieri</t>
+  </si>
+  <si>
+    <t>Devid Pizzo</t>
+  </si>
+  <si>
+    <t>Mattia Bertolucci</t>
+  </si>
+  <si>
+    <t>Filippo Mantovan</t>
+  </si>
+  <si>
+    <t>Cristian Furlan</t>
+  </si>
+  <si>
+    <t>Enrico Garbi</t>
+  </si>
+  <si>
+    <t>Federico Spigolon</t>
+  </si>
+  <si>
+    <t>Mattia Crepaldi</t>
+  </si>
+  <si>
+    <t>Fabio Fidelfatti</t>
+  </si>
+  <si>
+    <t>Gianluca Girotto</t>
+  </si>
+  <si>
+    <t>Marco Astolfi</t>
   </si>
 </sst>
 </file>
@@ -191,7 +428,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,8 +454,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,8 +480,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -261,11 +528,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -295,15 +655,58 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -623,7 +1026,7 @@
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,28 +1049,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="13">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>41</v>
-      </c>
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>45845</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -676,19 +1080,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="237" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A57" zoomScale="217" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -701,131 +1106,1334 @@
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
       <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>72</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>45</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>91</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>69</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>80</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>66</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>13</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40">
+        <v>14</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56">
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D60">
+        <v>7</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" t="s">
         <v>12</v>
       </c>
-      <c r="D8">
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66">
+        <v>6</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67">
+        <v>8</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68">
+        <v>9</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <v>11</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71">
+        <v>12</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>72</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B74" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s">
+        <v>72</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
+      <c r="D75" t="s">
+        <v>72</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>72</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>72</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>72</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" t="s">
         <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>72</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -837,8 +2445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScale="342" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -849,358 +2457,358 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0</v>
+      </c>
+      <c r="H2" s="33">
+        <v>0</v>
+      </c>
+      <c r="I2" s="33">
+        <v>0</v>
+      </c>
+      <c r="J2" s="41">
+        <v>0</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0</v>
+      </c>
+      <c r="I3" s="34">
+        <v>0</v>
+      </c>
+      <c r="J3" s="42">
+        <v>0</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="34">
+        <v>0</v>
+      </c>
+      <c r="I4" s="34">
+        <v>0</v>
+      </c>
+      <c r="J4" s="42">
+        <v>0</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
+        <v>0</v>
+      </c>
+      <c r="H5" s="35">
+        <v>0</v>
+      </c>
+      <c r="I5" s="35">
+        <v>0</v>
+      </c>
+      <c r="J5" s="43">
+        <v>0</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="23">
+        <v>2</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="D6" s="24">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0</v>
+      </c>
+      <c r="F6" s="24">
+        <v>0</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0</v>
+      </c>
+      <c r="H6" s="36">
+        <v>0</v>
+      </c>
+      <c r="I6" s="36">
+        <v>0</v>
+      </c>
+      <c r="J6" s="44">
+        <v>0</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="26">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="B7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="27">
+        <v>1</v>
+      </c>
+      <c r="E7" s="27">
+        <v>1</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0</v>
+      </c>
+      <c r="G7" s="27">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <v>0</v>
+      </c>
+      <c r="I7" s="37">
+        <v>0</v>
+      </c>
+      <c r="J7" s="45">
+        <v>3</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="26">
+        <v>3</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0</v>
+      </c>
+      <c r="E8" s="27">
+        <v>0</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0</v>
+      </c>
+      <c r="G8" s="27">
+        <v>0</v>
+      </c>
+      <c r="H8" s="37">
+        <v>0</v>
+      </c>
+      <c r="I8" s="37">
+        <v>0</v>
+      </c>
+      <c r="J8" s="45">
+        <v>0</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="26">
+        <v>5</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="27">
+        <v>1</v>
+      </c>
+      <c r="E9" s="27">
+        <v>0</v>
+      </c>
+      <c r="F9" s="27">
+        <v>0</v>
+      </c>
+      <c r="G9" s="27">
+        <v>1</v>
+      </c>
+      <c r="H9" s="37">
+        <v>0</v>
+      </c>
+      <c r="I9" s="37">
+        <v>0</v>
+      </c>
+      <c r="J9" s="45">
+        <v>0</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="29">
+        <v>4</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="30">
+        <v>0</v>
+      </c>
+      <c r="E10" s="30">
+        <v>0</v>
+      </c>
+      <c r="F10" s="30">
+        <v>0</v>
+      </c>
+      <c r="G10" s="30">
+        <v>0</v>
+      </c>
+      <c r="H10" s="38">
+        <v>0</v>
+      </c>
+      <c r="I10" s="38">
+        <v>0</v>
+      </c>
+      <c r="J10" s="46">
+        <v>0</v>
+      </c>
+      <c r="K10" s="31" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1213,7 +2821,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScale="190" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1249,7 +2857,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1260,22 +2868,22 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1286,22 +2894,22 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1312,22 +2920,22 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1338,22 +2946,22 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="G5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1364,22 +2972,22 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1390,22 +2998,22 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1416,22 +3024,22 @@
         <v>0.9375</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1442,22 +3050,22 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1468,74 +3076,74 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2">
         <v>0.85416666666666663</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2">
         <v>0.89583333333333337</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1546,22 +3154,22 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1572,22 +3180,22 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" t="s">
         <v>27</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1598,22 +3206,22 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1624,22 +3232,22 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" t="s">
         <v>27</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1650,22 +3258,22 @@
         <v>0.9375</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0303DC-170D-E043-A396-443A1094DAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CE3420-1EBD-1848-820A-605AC6626AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="133">
   <si>
     <t>Data</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>Marco Astolfi</t>
+  </si>
+  <si>
+    <t>Elmehdi</t>
   </si>
 </sst>
 </file>
@@ -697,7 +700,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1080,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="217" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="217" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2436,6 +2439,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2445,7 +2465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
+    <sheetView zoomScale="189" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2820,7 +2840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="190" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="190" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CE3420-1EBD-1848-820A-605AC6626AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FB2D04-3053-E04C-A8EB-66F10EC441A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="134">
   <si>
     <t>Data</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>Elmehdi</t>
+  </si>
+  <si>
+    <t>Maicol Batti</t>
   </si>
 </sst>
 </file>
@@ -1083,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="217" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="217" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1094,6 +1097,7 @@
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1297,7 +1301,7 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1348,7 +1352,7 @@
         <v>45</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2195,7 +2199,7 @@
         <v>12</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2212,7 +2216,7 @@
         <v>13</v>
       </c>
       <c r="D66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2305,16 +2309,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B72" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" t="s">
-        <v>72</v>
+        <v>11</v>
+      </c>
+      <c r="D72">
+        <v>7</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2325,10 +2329,10 @@
         <v>32</v>
       </c>
       <c r="B73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
         <v>72</v>
@@ -2338,11 +2342,11 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="39" t="s">
-        <v>35</v>
+      <c r="A74" t="s">
+        <v>32</v>
       </c>
       <c r="B74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C74" t="s">
         <v>11</v>
@@ -2359,10 +2363,10 @@
         <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D75" t="s">
         <v>72</v>
@@ -2376,7 +2380,7 @@
         <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
@@ -2393,7 +2397,7 @@
         <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
@@ -2410,7 +2414,7 @@
         <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
@@ -2427,10 +2431,10 @@
         <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
         <v>72</v>
@@ -2441,18 +2445,35 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
       </c>
       <c r="D80" t="s">
+        <v>72</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" t="s">
+        <v>132</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
         <v>46</v>
       </c>
-      <c r="E80">
+      <c r="E81">
         <v>0</v>
       </c>
     </row>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FB2D04-3053-E04C-A8EB-66F10EC441A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE61328F-A2B6-054A-8CD0-0221EC0A9920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1088,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="217" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="217" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1352,7 +1352,7 @@
         <v>45</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE61328F-A2B6-054A-8CD0-0221EC0A9920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E961B8-CC1A-F241-B619-14B64197F229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="135">
   <si>
     <t>Data</t>
   </si>
@@ -425,6 +425,9 @@
   </si>
   <si>
     <t>Maicol Batti</t>
+  </si>
+  <si>
+    <t>0-4</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1021,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1088,7 +1091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="217" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="217" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1352,7 +1355,7 @@
         <v>45</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2861,8 +2864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="190" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="190" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2950,7 +2953,7 @@
         <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E961B8-CC1A-F241-B619-14B64197F229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87796D4-41E0-124D-82C5-B61A8F353396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
     <t>Maicol Batti</t>
   </si>
   <si>
-    <t>0-4</t>
+    <t>0-5</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="217" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="217" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1355,7 +1355,7 @@
         <v>45</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2864,8 +2864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="190" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="D1" zoomScale="190" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87796D4-41E0-124D-82C5-B61A8F353396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9315C110-E922-C743-95EA-CE78E4A6FE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
     <t>Maicol Batti</t>
   </si>
   <si>
-    <t>0-5</t>
+    <t>0-6</t>
   </si>
 </sst>
 </file>
@@ -1091,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="217" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A9" zoomScale="217" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1389,7 +1389,7 @@
         <v>9</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2864,7 +2864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="190" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="190" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9315C110-E922-C743-95EA-CE78E4A6FE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB45360-466B-0B4F-AA47-60A52852AE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -2489,8 +2489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScale="189" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2546,10 +2546,10 @@
         <v>24</v>
       </c>
       <c r="D2" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="15">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>39</v>
@@ -2616,7 +2616,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="18">
         <v>0</v>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="34">
         <v>0</v>
@@ -2864,8 +2864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="190" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="D1" zoomScale="190" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB45360-466B-0B4F-AA47-60A52852AE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE68929C-AE18-7344-9EAC-F1143D6BCABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="135">
   <si>
     <t>Data</t>
   </si>
@@ -470,7 +470,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,6 +511,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -634,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -690,7 +708,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -704,7 +721,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -714,8 +730,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1021,7 +1050,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1060,25 +1089,25 @@
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>45845</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0.89583333333333337</v>
+        <v>45846</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.85416666666666663</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H2"/>
     </row>
@@ -2362,7 +2391,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="39" t="s">
+      <c r="A75" s="37" t="s">
         <v>35</v>
       </c>
       <c r="B75" t="s">
@@ -2379,7 +2408,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="39" t="s">
+      <c r="A76" s="37" t="s">
         <v>35</v>
       </c>
       <c r="B76" t="s">
@@ -2396,7 +2425,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="39" t="s">
+      <c r="A77" s="37" t="s">
         <v>35</v>
       </c>
       <c r="B77" t="s">
@@ -2413,7 +2442,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="39" t="s">
+      <c r="A78" s="37" t="s">
         <v>35</v>
       </c>
       <c r="B78" t="s">
@@ -2430,7 +2459,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="39" t="s">
+      <c r="A79" s="37" t="s">
         <v>35</v>
       </c>
       <c r="B79" t="s">
@@ -2447,7 +2476,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="39" t="s">
+      <c r="A80" s="37" t="s">
         <v>35</v>
       </c>
       <c r="B80" t="s">
@@ -2464,7 +2493,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="39" t="s">
+      <c r="A81" s="37" t="s">
         <v>29</v>
       </c>
       <c r="B81" t="s">
@@ -2487,10 +2516,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2522,13 +2551,13 @@
       <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="38" t="s">
         <v>22</v>
       </c>
       <c r="K1" s="13" t="s">
@@ -2557,13 +2586,13 @@
       <c r="G2" s="15">
         <v>0</v>
       </c>
-      <c r="H2" s="33">
-        <v>0</v>
-      </c>
-      <c r="I2" s="33">
-        <v>0</v>
-      </c>
-      <c r="J2" s="41">
+      <c r="H2" s="32">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32">
+        <v>0</v>
+      </c>
+      <c r="J2" s="39">
         <v>3</v>
       </c>
       <c r="K2" s="16" t="s">
@@ -2592,13 +2621,13 @@
       <c r="G3" s="18">
         <v>0</v>
       </c>
-      <c r="H3" s="34">
-        <v>0</v>
-      </c>
-      <c r="I3" s="34">
-        <v>0</v>
-      </c>
-      <c r="J3" s="42">
+      <c r="H3" s="33">
+        <v>0</v>
+      </c>
+      <c r="I3" s="33">
+        <v>0</v>
+      </c>
+      <c r="J3" s="40">
         <v>0</v>
       </c>
       <c r="K3" s="19" t="s">
@@ -2606,90 +2635,90 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="34">
+        <v>0</v>
+      </c>
+      <c r="I4" s="34">
+        <v>0</v>
+      </c>
+      <c r="J4" s="41">
+        <v>0</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="49">
+        <v>4</v>
+      </c>
+      <c r="B5" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C5" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D5" s="50">
         <v>1</v>
       </c>
-      <c r="E4" s="18">
-        <v>0</v>
-      </c>
-      <c r="F4" s="18">
-        <v>0</v>
-      </c>
-      <c r="G4" s="18">
+      <c r="E5" s="50">
+        <v>0</v>
+      </c>
+      <c r="F5" s="50">
+        <v>0</v>
+      </c>
+      <c r="G5" s="50">
         <v>1</v>
       </c>
-      <c r="H4" s="34">
-        <v>0</v>
-      </c>
-      <c r="I4" s="34">
-        <v>0</v>
-      </c>
-      <c r="J4" s="42">
-        <v>0</v>
-      </c>
-      <c r="K4" s="19" t="s">
+      <c r="H5" s="51">
+        <v>0</v>
+      </c>
+      <c r="I5" s="51">
+        <v>0</v>
+      </c>
+      <c r="J5" s="52">
+        <v>0</v>
+      </c>
+      <c r="K5" s="53" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="21">
-        <v>0</v>
-      </c>
-      <c r="E5" s="21">
-        <v>0</v>
-      </c>
-      <c r="F5" s="21">
-        <v>0</v>
-      </c>
-      <c r="G5" s="21">
-        <v>0</v>
-      </c>
-      <c r="H5" s="35">
-        <v>0</v>
-      </c>
-      <c r="I5" s="35">
-        <v>0</v>
-      </c>
-      <c r="J5" s="43">
-        <v>0</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="24">
         <v>0</v>
@@ -2697,163 +2726,210 @@
       <c r="G6" s="24">
         <v>0</v>
       </c>
-      <c r="H6" s="36">
-        <v>0</v>
-      </c>
-      <c r="I6" s="36">
-        <v>0</v>
-      </c>
-      <c r="J6" s="44">
-        <v>0</v>
+      <c r="H6" s="35">
+        <v>0</v>
+      </c>
+      <c r="I6" s="35">
+        <v>0</v>
+      </c>
+      <c r="J6" s="42">
+        <v>3</v>
       </c>
       <c r="K6" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
+        <v>2</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0</v>
+      </c>
+      <c r="G7" s="24">
+        <v>0</v>
+      </c>
+      <c r="H7" s="35">
+        <v>0</v>
+      </c>
+      <c r="I7" s="35">
+        <v>0</v>
+      </c>
+      <c r="J7" s="42">
+        <v>0</v>
+      </c>
+      <c r="K7" s="25" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="26">
-        <v>1</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="27">
-        <v>1</v>
-      </c>
-      <c r="E7" s="27">
-        <v>1</v>
-      </c>
-      <c r="F7" s="27">
-        <v>0</v>
-      </c>
-      <c r="G7" s="27">
-        <v>0</v>
-      </c>
-      <c r="H7" s="37">
-        <v>0</v>
-      </c>
-      <c r="I7" s="37">
-        <v>0</v>
-      </c>
-      <c r="J7" s="45">
-        <v>3</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="26">
         <v>3</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="27">
-        <v>0</v>
-      </c>
-      <c r="E8" s="27">
-        <v>0</v>
-      </c>
-      <c r="F8" s="27">
-        <v>0</v>
-      </c>
-      <c r="G8" s="27">
-        <v>0</v>
-      </c>
-      <c r="H8" s="37">
-        <v>0</v>
-      </c>
-      <c r="I8" s="37">
-        <v>0</v>
-      </c>
-      <c r="J8" s="45">
-        <v>0</v>
-      </c>
-      <c r="K8" s="28" t="s">
+      <c r="D8" s="46">
+        <v>0</v>
+      </c>
+      <c r="E8" s="46">
+        <v>0</v>
+      </c>
+      <c r="F8" s="46">
+        <v>0</v>
+      </c>
+      <c r="G8" s="46">
+        <v>0</v>
+      </c>
+      <c r="H8" s="47">
+        <v>0</v>
+      </c>
+      <c r="I8" s="47">
+        <v>0</v>
+      </c>
+      <c r="J8" s="48">
+        <v>0</v>
+      </c>
+      <c r="K8" s="27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="26">
+      <c r="A9" s="28">
+        <v>4</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="29">
+        <v>0</v>
+      </c>
+      <c r="E9" s="29">
+        <v>0</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0</v>
+      </c>
+      <c r="H9" s="36">
+        <v>0</v>
+      </c>
+      <c r="I9" s="36">
+        <v>0</v>
+      </c>
+      <c r="J9" s="43">
+        <v>0</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="28">
         <v>5</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B10" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C10" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D10" s="29">
         <v>1</v>
       </c>
-      <c r="E9" s="27">
-        <v>0</v>
-      </c>
-      <c r="F9" s="27">
-        <v>0</v>
-      </c>
-      <c r="G9" s="27">
+      <c r="E10" s="29">
+        <v>0</v>
+      </c>
+      <c r="F10" s="29">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29">
         <v>1</v>
       </c>
-      <c r="H9" s="37">
-        <v>0</v>
-      </c>
-      <c r="I9" s="37">
-        <v>0</v>
-      </c>
-      <c r="J9" s="45">
-        <v>0</v>
-      </c>
-      <c r="K9" s="28" t="s">
+      <c r="H10" s="36">
+        <v>0</v>
+      </c>
+      <c r="I10" s="36">
+        <v>0</v>
+      </c>
+      <c r="J10" s="43">
+        <v>0</v>
+      </c>
+      <c r="K10" s="30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="29">
-        <v>4</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="30">
-        <v>0</v>
-      </c>
-      <c r="E10" s="30">
-        <v>0</v>
-      </c>
-      <c r="F10" s="30">
-        <v>0</v>
-      </c>
-      <c r="G10" s="30">
-        <v>0</v>
-      </c>
-      <c r="H10" s="38">
-        <v>0</v>
-      </c>
-      <c r="I10" s="38">
-        <v>0</v>
-      </c>
-      <c r="J10" s="46">
-        <v>0</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>42</v>
-      </c>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="44"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2864,8 +2940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="190" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="190" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE68929C-AE18-7344-9EAC-F1143D6BCABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8B296E-06A4-A544-A10B-8C722185DD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -731,13 +731,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -745,6 +744,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1091,23 +1091,23 @@
       <c r="A2" s="4">
         <v>45846</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>0.85416666666666663</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H2"/>
     </row>
@@ -2518,7 +2518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
+    <sheetView zoomScale="189" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2670,37 +2670,37 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="49">
+      <c r="A5" s="48">
         <v>4</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="49">
         <v>1</v>
       </c>
-      <c r="E5" s="50">
-        <v>0</v>
-      </c>
-      <c r="F5" s="50">
-        <v>0</v>
-      </c>
-      <c r="G5" s="50">
+      <c r="E5" s="49">
+        <v>0</v>
+      </c>
+      <c r="F5" s="49">
+        <v>0</v>
+      </c>
+      <c r="G5" s="49">
         <v>1</v>
       </c>
-      <c r="H5" s="51">
-        <v>0</v>
-      </c>
-      <c r="I5" s="51">
-        <v>0</v>
-      </c>
-      <c r="J5" s="52">
-        <v>0</v>
-      </c>
-      <c r="K5" s="53" t="s">
+      <c r="H5" s="50">
+        <v>0</v>
+      </c>
+      <c r="I5" s="50">
+        <v>0</v>
+      </c>
+      <c r="J5" s="51">
+        <v>0</v>
+      </c>
+      <c r="K5" s="52" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2778,31 +2778,31 @@
       <c r="A8" s="26">
         <v>3</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="46">
-        <v>0</v>
-      </c>
-      <c r="E8" s="46">
-        <v>0</v>
-      </c>
-      <c r="F8" s="46">
-        <v>0</v>
-      </c>
-      <c r="G8" s="46">
-        <v>0</v>
-      </c>
-      <c r="H8" s="47">
-        <v>0</v>
-      </c>
-      <c r="I8" s="47">
-        <v>0</v>
-      </c>
-      <c r="J8" s="48">
+      <c r="D8" s="45">
+        <v>0</v>
+      </c>
+      <c r="E8" s="45">
+        <v>0</v>
+      </c>
+      <c r="F8" s="45">
+        <v>0</v>
+      </c>
+      <c r="G8" s="45">
+        <v>0</v>
+      </c>
+      <c r="H8" s="46">
+        <v>0</v>
+      </c>
+      <c r="I8" s="46">
+        <v>0</v>
+      </c>
+      <c r="J8" s="47">
         <v>0</v>
       </c>
       <c r="K8" s="27" t="s">
@@ -2881,55 +2881,55 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2938,9 +2938,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScale="190" workbookViewId="0">
+    <sheetView zoomScale="156" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
@@ -3036,23 +3036,23 @@
       <c r="A4" s="4">
         <v>45846</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>0.85416666666666663</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
@@ -3062,23 +3062,23 @@
       <c r="A5" s="4">
         <v>45846</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="2">
         <v>0.89583333333333337</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
         <v>27</v>
@@ -3395,6 +3395,24 @@
       <c r="H17" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="6"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="53"/>
+      <c r="G26" s="53"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="2"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="53"/>
+      <c r="G27" s="53"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="6"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="53"/>
+      <c r="G28" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8B296E-06A4-A544-A10B-8C722185DD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8679B9ED-27F6-4D40-9970-B550637E1D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="140">
   <si>
     <t>Data</t>
   </si>
@@ -163,9 +163,6 @@
     <t>caligo.png</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>PM Sport</t>
   </si>
   <si>
@@ -421,13 +418,31 @@
     <t>Marco Astolfi</t>
   </si>
   <si>
-    <t>Elmehdi</t>
-  </si>
-  <si>
     <t>Maicol Batti</t>
   </si>
   <si>
     <t>0-6</t>
+  </si>
+  <si>
+    <t>El Mehdi Ettoufaji</t>
+  </si>
+  <si>
+    <t>Otmane Ettoufaji</t>
+  </si>
+  <si>
+    <t>Omar Mkadmi</t>
+  </si>
+  <si>
+    <t>El Hatifi Mohamed</t>
+  </si>
+  <si>
+    <t>Ayoub Errahili</t>
+  </si>
+  <si>
+    <t>Yassine Elyousfi</t>
+  </si>
+  <si>
+    <t>Mohamed Atouama</t>
   </si>
 </sst>
 </file>
@@ -652,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -744,7 +759,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1049,7 +1063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+    <sheetView zoomScale="135" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1118,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="217" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A75" zoomScale="217" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1146,7 +1160,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1154,10 +1168,10 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1171,7 +1185,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -1188,7 +1202,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1205,7 +1219,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1222,7 +1236,7 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1239,7 +1253,7 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1256,7 +1270,7 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1273,7 +1287,7 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1290,7 +1304,7 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1307,10 +1321,10 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>72</v>
@@ -1324,7 +1338,7 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1341,7 +1355,7 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -1358,7 +1372,7 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -1375,7 +1389,7 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1392,7 +1406,7 @@
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -1409,7 +1423,7 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -1426,7 +1440,7 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -1443,7 +1457,7 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -1460,7 +1474,7 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1477,7 +1491,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -1494,10 +1508,10 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1511,7 +1525,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
@@ -1528,7 +1542,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -1545,7 +1559,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -1562,7 +1576,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -1579,7 +1593,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -1596,10 +1610,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28">
         <v>14</v>
@@ -1613,7 +1627,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -1630,7 +1644,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
@@ -1647,7 +1661,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -1664,7 +1678,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -1681,7 +1695,7 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -1698,7 +1712,7 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
@@ -1715,10 +1729,10 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1732,7 +1746,7 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -1749,7 +1763,7 @@
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
@@ -1766,7 +1780,7 @@
         <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -1783,7 +1797,7 @@
         <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
@@ -1800,10 +1814,10 @@
         <v>31</v>
       </c>
       <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
         <v>90</v>
-      </c>
-      <c r="C40" t="s">
-        <v>91</v>
       </c>
       <c r="D40">
         <v>14</v>
@@ -1817,7 +1831,7 @@
         <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -1834,7 +1848,7 @@
         <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
@@ -1851,7 +1865,7 @@
         <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
@@ -1868,10 +1882,10 @@
         <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D44">
         <v>12</v>
@@ -1885,13 +1899,13 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1902,13 +1916,13 @@
         <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1919,13 +1933,13 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1936,13 +1950,13 @@
         <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1953,13 +1967,13 @@
         <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1970,10 +1984,10 @@
         <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1987,7 +2001,7 @@
         <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
@@ -2004,7 +2018,7 @@
         <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
@@ -2021,7 +2035,7 @@
         <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
@@ -2038,7 +2052,7 @@
         <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -2055,7 +2069,7 @@
         <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -2072,7 +2086,7 @@
         <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
@@ -2089,7 +2103,7 @@
         <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C57" t="s">
         <v>11</v>
@@ -2106,7 +2120,7 @@
         <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -2123,7 +2137,7 @@
         <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
@@ -2140,7 +2154,7 @@
         <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
@@ -2154,13 +2168,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -2171,10 +2185,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
@@ -2188,10 +2202,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -2205,10 +2219,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
@@ -2222,10 +2236,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
@@ -2239,10 +2253,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
@@ -2256,10 +2270,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
@@ -2273,10 +2287,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
@@ -2290,10 +2304,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
@@ -2307,10 +2321,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
@@ -2324,13 +2338,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D71">
         <v>12</v>
@@ -2341,10 +2355,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
@@ -2361,13 +2375,13 @@
         <v>32</v>
       </c>
       <c r="B73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2378,13 +2392,13 @@
         <v>32</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C74" t="s">
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2395,13 +2409,13 @@
         <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2412,13 +2426,13 @@
         <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2429,13 +2443,13 @@
         <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2446,13 +2460,13 @@
         <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2463,13 +2477,13 @@
         <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2480,13 +2494,13 @@
         <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2497,15 +2511,117 @@
         <v>29</v>
       </c>
       <c r="B81" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81">
+        <v>10</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C82" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" t="s">
+        <v>135</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83">
+        <v>6</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" t="s">
+        <v>136</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" t="s">
+        <v>137</v>
+      </c>
+      <c r="C85" t="s">
         <v>12</v>
       </c>
-      <c r="D81" t="s">
-        <v>46</v>
-      </c>
-      <c r="E81">
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86">
+        <v>7</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87">
+        <v>8</v>
+      </c>
+      <c r="E87">
         <v>0</v>
       </c>
     </row>
@@ -2518,7 +2634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="189" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2674,7 +2790,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="49" t="s">
         <v>24</v>
@@ -2701,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2941,7 +3057,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScale="156" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3003,7 +3119,7 @@
         <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3017,10 +3133,10 @@
         <v>24</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
         <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>33</v>
@@ -3029,7 +3145,7 @@
         <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3147,10 +3263,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
         <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>30</v>
@@ -3361,10 +3477,10 @@
         <v>41</v>
       </c>
       <c r="F16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
         <v>47</v>
-      </c>
-      <c r="G16" t="s">
-        <v>48</v>
       </c>
       <c r="H16" t="s">
         <v>27</v>
@@ -3399,20 +3515,14 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C26" s="6"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="53"/>
-      <c r="G26" s="53"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C27" s="2"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="53"/>
-      <c r="G27" s="53"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C28" s="6"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="53"/>
-      <c r="G28" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8679B9ED-27F6-4D40-9970-B550637E1D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB47A1B3-8E86-8346-8B0A-7357F9837568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="141">
   <si>
     <t>Data</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>Mohamed Atouama</t>
+  </si>
+  <si>
+    <t>Salah Sadellah</t>
   </si>
 </sst>
 </file>
@@ -1132,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScale="217" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="217" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1650,7 +1653,7 @@
         <v>11</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1712,13 +1715,13 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
       </c>
       <c r="D34">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1726,16 +1729,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1746,13 +1749,13 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1763,13 +1766,13 @@
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1780,13 +1783,13 @@
         <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1797,13 +1800,13 @@
         <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
       </c>
       <c r="D39">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1814,13 +1817,13 @@
         <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D40">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1831,13 +1834,13 @@
         <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1848,13 +1851,13 @@
         <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D42">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1865,13 +1868,13 @@
         <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1882,13 +1885,13 @@
         <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D44">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1899,13 +1902,13 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" t="s">
-        <v>71</v>
+        <v>49</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1916,10 +1919,10 @@
         <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
         <v>71</v>
@@ -1933,7 +1936,7 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
@@ -1950,10 +1953,10 @@
         <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
         <v>71</v>
@@ -1967,10 +1970,10 @@
         <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
         <v>71</v>
@@ -1981,16 +1984,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>71</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2001,13 +2004,13 @@
         <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2018,13 +2021,13 @@
         <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2035,13 +2038,13 @@
         <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2052,13 +2055,13 @@
         <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2069,13 +2072,13 @@
         <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
       </c>
       <c r="D55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2086,13 +2089,13 @@
         <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2103,13 +2106,13 @@
         <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2120,13 +2123,13 @@
         <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2137,13 +2140,13 @@
         <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2154,13 +2157,13 @@
         <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D60">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2168,16 +2171,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C61" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2188,13 +2191,13 @@
         <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2205,13 +2208,13 @@
         <v>46</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2222,13 +2225,13 @@
         <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2239,13 +2242,13 @@
         <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
       </c>
       <c r="D65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2256,13 +2259,13 @@
         <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2273,13 +2276,13 @@
         <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D67">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2290,13 +2293,13 @@
         <v>46</v>
       </c>
       <c r="B68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2307,13 +2310,13 @@
         <v>46</v>
       </c>
       <c r="B69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
       </c>
       <c r="D69">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2324,13 +2327,13 @@
         <v>46</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D70">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2341,13 +2344,13 @@
         <v>46</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C71" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D71">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2358,13 +2361,13 @@
         <v>46</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D72">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2372,16 +2375,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" t="s">
-        <v>71</v>
+        <v>11</v>
+      </c>
+      <c r="D73">
+        <v>7</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2392,10 +2395,10 @@
         <v>32</v>
       </c>
       <c r="B74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
         <v>71</v>
@@ -2405,11 +2408,11 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="37" t="s">
-        <v>35</v>
+      <c r="A75" t="s">
+        <v>32</v>
       </c>
       <c r="B75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
@@ -2426,10 +2429,10 @@
         <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D76" t="s">
         <v>71</v>
@@ -2443,7 +2446,7 @@
         <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
@@ -2460,7 +2463,7 @@
         <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
@@ -2477,7 +2480,7 @@
         <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
@@ -2494,10 +2497,10 @@
         <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
         <v>71</v>
@@ -2508,16 +2511,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="37" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B81" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>71</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2528,13 +2531,13 @@
         <v>29</v>
       </c>
       <c r="B82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C82" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2545,13 +2548,13 @@
         <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D83">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2562,13 +2565,13 @@
         <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2579,13 +2582,13 @@
         <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2596,13 +2599,13 @@
         <v>29</v>
       </c>
       <c r="B86" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D86">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2613,15 +2616,32 @@
         <v>29</v>
       </c>
       <c r="B87" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87">
+        <v>7</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" t="s">
         <v>139</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>12</v>
       </c>
-      <c r="D87">
+      <c r="D88">
         <v>8</v>
       </c>
-      <c r="E87">
+      <c r="E88">
         <v>0</v>
       </c>
     </row>
@@ -2634,7 +2654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
+    <sheetView zoomScale="189" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB47A1B3-8E86-8346-8B0A-7357F9837568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C74241-6C01-5744-A537-C48CDE0B87A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="147">
   <si>
     <t>Data</t>
   </si>
@@ -446,6 +446,24 @@
   </si>
   <si>
     <t>Salah Sadellah</t>
+  </si>
+  <si>
+    <t>Alessandro Marangon</t>
+  </si>
+  <si>
+    <t>Allenatore</t>
+  </si>
+  <si>
+    <t>Enrico Ferro</t>
+  </si>
+  <si>
+    <t>Direttore Sportivo</t>
+  </si>
+  <si>
+    <t>Tommaso Cattin</t>
+  </si>
+  <si>
+    <t>Preparatore Atletico</t>
   </si>
 </sst>
 </file>
@@ -1135,17 +1153,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="217" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="217" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1508,16 +1526,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
+        <v>144</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1525,16 +1543,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
+        <v>142</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1542,33 +1560,30 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
+        <v>146</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1579,13 +1594,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1596,13 +1611,13 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1613,13 +1628,13 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1630,13 +1645,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1647,13 +1662,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1664,13 +1679,13 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1681,13 +1696,13 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1698,13 +1713,13 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1715,13 +1730,13 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1732,13 +1747,13 @@
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1746,16 +1761,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1763,16 +1778,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1780,16 +1795,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1800,13 +1815,13 @@
         <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1817,13 +1832,13 @@
         <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1834,13 +1849,13 @@
         <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D41">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1851,13 +1866,13 @@
         <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1868,13 +1883,13 @@
         <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1885,13 +1900,13 @@
         <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1902,13 +1917,13 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D45">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1919,13 +1934,13 @@
         <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" t="s">
-        <v>71</v>
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>9</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1936,13 +1951,13 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s">
-        <v>71</v>
+        <v>13</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1953,13 +1968,13 @@
         <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s">
-        <v>71</v>
+        <v>49</v>
+      </c>
+      <c r="D48">
+        <v>12</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1970,10 +1985,10 @@
         <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
         <v>71</v>
@@ -1987,7 +2002,7 @@
         <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
@@ -2001,16 +2016,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>71</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2018,16 +2033,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>71</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2035,16 +2050,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>71</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2055,13 +2070,13 @@
         <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2072,13 +2087,13 @@
         <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2089,13 +2104,13 @@
         <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
       </c>
       <c r="D56">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2106,13 +2121,13 @@
         <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
       <c r="D57">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2123,13 +2138,13 @@
         <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D58">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2140,13 +2155,13 @@
         <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2157,13 +2172,13 @@
         <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2174,13 +2189,13 @@
         <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D61">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2188,16 +2203,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2205,16 +2220,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2222,16 +2237,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2242,13 +2257,13 @@
         <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2259,13 +2274,13 @@
         <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D66">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2276,13 +2291,13 @@
         <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2293,13 +2308,13 @@
         <v>46</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
       </c>
       <c r="D68">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2310,13 +2325,13 @@
         <v>46</v>
       </c>
       <c r="B69" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2327,13 +2342,13 @@
         <v>46</v>
       </c>
       <c r="B70" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D70">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2344,13 +2359,13 @@
         <v>46</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
       </c>
       <c r="D71">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2361,13 +2376,13 @@
         <v>46</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C72" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="D72">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2378,13 +2393,13 @@
         <v>46</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
       </c>
       <c r="D73">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2392,16 +2407,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B74" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" t="s">
-        <v>71</v>
+        <v>12</v>
+      </c>
+      <c r="D74">
+        <v>11</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2409,44 +2424,44 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B75" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s">
-        <v>71</v>
+        <v>49</v>
+      </c>
+      <c r="D75">
+        <v>12</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="37" t="s">
-        <v>35</v>
+      <c r="A76" t="s">
+        <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
       </c>
-      <c r="D76" t="s">
-        <v>71</v>
+      <c r="D76">
+        <v>7</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="37" t="s">
-        <v>35</v>
+      <c r="A77" t="s">
+        <v>32</v>
       </c>
       <c r="B77" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
@@ -2459,14 +2474,14 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="37" t="s">
-        <v>35</v>
+      <c r="A78" t="s">
+        <v>32</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D78" t="s">
         <v>71</v>
@@ -2480,10 +2495,10 @@
         <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D79" t="s">
         <v>71</v>
@@ -2497,7 +2512,7 @@
         <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
@@ -2514,10 +2529,10 @@
         <v>35</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s">
         <v>71</v>
@@ -2528,16 +2543,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="37" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B82" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>71</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2545,16 +2560,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="37" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C83" t="s">
-        <v>49</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>71</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2562,16 +2577,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="37" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B84" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D84" t="s">
+        <v>71</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2582,13 +2597,13 @@
         <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2599,13 +2614,13 @@
         <v>29</v>
       </c>
       <c r="B86" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2616,13 +2631,13 @@
         <v>29</v>
       </c>
       <c r="B87" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D87">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2633,15 +2648,66 @@
         <v>29</v>
       </c>
       <c r="B88" t="s">
+        <v>136</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89" t="s">
+        <v>137</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90" t="s">
+        <v>138</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90">
+        <v>7</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" t="s">
         <v>139</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C91" t="s">
         <v>12</v>
       </c>
-      <c r="D88">
+      <c r="D91">
         <v>8</v>
       </c>
-      <c r="E88">
+      <c r="E91">
         <v>0</v>
       </c>
     </row>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C74241-6C01-5744-A537-C48CDE0B87A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5BD46A-8EF6-DB45-9AFF-AD350F70101E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="158">
   <si>
     <t>Data</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Barrio Boys</t>
   </si>
   <si>
-    <t>La Corte</t>
-  </si>
-  <si>
     <t>Commerciale Ferramenta</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>ilbaretto.png</t>
   </si>
   <si>
-    <t>lacorte.png</t>
-  </si>
-  <si>
     <t>commferr.png</t>
   </si>
   <si>
@@ -464,6 +458,45 @@
   </si>
   <si>
     <t>Preparatore Atletico</t>
+  </si>
+  <si>
+    <t>Tumiatti Impianti</t>
+  </si>
+  <si>
+    <t>Michael Garbi</t>
+  </si>
+  <si>
+    <t>Alessandro Taschini</t>
+  </si>
+  <si>
+    <t>Stefano Presti</t>
+  </si>
+  <si>
+    <t>Fabrizio Spadaro</t>
+  </si>
+  <si>
+    <t>Mattia Buttini</t>
+  </si>
+  <si>
+    <t>Thomas Moretto</t>
+  </si>
+  <si>
+    <t>Federico Bertaggia</t>
+  </si>
+  <si>
+    <t>Francesco Calabrese</t>
+  </si>
+  <si>
+    <t>Omar Palma</t>
+  </si>
+  <si>
+    <t>Francesco Ninni</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>tumi.png</t>
   </si>
 </sst>
 </file>
@@ -1133,16 +1166,16 @@
         <v>25</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2"/>
     </row>
@@ -1153,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="217" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A72" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D53" sqref="D49:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1181,18 +1214,18 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1203,10 +1236,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -1220,10 +1253,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1237,10 +1270,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1254,10 +1287,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1271,10 +1304,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1288,10 +1321,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1305,10 +1338,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1322,10 +1355,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1339,13 +1372,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11">
         <v>72</v>
@@ -1356,10 +1389,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1373,10 +1406,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -1390,10 +1423,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -1407,10 +1440,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1424,10 +1457,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -1441,10 +1474,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -1458,10 +1491,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -1475,10 +1508,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -1492,10 +1525,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1509,10 +1542,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -1526,16 +1559,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1543,16 +1576,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1560,27 +1593,30 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1594,7 +1630,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
@@ -1611,7 +1647,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -1628,7 +1664,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -1645,7 +1681,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -1662,7 +1698,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -1679,10 +1715,10 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D31">
         <v>14</v>
@@ -1696,7 +1732,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -1713,7 +1749,7 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -1730,7 +1766,7 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -1747,7 +1783,7 @@
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -1764,7 +1800,7 @@
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1781,7 +1817,7 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
@@ -1798,7 +1834,7 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -1815,10 +1851,10 @@
         <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1832,7 +1868,7 @@
         <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -1849,7 +1885,7 @@
         <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -1866,7 +1902,7 @@
         <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -1883,7 +1919,7 @@
         <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -1900,10 +1936,10 @@
         <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D44">
         <v>14</v>
@@ -1917,7 +1953,7 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
@@ -1934,7 +1970,7 @@
         <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
@@ -1951,7 +1987,7 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
@@ -1968,10 +2004,10 @@
         <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D48">
         <v>12</v>
@@ -1985,13 +2021,13 @@
         <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2002,13 +2038,13 @@
         <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2019,13 +2055,13 @@
         <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2036,13 +2072,13 @@
         <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2053,13 +2089,13 @@
         <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2070,10 +2106,10 @@
         <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2087,7 +2123,7 @@
         <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -2104,7 +2140,7 @@
         <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
@@ -2121,7 +2157,7 @@
         <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
@@ -2138,7 +2174,7 @@
         <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
@@ -2155,7 +2191,7 @@
         <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -2172,7 +2208,7 @@
         <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
@@ -2189,7 +2225,7 @@
         <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
@@ -2206,7 +2242,7 @@
         <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
@@ -2223,7 +2259,7 @@
         <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -2240,7 +2276,7 @@
         <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
@@ -2254,13 +2290,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C65" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -2271,10 +2307,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
@@ -2288,10 +2324,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
         <v>11</v>
@@ -2305,10 +2341,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
@@ -2322,10 +2358,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
@@ -2339,10 +2375,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -2356,10 +2392,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
@@ -2373,10 +2409,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
@@ -2390,10 +2426,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
@@ -2407,10 +2443,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B74" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -2424,13 +2460,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B75" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D75">
         <v>12</v>
@@ -2441,10 +2477,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B76" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
@@ -2457,34 +2493,34 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>32</v>
+      <c r="A77" s="37" t="s">
+        <v>34</v>
       </c>
       <c r="B77" t="s">
         <v>123</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>32</v>
+      <c r="A78" s="37" t="s">
+        <v>34</v>
       </c>
       <c r="B78" t="s">
         <v>124</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2492,16 +2528,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B79" t="s">
         <v>125</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2509,7 +2545,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B80" t="s">
         <v>126</v>
@@ -2518,7 +2554,7 @@
         <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2526,7 +2562,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B81" t="s">
         <v>127</v>
@@ -2535,7 +2571,7 @@
         <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2543,16 +2579,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B82" t="s">
         <v>128</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2560,16 +2596,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="37" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" t="s">
-        <v>71</v>
+        <v>11</v>
+      </c>
+      <c r="D83">
+        <v>10</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2577,16 +2613,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="37" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" t="s">
-        <v>71</v>
+        <v>47</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2600,10 +2636,10 @@
         <v>133</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D85">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2617,10 +2653,10 @@
         <v>134</v>
       </c>
       <c r="C86" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2634,10 +2670,10 @@
         <v>135</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D87">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2651,10 +2687,10 @@
         <v>136</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2671,7 +2707,7 @@
         <v>12</v>
       </c>
       <c r="D89">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2679,16 +2715,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="37" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
       </c>
       <c r="D90">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -2696,18 +2732,188 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="37" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
       </c>
       <c r="D91">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" t="s">
+        <v>147</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92">
+        <v>91</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B93" t="s">
+        <v>148</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93">
+        <v>7</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B94" t="s">
+        <v>149</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" t="s">
+        <v>150</v>
+      </c>
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95">
+        <v>17</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B96" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96">
         <v>8</v>
       </c>
-      <c r="E91">
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B97" t="s">
+        <v>151</v>
+      </c>
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97">
+        <v>19</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B98" t="s">
+        <v>152</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98">
+        <v>6</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B99" t="s">
+        <v>153</v>
+      </c>
+      <c r="C99" t="s">
+        <v>47</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B100" t="s">
+        <v>154</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B101" t="s">
+        <v>155</v>
+      </c>
+      <c r="C101" t="s">
+        <v>47</v>
+      </c>
+      <c r="D101">
+        <v>45</v>
+      </c>
+      <c r="E101">
         <v>0</v>
       </c>
     </row>
@@ -2720,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="189" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="B1" zoomScale="189" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2771,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>24</v>
@@ -2798,7 +3004,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2833,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -2868,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -2876,7 +3082,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="49" t="s">
         <v>24</v>
@@ -2903,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2938,7 +3144,7 @@
         <v>3</v>
       </c>
       <c r="K6" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2973,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -2981,7 +3187,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="45" t="s">
         <v>25</v>
@@ -3008,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3016,7 +3222,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>25</v>
@@ -3043,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3051,7 +3257,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>25</v>
@@ -3078,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3142,8 +3348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScale="156" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3196,16 +3402,16 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3219,19 +3425,19 @@
         <v>24</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3245,16 +3451,16 @@
         <v>25</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
@@ -3274,13 +3480,13 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
         <v>27</v>
@@ -3300,13 +3506,13 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
         <v>27</v>
@@ -3323,16 +3529,16 @@
         <v>25</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
@@ -3349,16 +3555,16 @@
         <v>24</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
@@ -3375,16 +3581,16 @@
         <v>24</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
@@ -3401,16 +3607,16 @@
         <v>25</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -3418,7 +3624,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2">
         <v>0.85416666666666663</v>
@@ -3427,16 +3633,16 @@
         <v>25</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
@@ -3444,7 +3650,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2">
         <v>0.89583333333333337</v>
@@ -3456,13 +3662,13 @@
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
         <v>27</v>
@@ -3479,16 +3685,16 @@
         <v>25</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
         <v>27</v>
@@ -3508,13 +3714,13 @@
         <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
         <v>27</v>
@@ -3534,13 +3740,13 @@
         <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>27</v>
@@ -3560,13 +3766,13 @@
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
         <v>27</v>
@@ -3583,16 +3789,16 @@
         <v>25</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="H17" t="s">
         <v>27</v>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5BD46A-8EF6-DB45-9AFF-AD350F70101E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558680AE-A5F0-0647-9C9A-91CEEB269EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="157">
   <si>
     <t>Data</t>
   </si>
@@ -491,9 +491,6 @@
   </si>
   <si>
     <t>Francesco Ninni</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>tumi.png</t>
@@ -1188,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="200" workbookViewId="0">
-      <selection activeCell="D53" sqref="D49:D53"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="200" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2743,8 +2740,8 @@
       <c r="D91">
         <v>10</v>
       </c>
-      <c r="E91" t="s">
-        <v>156</v>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -3284,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3348,7 +3345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="156" workbookViewId="0">
+    <sheetView zoomScale="156" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -3408,7 +3405,7 @@
         <v>145</v>
       </c>
       <c r="G2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H2" t="s">
         <v>97</v>
@@ -3538,7 +3535,7 @@
         <v>145</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
@@ -3636,7 +3633,7 @@
         <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>29</v>
@@ -3798,7 +3795,7 @@
         <v>145</v>
       </c>
       <c r="G17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H17" t="s">
         <v>27</v>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558680AE-A5F0-0647-9C9A-91CEEB269EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA55BD7-20AB-EB4A-A1CE-FD5F63E13F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="156">
   <si>
     <t>Data</t>
   </si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>casablanca.png</t>
-  </si>
-  <si>
-    <t>Caffè Bistrot</t>
   </si>
   <si>
     <t>caligo.png</t>
@@ -1114,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1154,25 +1151,25 @@
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>45846</v>
-      </c>
-      <c r="B2" s="6">
+        <v>45848</v>
+      </c>
+      <c r="B2" s="2">
         <v>0.85416666666666663</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>40</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
       </c>
       <c r="H2"/>
     </row>
@@ -1185,7 +1182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="200" workbookViewId="0">
+    <sheetView topLeftCell="A93" zoomScale="200" workbookViewId="0">
       <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
@@ -1211,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1219,10 +1216,10 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1236,7 +1233,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -1253,7 +1250,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1270,7 +1267,7 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1287,7 +1284,7 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1304,7 +1301,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1321,7 +1318,7 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1338,7 +1335,7 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1355,7 +1352,7 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1372,10 +1369,10 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>72</v>
@@ -1389,7 +1386,7 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1406,7 +1403,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -1423,7 +1420,7 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -1440,7 +1437,7 @@
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1457,7 +1454,7 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -1474,7 +1471,7 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -1491,7 +1488,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -1508,7 +1505,7 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -1525,7 +1522,7 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1542,7 +1539,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -1559,13 +1556,13 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1576,13 +1573,13 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1593,13 +1590,13 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" t="s">
         <v>143</v>
       </c>
-      <c r="C24" t="s">
-        <v>144</v>
-      </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1610,10 +1607,10 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1627,7 +1624,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
@@ -1644,7 +1641,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -1661,7 +1658,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -1678,7 +1675,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -1695,7 +1692,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -1712,10 +1709,10 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31">
         <v>14</v>
@@ -1729,7 +1726,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -1746,7 +1743,7 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -1763,7 +1760,7 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -1780,7 +1777,7 @@
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -1797,7 +1794,7 @@
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1814,7 +1811,7 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
@@ -1831,7 +1828,7 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -1848,10 +1845,10 @@
         <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1865,7 +1862,7 @@
         <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -1882,7 +1879,7 @@
         <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -1899,7 +1896,7 @@
         <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -1916,7 +1913,7 @@
         <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -1933,10 +1930,10 @@
         <v>31</v>
       </c>
       <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
         <v>87</v>
-      </c>
-      <c r="C44" t="s">
-        <v>88</v>
       </c>
       <c r="D44">
         <v>14</v>
@@ -1950,7 +1947,7 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
@@ -1967,7 +1964,7 @@
         <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
@@ -1984,7 +1981,7 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
@@ -2001,10 +1998,10 @@
         <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48">
         <v>12</v>
@@ -2018,13 +2015,13 @@
         <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2035,13 +2032,13 @@
         <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2052,13 +2049,13 @@
         <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2069,13 +2066,13 @@
         <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2086,13 +2083,13 @@
         <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2103,10 +2100,10 @@
         <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2120,7 +2117,7 @@
         <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -2137,7 +2134,7 @@
         <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
@@ -2154,7 +2151,7 @@
         <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
@@ -2171,7 +2168,7 @@
         <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
@@ -2188,7 +2185,7 @@
         <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -2205,7 +2202,7 @@
         <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
@@ -2222,7 +2219,7 @@
         <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
@@ -2239,7 +2236,7 @@
         <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
@@ -2256,7 +2253,7 @@
         <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -2273,7 +2270,7 @@
         <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
@@ -2287,13 +2284,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -2304,10 +2301,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
@@ -2321,10 +2318,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C67" t="s">
         <v>11</v>
@@ -2338,10 +2335,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
@@ -2355,10 +2352,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
@@ -2372,10 +2369,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -2389,10 +2386,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
@@ -2406,10 +2403,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
@@ -2423,10 +2420,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
@@ -2440,10 +2437,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -2457,13 +2454,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D75">
         <v>12</v>
@@ -2474,10 +2471,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
@@ -2494,13 +2491,13 @@
         <v>34</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2511,13 +2508,13 @@
         <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2528,13 +2525,13 @@
         <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2545,13 +2542,13 @@
         <v>34</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2562,13 +2559,13 @@
         <v>34</v>
       </c>
       <c r="B81" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2579,13 +2576,13 @@
         <v>34</v>
       </c>
       <c r="B82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2596,7 +2593,7 @@
         <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C83" t="s">
         <v>11</v>
@@ -2613,10 +2610,10 @@
         <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -2630,7 +2627,7 @@
         <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
@@ -2647,7 +2644,7 @@
         <v>29</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
@@ -2664,7 +2661,7 @@
         <v>29</v>
       </c>
       <c r="B87" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
@@ -2681,7 +2678,7 @@
         <v>29</v>
       </c>
       <c r="B88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
@@ -2698,7 +2695,7 @@
         <v>29</v>
       </c>
       <c r="B89" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
@@ -2712,10 +2709,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
@@ -2729,10 +2726,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B91" t="s">
         <v>145</v>
-      </c>
-      <c r="B91" t="s">
-        <v>146</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
@@ -2746,10 +2743,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
@@ -2763,10 +2760,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C93" t="s">
         <v>12</v>
@@ -2780,10 +2777,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
@@ -2797,10 +2794,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
@@ -2814,10 +2811,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B96" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
@@ -2831,10 +2828,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C97" t="s">
         <v>11</v>
@@ -2848,10 +2845,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
@@ -2865,13 +2862,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -2882,10 +2879,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C100" t="s">
         <v>13</v>
@@ -2899,13 +2896,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D101">
         <v>45</v>
@@ -3079,7 +3076,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="49" t="s">
         <v>24</v>
@@ -3106,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3211,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3254,7 +3251,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>25</v>
@@ -3281,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3346,7 +3343,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScale="156" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3402,13 +3399,13 @@
         <v>36</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3422,10 +3419,10 @@
         <v>24</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
         <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>32</v>
@@ -3434,30 +3431,30 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>45846</v>
-      </c>
-      <c r="B4" s="6">
+        <v>45848</v>
+      </c>
+      <c r="B4" s="2">
         <v>0.85416666666666663</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>40</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
@@ -3465,25 +3462,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>45846</v>
-      </c>
-      <c r="B5" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B5" s="6">
         <v>0.89583333333333337</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="H5" t="s">
         <v>27</v>
@@ -3494,22 +3491,22 @@
         <v>45848</v>
       </c>
       <c r="B6" s="2">
-        <v>0.85416666666666663</v>
+        <v>0.9375</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
         <v>27</v>
@@ -3517,25 +3514,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>45848</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0.89583333333333337</v>
+        <v>45849</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.85416666666666663</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
@@ -3543,59 +3540,59 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B8" s="2">
-        <v>0.9375</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>45849</v>
+      <c r="A9" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B9" s="2">
         <v>0.85416666666666663</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>45849</v>
+      <c r="A10" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B10" s="2">
         <v>0.89583333333333337</v>
@@ -3604,68 +3601,68 @@
         <v>25</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" t="s">
         <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>35</v>
+      <c r="A11" s="4">
+        <v>45852</v>
       </c>
       <c r="B11" s="2">
-        <v>0.85416666666666663</v>
+        <v>0.9375</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>35</v>
+      <c r="A12" s="4">
+        <v>45853</v>
       </c>
       <c r="B12" s="2">
-        <v>0.89583333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s">
         <v>27</v>
@@ -3676,22 +3673,22 @@
         <v>45853</v>
       </c>
       <c r="B13" s="2">
-        <v>0.85416666666666663</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
         <v>27</v>
@@ -3702,22 +3699,22 @@
         <v>45853</v>
       </c>
       <c r="B14" s="2">
-        <v>0.89583333333333337</v>
+        <v>0.9375</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
         <v>27</v>
@@ -3766,10 +3763,10 @@
         <v>39</v>
       </c>
       <c r="F16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
         <v>44</v>
-      </c>
-      <c r="G16" t="s">
-        <v>45</v>
       </c>
       <c r="H16" t="s">
         <v>27</v>
@@ -3792,14 +3789,20 @@
         <v>40</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H17" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C26" s="6"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/torneoapp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA55BD7-20AB-EB4A-A1CE-FD5F63E13F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FA5311-DD37-7F4E-BDFD-795FF1A81D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="155">
   <si>
     <t>Data</t>
   </si>
@@ -305,9 +305,6 @@
   </si>
   <si>
     <t>Filippo Clemente</t>
-  </si>
-  <si>
-    <t>Arcangelo Padricelli</t>
   </si>
   <si>
     <t>Giulio Biolcati</t>
@@ -1111,7 +1108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+    <sheetView zoomScale="135" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1180,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScale="200" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1556,10 +1553,10 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
         <v>68</v>
@@ -1573,10 +1570,10 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D23" t="s">
         <v>68</v>
@@ -1590,10 +1587,10 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" t="s">
         <v>142</v>
-      </c>
-      <c r="C24" t="s">
-        <v>143</v>
       </c>
       <c r="D24" t="s">
         <v>68</v>
@@ -1811,7 +1808,7 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
@@ -1828,7 +1825,7 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -2069,7 +2066,7 @@
         <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
         <v>68</v>
@@ -2080,16 +2077,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s">
-        <v>68</v>
+        <v>46</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2103,10 +2100,10 @@
         <v>97</v>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2123,7 +2120,7 @@
         <v>13</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2137,10 +2134,10 @@
         <v>99</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2154,10 +2151,10 @@
         <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2174,7 +2171,7 @@
         <v>13</v>
       </c>
       <c r="D58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2188,10 +2185,10 @@
         <v>102</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D59">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2205,10 +2202,10 @@
         <v>103</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D60">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2222,10 +2219,10 @@
         <v>104</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2239,10 +2236,10 @@
         <v>105</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D62">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2256,10 +2253,10 @@
         <v>106</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2267,16 +2264,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D64">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2290,10 +2287,10 @@
         <v>109</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2307,10 +2304,10 @@
         <v>110</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2324,10 +2321,10 @@
         <v>111</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2344,7 +2341,7 @@
         <v>12</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2358,10 +2355,10 @@
         <v>113</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2375,10 +2372,10 @@
         <v>114</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2392,10 +2389,10 @@
         <v>115</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D71">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2412,7 +2409,7 @@
         <v>11</v>
       </c>
       <c r="D72">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2426,10 +2423,10 @@
         <v>117</v>
       </c>
       <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73">
         <v>11</v>
-      </c>
-      <c r="D73">
-        <v>10</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2443,10 +2440,10 @@
         <v>118</v>
       </c>
       <c r="C74" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74">
         <v>12</v>
-      </c>
-      <c r="D74">
-        <v>11</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2457,30 +2454,30 @@
         <v>43</v>
       </c>
       <c r="B75" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C75" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D75">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>43</v>
+      <c r="A76" s="37" t="s">
+        <v>34</v>
       </c>
       <c r="B76" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
       </c>
-      <c r="D76">
-        <v>7</v>
+      <c r="D76" t="s">
+        <v>68</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2494,7 +2491,7 @@
         <v>122</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D77" t="s">
         <v>68</v>
@@ -2562,7 +2559,7 @@
         <v>126</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D81" t="s">
         <v>68</v>
@@ -2573,16 +2570,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="37" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" t="s">
-        <v>68</v>
+        <v>11</v>
+      </c>
+      <c r="D82">
+        <v>10</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2596,10 +2593,10 @@
         <v>130</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D83">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2613,10 +2610,10 @@
         <v>131</v>
       </c>
       <c r="C84" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2633,7 +2630,7 @@
         <v>13</v>
       </c>
       <c r="D85">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2647,10 +2644,10 @@
         <v>133</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2664,10 +2661,10 @@
         <v>134</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D87">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2681,10 +2678,10 @@
         <v>135</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D88">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2692,16 +2689,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="37" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="B89" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D89">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2709,16 +2706,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B90" t="s">
         <v>144</v>
       </c>
-      <c r="B90" t="s">
-        <v>121</v>
-      </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -2726,16 +2723,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B91" t="s">
         <v>145</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D91">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -2743,16 +2740,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B92" t="s">
         <v>146</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D92">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -2760,16 +2757,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B93" t="s">
         <v>147</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D93">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -2777,16 +2774,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B94" t="s">
         <v>148</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -2794,16 +2791,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B95" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D95">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2811,16 +2808,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B96" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D96">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2828,16 +2825,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B97" t="s">
         <v>150</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -2845,16 +2842,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B98" t="s">
         <v>151</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D98">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -2862,16 +2859,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B99" t="s">
         <v>152</v>
       </c>
       <c r="C99" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -2879,35 +2876,18 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B100" t="s">
         <v>153</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D100">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="B101" t="s">
-        <v>154</v>
-      </c>
-      <c r="C101" t="s">
-        <v>46</v>
-      </c>
-      <c r="D101">
-        <v>45</v>
-      </c>
-      <c r="E101">
         <v>0</v>
       </c>
     </row>
@@ -3251,7 +3231,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>25</v>
@@ -3278,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3399,13 +3379,13 @@
         <v>36</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3431,7 +3411,7 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3477,10 +3457,10 @@
         <v>42</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H5" t="s">
         <v>27</v>
@@ -3575,10 +3555,10 @@
         <v>25</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>29</v>
@@ -3789,10 +3769,10 @@
         <v>40</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H17" t="s">
         <v>27</v>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FA5311-DD37-7F4E-BDFD-795FF1A81D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDACF12-A190-DE4D-BDA6-5B7CB5FBD351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -712,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -804,6 +804,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1179,7 +1183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+    <sheetView zoomScale="200" workbookViewId="0">
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
@@ -3322,8 +3326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScale="156" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3334,6 +3338,7 @@
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
     <col min="7" max="7" width="32.83203125" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -3358,7 +3363,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="53" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3384,7 +3389,7 @@
       <c r="G2" t="s">
         <v>154</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="54" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3410,7 +3415,7 @@
       <c r="G3" t="s">
         <v>37</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="54" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3436,7 +3441,7 @@
       <c r="G4" t="s">
         <v>40</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="54" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3462,7 +3467,7 @@
       <c r="G5" t="s">
         <v>154</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="54" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3488,7 +3493,7 @@
       <c r="G6" t="s">
         <v>38</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="54" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3514,7 +3519,7 @@
       <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="54" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3540,7 +3545,7 @@
       <c r="G8" t="s">
         <v>40</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="54" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3566,7 +3571,7 @@
       <c r="G9" t="s">
         <v>41</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="54" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3592,7 +3597,7 @@
       <c r="G10" t="s">
         <v>42</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="54" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3618,7 +3623,7 @@
       <c r="G11" t="s">
         <v>39</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="54" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3644,7 +3649,7 @@
       <c r="G12" t="s">
         <v>41</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="54" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3670,7 +3675,7 @@
       <c r="G13" t="s">
         <v>37</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="54" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3696,7 +3701,7 @@
       <c r="G14" t="s">
         <v>36</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="54" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3722,7 +3727,7 @@
       <c r="G15" t="s">
         <v>36</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="54" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3748,7 +3753,7 @@
       <c r="G16" t="s">
         <v>44</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="54" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3774,7 +3779,7 @@
       <c r="G17" t="s">
         <v>154</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="54" t="s">
         <v>27</v>
       </c>
     </row>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDACF12-A190-DE4D-BDA6-5B7CB5FBD351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B029F0F5-ADB2-024E-8012-E1472111CE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3326,8 +3326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="C20" sqref="C18:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B029F0F5-ADB2-024E-8012-E1472111CE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F06777-95B8-2845-9609-34A7ED10D92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="160">
   <si>
     <t>Data</t>
   </si>
@@ -319,9 +319,6 @@
     <t>Pullum Peza</t>
   </si>
   <si>
-    <t>Francesco Marchetti</t>
-  </si>
-  <si>
     <t>Nicola Lionello</t>
   </si>
   <si>
@@ -388,15 +385,6 @@
     <t>Cristian Furlan</t>
   </si>
   <si>
-    <t>Enrico Garbi</t>
-  </si>
-  <si>
-    <t>Federico Spigolon</t>
-  </si>
-  <si>
-    <t>Mattia Crepaldi</t>
-  </si>
-  <si>
     <t>Fabio Fidelfatti</t>
   </si>
   <si>
@@ -488,6 +476,33 @@
   </si>
   <si>
     <t>tumi.png</t>
+  </si>
+  <si>
+    <t>Giacomo Garbi</t>
+  </si>
+  <si>
+    <t>Francesco Candiracci</t>
+  </si>
+  <si>
+    <t>Luca Marangon</t>
+  </si>
+  <si>
+    <t>Antony Nalin</t>
+  </si>
+  <si>
+    <t>Pietro Saia</t>
+  </si>
+  <si>
+    <t>Manuel Porzionato</t>
+  </si>
+  <si>
+    <t>Simone Cesari</t>
+  </si>
+  <si>
+    <t>Giacomo Castellato</t>
+  </si>
+  <si>
+    <t>Andrea Trombini</t>
   </si>
 </sst>
 </file>
@@ -1181,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1557,10 +1572,10 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
         <v>68</v>
@@ -1574,10 +1589,10 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
         <v>68</v>
@@ -1591,10 +1606,10 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
         <v>68</v>
@@ -1812,7 +1827,7 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
@@ -1829,7 +1844,7 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -2121,10 +2136,10 @@
         <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2138,10 +2153,10 @@
         <v>99</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2158,7 +2173,7 @@
         <v>13</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2172,10 +2187,10 @@
         <v>101</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2189,10 +2204,10 @@
         <v>102</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D59">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2206,10 +2221,10 @@
         <v>103</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2223,10 +2238,10 @@
         <v>104</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2240,10 +2255,10 @@
         <v>105</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2251,16 +2266,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D63">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2274,10 +2289,10 @@
         <v>108</v>
       </c>
       <c r="C64" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2291,10 +2306,10 @@
         <v>109</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2308,10 +2323,10 @@
         <v>110</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2328,7 +2343,7 @@
         <v>12</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2342,10 +2357,10 @@
         <v>112</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D68">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2359,10 +2374,10 @@
         <v>113</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2376,10 +2391,10 @@
         <v>114</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D70">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2396,7 +2411,7 @@
         <v>11</v>
       </c>
       <c r="D71">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2410,10 +2425,10 @@
         <v>116</v>
       </c>
       <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72">
         <v>11</v>
-      </c>
-      <c r="D72">
-        <v>10</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2427,10 +2442,10 @@
         <v>117</v>
       </c>
       <c r="C73" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73">
         <v>12</v>
-      </c>
-      <c r="D73">
-        <v>11</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2441,30 +2456,30 @@
         <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C74" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D74">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>43</v>
+      <c r="A75" s="37" t="s">
+        <v>29</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
       </c>
       <c r="D75">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2472,16 +2487,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="37" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s">
-        <v>68</v>
+        <v>46</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2489,16 +2504,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="37" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
       </c>
-      <c r="D77" t="s">
-        <v>68</v>
+      <c r="D77">
+        <v>6</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2506,16 +2521,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="37" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
       </c>
-      <c r="D78" t="s">
-        <v>68</v>
+      <c r="D78">
+        <v>2</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2523,16 +2538,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="37" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" t="s">
-        <v>68</v>
+        <v>12</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2540,16 +2555,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="37" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" t="s">
-        <v>68</v>
+        <v>11</v>
+      </c>
+      <c r="D80">
+        <v>7</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2557,16 +2572,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="37" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B81" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
       </c>
-      <c r="D81" t="s">
-        <v>68</v>
+      <c r="D81">
+        <v>8</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2574,16 +2589,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="37" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="B82" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
       </c>
       <c r="D82">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2591,16 +2606,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="37" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="B83" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C83" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2608,16 +2623,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="37" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="B84" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2625,16 +2640,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="37" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="B85" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2642,16 +2657,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="37" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="B86" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2659,16 +2674,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="37" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="B87" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D87">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2676,13 +2691,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="37" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="B88" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D88">
         <v>8</v>
@@ -2693,16 +2708,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B89" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C89" t="s">
         <v>11</v>
       </c>
       <c r="D89">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2710,16 +2725,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B90" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
       </c>
       <c r="D90">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -2727,16 +2742,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B91" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D91">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -2744,16 +2759,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B92" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D92">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -2761,16 +2776,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B93" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -2778,16 +2793,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="37" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C94" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D94">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -2795,16 +2810,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="37" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
       </c>
       <c r="D95">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2812,16 +2827,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="37" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D96">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2829,16 +2844,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="37" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D97">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -2846,16 +2861,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="37" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="B98" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C98" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -2863,16 +2878,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="37" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="B99" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -2880,18 +2895,103 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="37" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C100" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D100">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" t="s">
+        <v>156</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101">
+        <v>10</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" t="s">
+        <v>158</v>
+      </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102">
+        <v>17</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" t="s">
+        <v>157</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103">
+        <v>11</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B104" t="s">
+        <v>159</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104">
+        <v>13</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105">
+        <v>6</v>
+      </c>
+      <c r="E105">
         <v>0</v>
       </c>
     </row>
@@ -3235,7 +3335,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>25</v>
@@ -3262,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3326,7 +3426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
+    <sheetView zoomScale="156" workbookViewId="0">
       <selection activeCell="C20" sqref="C18:C20"/>
     </sheetView>
   </sheetViews>
@@ -3384,10 +3484,10 @@
         <v>36</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H2" s="54" t="s">
         <v>95</v>
@@ -3416,7 +3516,7 @@
         <v>37</v>
       </c>
       <c r="H3" s="54" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3462,10 +3562,10 @@
         <v>42</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H5" s="54" t="s">
         <v>27</v>
@@ -3560,10 +3660,10 @@
         <v>25</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>29</v>
@@ -3774,10 +3874,10 @@
         <v>40</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H17" s="54" t="s">
         <v>27</v>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F06777-95B8-2845-9609-34A7ED10D92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5646F2-2742-144B-94E1-27EDD7AFE983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="151">
   <si>
     <t>Data</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Il Baretto</t>
   </si>
   <si>
-    <t>Club Casablanca</t>
-  </si>
-  <si>
     <t>Autodemolizioni Mantovani</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>bistrot.png</t>
   </si>
   <si>
-    <t>casablanca.png</t>
-  </si>
-  <si>
     <t>caligo.png</t>
   </si>
   <si>
@@ -398,27 +392,6 @@
   </si>
   <si>
     <t>0-6</t>
-  </si>
-  <si>
-    <t>El Mehdi Ettoufaji</t>
-  </si>
-  <si>
-    <t>Otmane Ettoufaji</t>
-  </si>
-  <si>
-    <t>Omar Mkadmi</t>
-  </si>
-  <si>
-    <t>El Hatifi Mohamed</t>
-  </si>
-  <si>
-    <t>Ayoub Errahili</t>
-  </si>
-  <si>
-    <t>Yassine Elyousfi</t>
-  </si>
-  <si>
-    <t>Mohamed Atouama</t>
   </si>
   <si>
     <t>Salah Sadellah</t>
@@ -1127,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1169,25 +1142,27 @@
       <c r="A2" s="4">
         <v>45848</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.85416666666666663</v>
+      <c r="B2" s="6">
+        <v>0.89583333333333337</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2"/>
+        <v>141</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1196,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="200" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView topLeftCell="A59" zoomScale="200" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1224,18 +1199,18 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1246,10 +1221,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -1263,10 +1238,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1280,10 +1255,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1297,10 +1272,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1314,10 +1289,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1331,10 +1306,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1348,10 +1323,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1365,10 +1340,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1382,13 +1357,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11">
         <v>72</v>
@@ -1399,10 +1374,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1416,10 +1391,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -1433,10 +1408,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -1450,10 +1425,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1467,10 +1442,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -1484,10 +1459,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -1501,10 +1476,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -1518,10 +1493,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -1535,10 +1510,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1552,10 +1527,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -1569,16 +1544,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1586,16 +1561,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1603,16 +1578,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1623,10 +1598,10 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1640,7 +1615,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
@@ -1657,7 +1632,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -1674,7 +1649,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -1691,7 +1666,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -1708,7 +1683,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -1725,10 +1700,10 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D31">
         <v>14</v>
@@ -1742,7 +1717,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -1759,7 +1734,7 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -1776,7 +1751,7 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -1793,7 +1768,7 @@
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -1810,7 +1785,7 @@
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1827,7 +1802,7 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
@@ -1844,7 +1819,7 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -1858,13 +1833,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1875,10 +1850,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -1892,10 +1867,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -1909,10 +1884,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -1926,10 +1901,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -1943,13 +1918,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D44">
         <v>14</v>
@@ -1960,10 +1935,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
@@ -1977,10 +1952,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
@@ -1994,10 +1969,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
@@ -2011,13 +1986,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D48">
         <v>12</v>
@@ -2028,16 +2003,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2045,16 +2020,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2062,16 +2037,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2079,16 +2054,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2096,13 +2071,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -2113,10 +2088,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -2130,10 +2105,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
@@ -2147,10 +2122,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
@@ -2164,10 +2139,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
@@ -2181,10 +2156,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -2198,10 +2173,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
@@ -2215,10 +2190,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
@@ -2232,10 +2207,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
@@ -2249,10 +2224,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
@@ -2266,13 +2241,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B63" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -2283,10 +2258,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
@@ -2300,10 +2275,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
@@ -2317,10 +2292,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
@@ -2334,10 +2309,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
@@ -2351,10 +2326,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
@@ -2368,10 +2343,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B69" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
@@ -2385,10 +2360,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
@@ -2402,10 +2377,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
@@ -2419,10 +2394,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B72" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -2436,13 +2411,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C73" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D73">
         <v>12</v>
@@ -2453,10 +2428,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C74" t="s">
         <v>11</v>
@@ -2470,16 +2445,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="37" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="B75" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
       </c>
       <c r="D75">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2487,16 +2462,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="37" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="B76" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C76" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2504,16 +2479,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="37" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
       </c>
       <c r="D77">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2521,16 +2496,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="37" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="B78" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2538,16 +2513,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="37" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="B79" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2555,16 +2530,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="37" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D80">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2572,13 +2547,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="37" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="B81" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D81">
         <v>8</v>
@@ -2589,16 +2564,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="37" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B82" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
       </c>
       <c r="D82">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2606,16 +2581,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="37" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
       </c>
       <c r="D83">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2623,16 +2598,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="37" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B84" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D84">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2640,16 +2615,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" t="s">
         <v>139</v>
       </c>
-      <c r="B85" t="s">
-        <v>142</v>
-      </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D85">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2657,16 +2632,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="37" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B86" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2674,16 +2649,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="37" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="B87" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D87">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2691,16 +2666,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="37" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
       </c>
       <c r="D88">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2708,16 +2683,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="37" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D89">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2725,16 +2700,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="37" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="B90" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D90">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -2742,16 +2717,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="37" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C91" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -2759,16 +2734,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="37" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
       </c>
       <c r="D92">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -2776,16 +2751,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="37" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="B93" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C93" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D93">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -2793,16 +2768,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B94" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C94" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -2810,16 +2785,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B95" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2827,16 +2802,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B96" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2844,16 +2819,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B97" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97">
         <v>13</v>
-      </c>
-      <c r="D97">
-        <v>5</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -2861,137 +2836,18 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D98">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B99" t="s">
-        <v>154</v>
-      </c>
-      <c r="C99" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99">
-        <v>8</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B100" t="s">
-        <v>155</v>
-      </c>
-      <c r="C100" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100">
-        <v>9</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B101" t="s">
-        <v>156</v>
-      </c>
-      <c r="C101" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101">
-        <v>10</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B102" t="s">
-        <v>158</v>
-      </c>
-      <c r="C102" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102">
-        <v>17</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B103" t="s">
-        <v>157</v>
-      </c>
-      <c r="C103" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103">
-        <v>11</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B104" t="s">
-        <v>159</v>
-      </c>
-      <c r="C104" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104">
-        <v>13</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B105" t="s">
-        <v>121</v>
-      </c>
-      <c r="C105" t="s">
-        <v>13</v>
-      </c>
-      <c r="D105">
-        <v>6</v>
-      </c>
-      <c r="E105">
         <v>0</v>
       </c>
     </row>
@@ -3005,7 +2861,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3055,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>24</v>
@@ -3082,7 +2938,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3090,7 +2946,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>24</v>
@@ -3117,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3125,7 +2981,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>24</v>
@@ -3152,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3160,7 +3016,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="49" t="s">
         <v>24</v>
@@ -3187,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3222,77 +3078,77 @@
         <v>3</v>
       </c>
       <c r="K6" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>2</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="24">
-        <v>0</v>
-      </c>
-      <c r="E7" s="24">
-        <v>0</v>
-      </c>
-      <c r="F7" s="24">
-        <v>0</v>
-      </c>
-      <c r="G7" s="24">
-        <v>0</v>
-      </c>
-      <c r="H7" s="35">
-        <v>0</v>
-      </c>
-      <c r="I7" s="35">
-        <v>0</v>
-      </c>
-      <c r="J7" s="42">
-        <v>0</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>41</v>
+      <c r="D7" s="45">
+        <v>0</v>
+      </c>
+      <c r="E7" s="45">
+        <v>0</v>
+      </c>
+      <c r="F7" s="45">
+        <v>0</v>
+      </c>
+      <c r="G7" s="45">
+        <v>0</v>
+      </c>
+      <c r="H7" s="46">
+        <v>0</v>
+      </c>
+      <c r="I7" s="46">
+        <v>0</v>
+      </c>
+      <c r="J7" s="47">
+        <v>0</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="26">
         <v>3</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="45">
-        <v>0</v>
-      </c>
-      <c r="E8" s="45">
-        <v>0</v>
-      </c>
-      <c r="F8" s="45">
-        <v>0</v>
-      </c>
-      <c r="G8" s="45">
-        <v>0</v>
-      </c>
-      <c r="H8" s="46">
-        <v>0</v>
-      </c>
-      <c r="I8" s="46">
-        <v>0</v>
-      </c>
-      <c r="J8" s="47">
-        <v>0</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>42</v>
+      <c r="D8" s="29">
+        <v>0</v>
+      </c>
+      <c r="E8" s="29">
+        <v>0</v>
+      </c>
+      <c r="F8" s="29">
+        <v>0</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0</v>
+      </c>
+      <c r="H8" s="36">
+        <v>0</v>
+      </c>
+      <c r="I8" s="36">
+        <v>0</v>
+      </c>
+      <c r="J8" s="43">
+        <v>0</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3300,13 +3156,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="29">
         <v>0</v>
@@ -3315,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="36">
         <v>0</v>
@@ -3327,42 +3183,12 @@
         <v>0</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="28">
         <v>5</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="29">
-        <v>1</v>
-      </c>
-      <c r="E10" s="29">
-        <v>0</v>
-      </c>
-      <c r="F10" s="29">
-        <v>0</v>
-      </c>
-      <c r="G10" s="29">
-        <v>1</v>
-      </c>
-      <c r="H10" s="36">
-        <v>0</v>
-      </c>
-      <c r="I10" s="36">
-        <v>0</v>
-      </c>
-      <c r="J10" s="43">
-        <v>0</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3427,7 +3253,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScale="156" workbookViewId="0">
-      <selection activeCell="C20" sqref="C18:C20"/>
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3481,16 +3307,16 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="H2" s="54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3504,42 +3330,42 @@
         <v>24</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="54" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>45848</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.85416666666666663</v>
+      <c r="B4" s="6">
+        <v>0.89583333333333337</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="H4" s="54" t="s">
         <v>27</v>
@@ -3549,23 +3375,23 @@
       <c r="A5" s="4">
         <v>45848</v>
       </c>
-      <c r="B5" s="6">
-        <v>0.89583333333333337</v>
+      <c r="B5" s="2">
+        <v>0.9375</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="H5" s="54" t="s">
         <v>27</v>
@@ -3573,25 +3399,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B6" s="2">
-        <v>0.9375</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="54" t="s">
         <v>27</v>
@@ -3602,30 +3428,30 @@
         <v>45849</v>
       </c>
       <c r="B7" s="2">
-        <v>0.85416666666666663</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="54" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>45849</v>
+      <c r="A8" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B8" s="2">
         <v>0.89583333333333337</v>
@@ -3634,10 +3460,10 @@
         <v>25</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>33</v>
@@ -3650,52 +3476,52 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>35</v>
+      <c r="A9" s="4">
+        <v>45852</v>
       </c>
       <c r="B9" s="2">
-        <v>0.85416666666666663</v>
+        <v>0.9375</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H9" s="54" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>35</v>
+      <c r="A10" s="4">
+        <v>45853</v>
       </c>
       <c r="B10" s="2">
         <v>0.89583333333333337</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
         <v>36</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
       </c>
       <c r="H10" s="54" t="s">
         <v>27</v>
@@ -3703,25 +3529,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B11" s="2">
         <v>0.9375</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H11" s="54" t="s">
         <v>27</v>
@@ -3729,25 +3555,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B12" s="2">
-        <v>0.85416666666666663</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
         <v>42</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>41</v>
       </c>
       <c r="H12" s="54" t="s">
         <v>27</v>
@@ -3755,149 +3581,48 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B13" s="2">
-        <v>0.89583333333333337</v>
+        <v>0.9375</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="H13" s="54" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>45853</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>45854</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>45854</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>45854</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G17" t="s">
-        <v>150</v>
-      </c>
-      <c r="H17" s="54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C26" s="6"/>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C27" s="2"/>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C28" s="6"/>
       <c r="D28" s="8"/>
     </row>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5646F2-2742-144B-94E1-27EDD7AFE983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D24170-292D-C64C-95BD-CA20216D5103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="152">
   <si>
     <t>Data</t>
   </si>
@@ -476,6 +476,9 @@
   </si>
   <si>
     <t>Andrea Trombini</t>
+  </si>
+  <si>
+    <t>Ousmane Banse</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1104,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1171,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView topLeftCell="A73" zoomScale="200" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86:E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2635,13 +2638,13 @@
         <v>130</v>
       </c>
       <c r="B86" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C86" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D86">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2649,16 +2652,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="37" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="B87" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C87" t="s">
         <v>44</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2669,13 +2672,13 @@
         <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2686,13 +2689,13 @@
         <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2703,13 +2706,13 @@
         <v>33</v>
       </c>
       <c r="B90" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
       </c>
       <c r="D90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -2720,13 +2723,13 @@
         <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D91">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -2737,13 +2740,13 @@
         <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D92">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -2754,13 +2757,13 @@
         <v>33</v>
       </c>
       <c r="B93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D93">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -2771,13 +2774,13 @@
         <v>33</v>
       </c>
       <c r="B94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D94">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -2788,13 +2791,13 @@
         <v>33</v>
       </c>
       <c r="B95" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2805,13 +2808,13 @@
         <v>33</v>
       </c>
       <c r="B96" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D96">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2822,13 +2825,13 @@
         <v>33</v>
       </c>
       <c r="B97" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
       </c>
       <c r="D97">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -2839,15 +2842,32 @@
         <v>33</v>
       </c>
       <c r="B98" t="s">
+        <v>150</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98">
+        <v>13</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" t="s">
         <v>119</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C99" t="s">
         <v>13</v>
       </c>
-      <c r="D98">
+      <c r="D99">
         <v>6</v>
       </c>
-      <c r="E98">
+      <c r="E99">
         <v>0</v>
       </c>
     </row>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D24170-292D-C64C-95BD-CA20216D5103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC040DC9-31F8-B84F-961D-A422BEFE38EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -1103,7 +1103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+    <sheetView zoomScale="135" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86:E86"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="200" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2477,7 +2477,7 @@
         <v>10</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC040DC9-31F8-B84F-961D-A422BEFE38EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EE7EC3-29A5-464A-9A0E-BC6FFAB31AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="153">
   <si>
     <t>Data</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>Ousmane Banse</t>
+  </si>
+  <si>
+    <t>0-1</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="200" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScale="200" workbookViewId="0">
       <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
@@ -3272,8 +3275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScale="156" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3388,7 +3391,7 @@
         <v>141</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EE7EC3-29A5-464A-9A0E-BC6FFAB31AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA81BE1-6284-1C4C-846F-414DA1DE3640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -469,9 +469,6 @@
     <t>Manuel Porzionato</t>
   </si>
   <si>
-    <t>Simone Cesari</t>
-  </si>
-  <si>
     <t>Giacomo Castellato</t>
   </si>
   <si>
@@ -482,6 +479,9 @@
   </si>
   <si>
     <t>0-1</t>
+  </si>
+  <si>
+    <t>Simone Cerasari</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1148,23 +1148,23 @@
       <c r="A2" s="4">
         <v>45848</v>
       </c>
-      <c r="B2" s="6">
-        <v>0.89583333333333337</v>
+      <c r="B2" s="2">
+        <v>0.9375</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="H2" s="54" t="s">
         <v>27</v>
@@ -1179,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="200" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2641,7 +2641,7 @@
         <v>130</v>
       </c>
       <c r="B86" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C86" t="s">
         <v>11</v>
@@ -2811,7 +2811,7 @@
         <v>33</v>
       </c>
       <c r="B96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C96" t="s">
         <v>11</v>
@@ -2828,7 +2828,7 @@
         <v>33</v>
       </c>
       <c r="B97" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
@@ -2837,7 +2837,7 @@
         <v>11</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2845,7 +2845,7 @@
         <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
@@ -3275,8 +3275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="D1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3391,7 +3391,7 @@
         <v>141</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA81BE1-6284-1C4C-846F-414DA1DE3640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E21C0D-CE28-8E4E-814D-B3F29E19E607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -478,10 +478,10 @@
     <t>Ousmane Banse</t>
   </si>
   <si>
-    <t>0-1</t>
-  </si>
-  <si>
     <t>Simone Cerasari</t>
+  </si>
+  <si>
+    <t>1-1</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="200" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScale="200" workbookViewId="0">
       <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
@@ -2828,7 +2828,7 @@
         <v>33</v>
       </c>
       <c r="B97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
@@ -3275,8 +3275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G5" sqref="A5:G5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3391,7 +3391,7 @@
         <v>141</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E21C0D-CE28-8E4E-814D-B3F29E19E607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C260A09-0855-4F40-A0FE-449DDE2DD54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
     <t>Simone Cerasari</t>
   </si>
   <si>
-    <t>1-1</t>
+    <t>1-2</t>
   </si>
 </sst>
 </file>
@@ -1179,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="200" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2650,7 +2650,7 @@
         <v>20</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -3275,7 +3275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="150" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C260A09-0855-4F40-A0FE-449DDE2DD54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C185C6EA-D1F7-9048-83A3-ED6905DD3673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
     <t>Simone Cerasari</t>
   </si>
   <si>
-    <t>1-2</t>
+    <t>2-2</t>
   </si>
 </sst>
 </file>
@@ -1179,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="200" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView topLeftCell="A83" zoomScale="200" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2718,7 +2718,7 @@
         <v>3</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -3275,8 +3275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C185C6EA-D1F7-9048-83A3-ED6905DD3673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FE1D7C-E81C-7F4F-87C4-71D59778856B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
     <t>Simone Cerasari</t>
   </si>
   <si>
-    <t>2-2</t>
+    <t>3-2</t>
   </si>
 </sst>
 </file>
@@ -1179,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScale="200" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="200" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2769,7 +2769,7 @@
         <v>8</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -3275,8 +3275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FE1D7C-E81C-7F4F-87C4-71D59778856B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DA98CE-3456-4E4F-92AE-821E5DA2FB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DA98CE-3456-4E4F-92AE-821E5DA2FB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEBAC99-7FE6-0B43-9C16-6C5FAA77B291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1179,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="200" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="200" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2803,7 +2803,7 @@
         <v>10</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEBAC99-7FE6-0B43-9C16-6C5FAA77B291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07957490-1BD5-1346-A07C-7ADD5DE07EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
     <t>Simone Cerasari</t>
   </si>
   <si>
-    <t>3-2</t>
+    <t>4-2</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="200" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScale="200" workbookViewId="0">
       <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
@@ -3275,7 +3275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07957490-1BD5-1346-A07C-7ADD5DE07EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B194AE21-59E6-6346-901A-5E4223DDDDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -2883,8 +2883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="189" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="35">
         <v>0</v>
@@ -3115,10 +3115,10 @@
         <v>25</v>
       </c>
       <c r="D7" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="45">
         <v>0</v>
@@ -3127,13 +3127,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" s="47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" s="27" t="s">
         <v>40</v>
@@ -3185,7 +3185,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="29">
         <v>0</v>
@@ -3194,13 +3194,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" s="36">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J9" s="43">
         <v>0</v>
@@ -3275,7 +3275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B194AE21-59E6-6346-901A-5E4223DDDDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB17809-075A-344E-8BB9-638B3D4931FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="154">
   <si>
     <t>Data</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>4-2</t>
+  </si>
+  <si>
+    <t>0-1</t>
   </si>
 </sst>
 </file>
@@ -1179,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="200" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView topLeftCell="A51" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2208,7 +2211,7 @@
         <v>10</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2883,8 +2886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B1" zoomScale="189" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2952,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I2" s="32">
         <v>0</v>
@@ -3060,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="50">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" s="51">
         <v>0</v>
@@ -3275,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3417,7 +3420,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB17809-075A-344E-8BB9-638B3D4931FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BECF5B-50EB-4545-9B17-CD7FE6EE5E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
     <t>4-2</t>
   </si>
   <si>
-    <t>0-1</t>
+    <t>0-2</t>
   </si>
 </sst>
 </file>
@@ -1182,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2177,7 +2177,7 @@
         <v>8</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -3278,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BECF5B-50EB-4545-9B17-CD7FE6EE5E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22107A5F-3B34-CB41-AB2F-F48F7D826208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1182,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2415,7 +2415,7 @@
         <v>11</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22107A5F-3B34-CB41-AB2F-F48F7D826208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD0C166-E227-B942-9A01-9286528F8FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
     <t>4-2</t>
   </si>
   <si>
-    <t>0-2</t>
+    <t>1-2</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A59" zoomScale="150" workbookViewId="0">
       <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
@@ -3278,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD0C166-E227-B942-9A01-9286528F8FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E864EFA4-FD4E-4545-A148-8B91EBAD1F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
     <t>4-2</t>
   </si>
   <si>
-    <t>1-2</t>
+    <t>1-3</t>
   </si>
 </sst>
 </file>
@@ -1182,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2160,7 +2160,7 @@
         <v>6</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -3278,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E864EFA4-FD4E-4545-A148-8B91EBAD1F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE75439B-E035-1441-A286-40BBA7FAD8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,7 +484,7 @@
     <t>4-2</t>
   </si>
   <si>
-    <t>1-3</t>
+    <t>1-5</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="150" workbookViewId="0">
       <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
@@ -2160,7 +2160,7 @@
         <v>6</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2211,7 +2211,7 @@
         <v>10</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -3279,7 +3279,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE75439B-E035-1441-A286-40BBA7FAD8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DA8123-42D0-1F4D-935D-A765A2344B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -755,8 +755,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -776,7 +774,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -785,7 +782,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -805,6 +801,20 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1169,7 +1179,7 @@
       <c r="G2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="50" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1182,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2453,7 +2463,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="34" t="s">
         <v>130</v>
       </c>
       <c r="B75" t="s">
@@ -2470,7 +2480,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="37" t="s">
+      <c r="A76" s="34" t="s">
         <v>130</v>
       </c>
       <c r="B76" t="s">
@@ -2487,7 +2497,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="34" t="s">
         <v>130</v>
       </c>
       <c r="B77" t="s">
@@ -2504,7 +2514,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="37" t="s">
+      <c r="A78" s="34" t="s">
         <v>130</v>
       </c>
       <c r="B78" t="s">
@@ -2521,7 +2531,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="34" t="s">
         <v>130</v>
       </c>
       <c r="B79" t="s">
@@ -2538,7 +2548,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="34" t="s">
         <v>130</v>
       </c>
       <c r="B80" t="s">
@@ -2555,7 +2565,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="34" t="s">
         <v>130</v>
       </c>
       <c r="B81" t="s">
@@ -2572,7 +2582,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="37" t="s">
+      <c r="A82" s="34" t="s">
         <v>130</v>
       </c>
       <c r="B82" t="s">
@@ -2589,7 +2599,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="34" t="s">
         <v>130</v>
       </c>
       <c r="B83" t="s">
@@ -2606,7 +2616,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="37" t="s">
+      <c r="A84" s="34" t="s">
         <v>130</v>
       </c>
       <c r="B84" t="s">
@@ -2623,7 +2633,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="34" t="s">
         <v>130</v>
       </c>
       <c r="B85" t="s">
@@ -2640,7 +2650,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="37" t="s">
+      <c r="A86" s="34" t="s">
         <v>130</v>
       </c>
       <c r="B86" t="s">
@@ -2657,7 +2667,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="34" t="s">
         <v>130</v>
       </c>
       <c r="B87" t="s">
@@ -2674,7 +2684,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="37" t="s">
+      <c r="A88" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B88" t="s">
@@ -2691,7 +2701,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B89" t="s">
@@ -2708,7 +2718,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="37" t="s">
+      <c r="A90" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B90" t="s">
@@ -2725,7 +2735,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="37" t="s">
+      <c r="A91" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B91" t="s">
@@ -2742,7 +2752,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="37" t="s">
+      <c r="A92" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B92" t="s">
@@ -2759,7 +2769,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="37" t="s">
+      <c r="A93" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B93" t="s">
@@ -2776,7 +2786,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="37" t="s">
+      <c r="A94" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B94" t="s">
@@ -2793,7 +2803,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="37" t="s">
+      <c r="A95" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B95" t="s">
@@ -2810,7 +2820,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="37" t="s">
+      <c r="A96" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B96" t="s">
@@ -2827,7 +2837,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="37" t="s">
+      <c r="A97" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B97" t="s">
@@ -2844,7 +2854,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="37" t="s">
+      <c r="A98" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B98" t="s">
@@ -2861,7 +2871,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="37" t="s">
+      <c r="A99" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B99" t="s">
@@ -2886,8 +2896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A3" zoomScale="189" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2919,13 +2929,13 @@
       <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="35" t="s">
         <v>22</v>
       </c>
       <c r="K1" s="13" t="s">
@@ -2954,13 +2964,13 @@
       <c r="G2" s="15">
         <v>0</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="30">
         <v>6</v>
       </c>
-      <c r="I2" s="32">
-        <v>0</v>
-      </c>
-      <c r="J2" s="39">
+      <c r="I2" s="30">
+        <v>0</v>
+      </c>
+      <c r="J2" s="36">
         <v>3</v>
       </c>
       <c r="K2" s="16" t="s">
@@ -2971,303 +2981,316 @@
       <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="18">
-        <v>0</v>
-      </c>
-      <c r="E3" s="18">
-        <v>0</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0</v>
-      </c>
-      <c r="H3" s="33">
-        <v>0</v>
-      </c>
-      <c r="I3" s="33">
-        <v>0</v>
-      </c>
-      <c r="J3" s="40">
-        <v>0</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>38</v>
+      <c r="D3" s="51">
+        <v>1</v>
+      </c>
+      <c r="E3" s="51">
+        <v>1</v>
+      </c>
+      <c r="F3" s="51">
+        <v>0</v>
+      </c>
+      <c r="G3" s="51">
+        <v>0</v>
+      </c>
+      <c r="H3" s="52">
+        <v>5</v>
+      </c>
+      <c r="I3" s="52">
+        <v>1</v>
+      </c>
+      <c r="J3" s="53">
+        <v>3</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="21">
-        <v>0</v>
-      </c>
-      <c r="E4" s="21">
-        <v>0</v>
-      </c>
-      <c r="F4" s="21">
-        <v>0</v>
-      </c>
-      <c r="G4" s="21">
-        <v>0</v>
-      </c>
-      <c r="H4" s="34">
-        <v>0</v>
-      </c>
-      <c r="I4" s="34">
-        <v>0</v>
-      </c>
-      <c r="J4" s="41">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>37</v>
+      <c r="D4" s="18">
+        <v>0</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="31">
+        <v>0</v>
+      </c>
+      <c r="I4" s="31">
+        <v>0</v>
+      </c>
+      <c r="J4" s="37">
+        <v>0</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="48">
+      <c r="A5" s="44">
         <v>4</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="45">
+        <v>2</v>
+      </c>
+      <c r="E5" s="45">
+        <v>0</v>
+      </c>
+      <c r="F5" s="45">
+        <v>0</v>
+      </c>
+      <c r="G5" s="45">
+        <v>2</v>
+      </c>
+      <c r="H5" s="46">
         <v>1</v>
       </c>
-      <c r="E5" s="49">
-        <v>0</v>
-      </c>
-      <c r="F5" s="49">
-        <v>0</v>
-      </c>
-      <c r="G5" s="49">
+      <c r="I5" s="46">
+        <v>11</v>
+      </c>
+      <c r="J5" s="47">
+        <v>0</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
-      <c r="H5" s="50">
-        <v>0</v>
-      </c>
-      <c r="I5" s="50">
-        <v>6</v>
-      </c>
-      <c r="J5" s="51">
-        <v>0</v>
-      </c>
-      <c r="K5" s="52" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
+      <c r="B6" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="22">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="24" t="s">
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0</v>
+      </c>
+      <c r="H6" s="32">
+        <v>3</v>
+      </c>
+      <c r="I6" s="32">
+        <v>0</v>
+      </c>
+      <c r="J6" s="38">
+        <v>3</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
+        <v>2</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D7" s="41">
         <v>1</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E7" s="41">
         <v>1</v>
       </c>
-      <c r="F6" s="24">
-        <v>0</v>
-      </c>
-      <c r="G6" s="24">
-        <v>0</v>
-      </c>
-      <c r="H6" s="35">
+      <c r="F7" s="41">
+        <v>0</v>
+      </c>
+      <c r="G7" s="41">
+        <v>0</v>
+      </c>
+      <c r="H7" s="42">
+        <v>4</v>
+      </c>
+      <c r="I7" s="42">
+        <v>2</v>
+      </c>
+      <c r="J7" s="43">
         <v>3</v>
       </c>
-      <c r="I6" s="35">
-        <v>0</v>
-      </c>
-      <c r="J6" s="42">
+      <c r="K7" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="24">
         <v>3</v>
       </c>
-      <c r="K6" s="25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="23">
+      <c r="B8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0</v>
+      </c>
+      <c r="E8" s="27">
+        <v>0</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0</v>
+      </c>
+      <c r="G8" s="27">
+        <v>0</v>
+      </c>
+      <c r="H8" s="33">
+        <v>0</v>
+      </c>
+      <c r="I8" s="33">
+        <v>0</v>
+      </c>
+      <c r="J8" s="39">
+        <v>0</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="26">
+        <v>4</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="27">
         <v>2</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="45">
-        <v>1</v>
-      </c>
-      <c r="E7" s="45">
-        <v>1</v>
-      </c>
-      <c r="F7" s="45">
-        <v>0</v>
-      </c>
-      <c r="G7" s="45">
-        <v>0</v>
-      </c>
-      <c r="H7" s="46">
-        <v>4</v>
-      </c>
-      <c r="I7" s="46">
+      <c r="E9" s="27">
+        <v>0</v>
+      </c>
+      <c r="F9" s="27">
+        <v>0</v>
+      </c>
+      <c r="G9" s="27">
         <v>2</v>
       </c>
-      <c r="J7" s="47">
-        <v>3</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
-        <v>3</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="29">
-        <v>0</v>
-      </c>
-      <c r="E8" s="29">
-        <v>0</v>
-      </c>
-      <c r="F8" s="29">
-        <v>0</v>
-      </c>
-      <c r="G8" s="29">
-        <v>0</v>
-      </c>
-      <c r="H8" s="36">
-        <v>0</v>
-      </c>
-      <c r="I8" s="36">
-        <v>0</v>
-      </c>
-      <c r="J8" s="43">
-        <v>0</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="28">
-        <v>4</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="29">
+      <c r="H9" s="33">
         <v>2</v>
       </c>
-      <c r="E9" s="29">
-        <v>0</v>
-      </c>
-      <c r="F9" s="29">
-        <v>0</v>
-      </c>
-      <c r="G9" s="29">
-        <v>2</v>
-      </c>
-      <c r="H9" s="36">
-        <v>2</v>
-      </c>
-      <c r="I9" s="36">
+      <c r="I9" s="33">
         <v>7</v>
       </c>
-      <c r="J9" s="43">
-        <v>0</v>
-      </c>
-      <c r="K9" s="30" t="s">
+      <c r="J9" s="39">
+        <v>0</v>
+      </c>
+      <c r="K9" s="28" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
+      <c r="A10" s="26">
         <v>5</v>
       </c>
     </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="55"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
+    </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="44"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="60"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="44"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3279,7 +3302,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3290,7 +3313,7 @@
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
     <col min="7" max="7" width="32.83203125" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="54"/>
+    <col min="8" max="8" width="8.83203125" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -3315,7 +3338,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="49" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3341,7 +3364,7 @@
       <c r="G2" t="s">
         <v>141</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="50" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3367,7 +3390,7 @@
       <c r="G3" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="50" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3393,7 +3416,7 @@
       <c r="G4" t="s">
         <v>141</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="50" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3419,7 +3442,7 @@
       <c r="G5" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="50" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3445,7 +3468,7 @@
       <c r="G6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="50" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3471,7 +3494,7 @@
       <c r="G7" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="50" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3497,7 +3520,7 @@
       <c r="G8" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="50" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3523,7 +3546,7 @@
       <c r="G9" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="50" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3549,7 +3572,7 @@
       <c r="G10" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="54" t="s">
+      <c r="H10" s="50" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3575,7 +3598,7 @@
       <c r="G11" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="50" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3601,7 +3624,7 @@
       <c r="G12" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="50" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3627,7 +3650,7 @@
       <c r="G13" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="50" t="s">
         <v>27</v>
       </c>
     </row>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DA8123-42D0-1F4D-935D-A765A2344B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4E68AF-9CEC-A94B-9929-563A7F5664B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="154">
   <si>
     <t>Data</t>
   </si>
@@ -304,9 +304,6 @@
     <t>Giulio Biolcati</t>
   </si>
   <si>
-    <t>3-0</t>
-  </si>
-  <si>
     <t>Andrea Zaninello</t>
   </si>
   <si>
@@ -485,6 +482,9 @@
   </si>
   <si>
     <t>1-5</t>
+  </si>
+  <si>
+    <t>Tumiati Impianti</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -805,16 +805,27 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1119,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1159,19 +1170,19 @@
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B2" s="2">
-        <v>0.9375</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>29</v>
@@ -1179,9 +1190,7 @@
       <c r="G2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="50" t="s">
-        <v>27</v>
-      </c>
+      <c r="H2" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1192,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView topLeftCell="A67" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1566,10 +1575,10 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" t="s">
         <v>66</v>
@@ -1583,10 +1592,10 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
         <v>66</v>
@@ -1600,10 +1609,10 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" t="s">
         <v>128</v>
-      </c>
-      <c r="C24" t="s">
-        <v>129</v>
       </c>
       <c r="D24" t="s">
         <v>66</v>
@@ -1821,7 +1830,7 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
@@ -1838,7 +1847,7 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -2093,7 +2102,7 @@
         <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C53" t="s">
         <v>44</v>
@@ -2110,7 +2119,7 @@
         <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -2127,7 +2136,7 @@
         <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
@@ -2144,7 +2153,7 @@
         <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
@@ -2161,7 +2170,7 @@
         <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
@@ -2178,7 +2187,7 @@
         <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -2195,7 +2204,7 @@
         <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
@@ -2212,7 +2221,7 @@
         <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
@@ -2229,7 +2238,7 @@
         <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
@@ -2246,7 +2255,7 @@
         <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
@@ -2263,7 +2272,7 @@
         <v>41</v>
       </c>
       <c r="B63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C63" t="s">
         <v>44</v>
@@ -2280,7 +2289,7 @@
         <v>41</v>
       </c>
       <c r="B64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
@@ -2297,7 +2306,7 @@
         <v>41</v>
       </c>
       <c r="B65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
@@ -2314,7 +2323,7 @@
         <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
@@ -2331,7 +2340,7 @@
         <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
@@ -2348,7 +2357,7 @@
         <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
@@ -2365,7 +2374,7 @@
         <v>41</v>
       </c>
       <c r="B69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
@@ -2382,7 +2391,7 @@
         <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
@@ -2399,7 +2408,7 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
@@ -2416,7 +2425,7 @@
         <v>41</v>
       </c>
       <c r="B72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -2433,7 +2442,7 @@
         <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C73" t="s">
         <v>44</v>
@@ -2450,7 +2459,7 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" t="s">
         <v>11</v>
@@ -2464,10 +2473,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="34" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
@@ -2481,10 +2490,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
         <v>130</v>
-      </c>
-      <c r="B76" t="s">
-        <v>131</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
@@ -2498,10 +2507,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="34" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="B77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
@@ -2515,10 +2524,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="34" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="B78" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
@@ -2532,10 +2541,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="34" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="B79" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
@@ -2549,10 +2558,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="34" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="B80" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
@@ -2566,10 +2575,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="34" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="B81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
@@ -2583,10 +2592,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="34" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="B82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
@@ -2600,10 +2609,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="34" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="B83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
@@ -2617,10 +2626,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="34" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="B84" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C84" t="s">
         <v>44</v>
@@ -2634,10 +2643,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="34" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="B85" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
@@ -2651,10 +2660,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="34" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="B86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C86" t="s">
         <v>11</v>
@@ -2668,10 +2677,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="34" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="B87" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C87" t="s">
         <v>44</v>
@@ -2688,7 +2697,7 @@
         <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C88" t="s">
         <v>44</v>
@@ -2705,7 +2714,7 @@
         <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
@@ -2722,7 +2731,7 @@
         <v>33</v>
       </c>
       <c r="B90" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
@@ -2739,7 +2748,7 @@
         <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
@@ -2756,7 +2765,7 @@
         <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C92" t="s">
         <v>12</v>
@@ -2773,7 +2782,7 @@
         <v>33</v>
       </c>
       <c r="B93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
@@ -2790,7 +2799,7 @@
         <v>33</v>
       </c>
       <c r="B94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C94" t="s">
         <v>11</v>
@@ -2807,7 +2816,7 @@
         <v>33</v>
       </c>
       <c r="B95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
@@ -2824,7 +2833,7 @@
         <v>33</v>
       </c>
       <c r="B96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C96" t="s">
         <v>11</v>
@@ -2841,7 +2850,7 @@
         <v>33</v>
       </c>
       <c r="B97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
@@ -2858,7 +2867,7 @@
         <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
@@ -2875,7 +2884,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
@@ -2896,8 +2905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="189" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:K15"/>
+    <sheetView zoomScale="189" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3086,70 +3095,70 @@
       <c r="A6" s="21">
         <v>1</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="41">
         <v>1</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="41">
         <v>1</v>
       </c>
-      <c r="F6" s="22">
-        <v>0</v>
-      </c>
-      <c r="G6" s="22">
-        <v>0</v>
-      </c>
-      <c r="H6" s="32">
+      <c r="F6" s="41">
+        <v>0</v>
+      </c>
+      <c r="G6" s="41">
+        <v>0</v>
+      </c>
+      <c r="H6" s="42">
+        <v>4</v>
+      </c>
+      <c r="I6" s="42">
+        <v>2</v>
+      </c>
+      <c r="J6" s="43">
         <v>3</v>
       </c>
-      <c r="I6" s="32">
-        <v>0</v>
-      </c>
-      <c r="J6" s="38">
-        <v>3</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>35</v>
+      <c r="K6" s="25" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>2</v>
       </c>
-      <c r="B7" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="41" t="s">
+      <c r="B7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="22">
         <v>1</v>
       </c>
-      <c r="E7" s="41">
-        <v>1</v>
-      </c>
-      <c r="F7" s="41">
-        <v>0</v>
-      </c>
-      <c r="G7" s="41">
-        <v>0</v>
-      </c>
-      <c r="H7" s="42">
-        <v>4</v>
-      </c>
-      <c r="I7" s="42">
-        <v>2</v>
-      </c>
-      <c r="J7" s="43">
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0</v>
+      </c>
+      <c r="H7" s="32">
         <v>3</v>
       </c>
-      <c r="K7" s="25" t="s">
-        <v>40</v>
+      <c r="I7" s="32">
+        <v>0</v>
+      </c>
+      <c r="J7" s="38">
+        <v>0</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3192,13 +3201,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="27">
         <v>0</v>
@@ -3207,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="33">
         <v>2</v>
@@ -3219,39 +3228,86 @@
         <v>0</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
-        <v>5</v>
-      </c>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="58"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="58"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="58"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="61"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="60"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="55"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
@@ -3299,10 +3355,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3346,75 +3402,75 @@
       <c r="A2" s="4">
         <v>45845</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>25</v>
+      <c r="B2" s="6">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B3" s="6">
         <v>0.89583333333333337</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>45848</v>
       </c>
-      <c r="B4" s="6">
-        <v>0.89583333333333337</v>
+      <c r="B4" s="2">
+        <v>0.9375</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="H4" s="50" t="s">
         <v>152</v>
@@ -3422,19 +3478,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B5" s="2">
-        <v>0.9375</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>29</v>
@@ -3443,7 +3499,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3451,30 +3507,30 @@
         <v>45849</v>
       </c>
       <c r="B6" s="2">
-        <v>0.85416666666666663</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6" s="50" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>45849</v>
+      <c r="A7" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B7" s="2">
         <v>0.89583333333333337</v>
@@ -3483,42 +3539,42 @@
         <v>25</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>40</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
       </c>
       <c r="H7" s="50" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>34</v>
+      <c r="A8" s="4">
+        <v>45852</v>
       </c>
       <c r="B8" s="2">
-        <v>0.89583333333333337</v>
+        <v>0.9375</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H8" s="50" t="s">
         <v>27</v>
@@ -3526,25 +3582,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B9" s="2">
-        <v>0.9375</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H9" s="50" t="s">
         <v>27</v>
@@ -3555,22 +3611,22 @@
         <v>45853</v>
       </c>
       <c r="B10" s="2">
-        <v>0.89583333333333337</v>
+        <v>0.9375</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>27</v>
@@ -3578,25 +3634,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B11" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="C11" s="8" t="s">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="H11" s="50" t="s">
         <v>27</v>
@@ -3645,10 +3701,10 @@
         <v>39</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H13" s="50" t="s">
         <v>27</v>
@@ -3657,21 +3713,31 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="H17" s="62"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="65"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C26" s="6"/>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C27" s="2"/>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C28" s="6"/>
       <c r="D28" s="8"/>
     </row>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4E68AF-9CEC-A94B-9929-563A7F5664B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE0E38D-6122-0444-B3DD-3BCA1CD5C8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -709,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -806,26 +806,12 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1130,7 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+    <sheetView zoomScale="135" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -2905,8 +2891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="189" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
+      <selection activeCell="D7" sqref="A1:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3137,7 +3123,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="22">
         <v>0</v>
@@ -3233,68 +3219,19 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="56"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="61"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="55"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
@@ -3714,14 +3651,10 @@
       <c r="B14" s="2"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="H17" s="62"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="65"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="7"/>
+      <c r="O17" s="50"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE0E38D-6122-0444-B3DD-3BCA1CD5C8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91329112-4CA7-DD4E-9A5B-3854EEDCA05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="153">
   <si>
     <t>Data</t>
   </si>
@@ -410,9 +410,6 @@
   </si>
   <si>
     <t>Preparatore Atletico</t>
-  </si>
-  <si>
-    <t>Tumiatti Impianti</t>
   </si>
   <si>
     <t>Michael Garbi</t>
@@ -2459,7 +2456,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B75" t="s">
         <v>116</v>
@@ -2476,10 +2473,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B76" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
@@ -2493,10 +2490,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
@@ -2510,10 +2507,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B78" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
@@ -2527,10 +2524,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
@@ -2544,10 +2541,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
@@ -2561,7 +2558,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B81" t="s">
         <v>115</v>
@@ -2578,10 +2575,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B82" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
@@ -2595,10 +2592,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B83" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
@@ -2612,10 +2609,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C84" t="s">
         <v>44</v>
@@ -2629,10 +2626,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
@@ -2646,10 +2643,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B86" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C86" t="s">
         <v>11</v>
@@ -2663,10 +2660,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B87" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C87" t="s">
         <v>44</v>
@@ -2683,7 +2680,7 @@
         <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C88" t="s">
         <v>44</v>
@@ -2700,7 +2697,7 @@
         <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
@@ -2717,7 +2714,7 @@
         <v>33</v>
       </c>
       <c r="B90" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
@@ -2768,7 +2765,7 @@
         <v>33</v>
       </c>
       <c r="B93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
@@ -2785,7 +2782,7 @@
         <v>33</v>
       </c>
       <c r="B94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C94" t="s">
         <v>11</v>
@@ -2802,7 +2799,7 @@
         <v>33</v>
       </c>
       <c r="B95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
@@ -2819,7 +2816,7 @@
         <v>33</v>
       </c>
       <c r="B96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C96" t="s">
         <v>11</v>
@@ -2836,7 +2833,7 @@
         <v>33</v>
       </c>
       <c r="B97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
@@ -2853,7 +2850,7 @@
         <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
@@ -2891,8 +2888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:K9"/>
+    <sheetView zoomScale="189" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3187,7 +3184,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>25</v>
@@ -3214,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3294,8 +3291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3378,13 +3375,13 @@
         <v>40</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3410,7 +3407,7 @@
         <v>37</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3586,10 +3583,10 @@
         <v>35</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="G11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H11" s="50" t="s">
         <v>27</v>
@@ -3638,10 +3635,10 @@
         <v>39</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H13" s="50" t="s">
         <v>27</v>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91329112-4CA7-DD4E-9A5B-3854EEDCA05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C9B13E-83AF-2F41-AA0A-565EB30EF9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -622,91 +622,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -736,79 +656,49 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1114,7 +1004,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1156,24 +1046,24 @@
         <v>45849</v>
       </c>
       <c r="B2" s="2">
-        <v>0.85416666666666663</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="50"/>
+        <v>39</v>
+      </c>
+      <c r="H2" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1184,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:A87"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="157" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2213,7 +2103,7 @@
         <v>10</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2230,7 +2120,7 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2455,7 +2345,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="34" t="s">
+      <c r="A75" s="13" t="s">
         <v>152</v>
       </c>
       <c r="B75" t="s">
@@ -2472,7 +2362,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="34" t="s">
+      <c r="A76" s="13" t="s">
         <v>152</v>
       </c>
       <c r="B76" t="s">
@@ -2489,7 +2379,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="34" t="s">
+      <c r="A77" s="13" t="s">
         <v>152</v>
       </c>
       <c r="B77" t="s">
@@ -2506,7 +2396,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="34" t="s">
+      <c r="A78" s="13" t="s">
         <v>152</v>
       </c>
       <c r="B78" t="s">
@@ -2523,7 +2413,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="34" t="s">
+      <c r="A79" s="13" t="s">
         <v>152</v>
       </c>
       <c r="B79" t="s">
@@ -2540,7 +2430,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="34" t="s">
+      <c r="A80" s="13" t="s">
         <v>152</v>
       </c>
       <c r="B80" t="s">
@@ -2557,7 +2447,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="34" t="s">
+      <c r="A81" s="13" t="s">
         <v>152</v>
       </c>
       <c r="B81" t="s">
@@ -2574,7 +2464,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="34" t="s">
+      <c r="A82" s="13" t="s">
         <v>152</v>
       </c>
       <c r="B82" t="s">
@@ -2591,7 +2481,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="34" t="s">
+      <c r="A83" s="13" t="s">
         <v>152</v>
       </c>
       <c r="B83" t="s">
@@ -2608,7 +2498,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="34" t="s">
+      <c r="A84" s="13" t="s">
         <v>152</v>
       </c>
       <c r="B84" t="s">
@@ -2625,7 +2515,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="34" t="s">
+      <c r="A85" s="13" t="s">
         <v>152</v>
       </c>
       <c r="B85" t="s">
@@ -2642,7 +2532,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="34" t="s">
+      <c r="A86" s="13" t="s">
         <v>152</v>
       </c>
       <c r="B86" t="s">
@@ -2659,7 +2549,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="34" t="s">
+      <c r="A87" s="13" t="s">
         <v>152</v>
       </c>
       <c r="B87" t="s">
@@ -2676,7 +2566,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="34" t="s">
+      <c r="A88" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B88" t="s">
@@ -2693,7 +2583,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="34" t="s">
+      <c r="A89" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B89" t="s">
@@ -2710,7 +2600,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="34" t="s">
+      <c r="A90" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B90" t="s">
@@ -2727,7 +2617,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="34" t="s">
+      <c r="A91" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B91" t="s">
@@ -2744,7 +2634,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="34" t="s">
+      <c r="A92" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B92" t="s">
@@ -2761,7 +2651,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="34" t="s">
+      <c r="A93" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B93" t="s">
@@ -2778,7 +2668,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="34" t="s">
+      <c r="A94" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B94" t="s">
@@ -2795,7 +2685,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="34" t="s">
+      <c r="A95" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B95" t="s">
@@ -2812,7 +2702,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="34" t="s">
+      <c r="A96" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B96" t="s">
@@ -2829,7 +2719,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="34" t="s">
+      <c r="A97" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B97" t="s">
@@ -2846,7 +2736,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="34" t="s">
+      <c r="A98" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B98" t="s">
@@ -2863,7 +2753,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="34" t="s">
+      <c r="A99" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B99" t="s">
@@ -2886,10 +2776,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView zoomScale="189" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="B1" zoomScale="189" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2899,388 +2789,399 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="20">
         <v>1</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="20">
         <v>1</v>
       </c>
-      <c r="F2" s="15">
-        <v>0</v>
-      </c>
-      <c r="G2" s="15">
-        <v>0</v>
-      </c>
-      <c r="H2" s="30">
+      <c r="F2" s="20">
+        <v>0</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="21">
         <v>6</v>
       </c>
-      <c r="I2" s="30">
-        <v>0</v>
-      </c>
-      <c r="J2" s="36">
+      <c r="I2" s="21">
+        <v>0</v>
+      </c>
+      <c r="J2" s="22">
         <v>3</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="23">
         <v>1</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="23">
         <v>1</v>
       </c>
-      <c r="F3" s="51">
-        <v>0</v>
-      </c>
-      <c r="G3" s="51">
-        <v>0</v>
-      </c>
-      <c r="H3" s="52">
+      <c r="F3" s="23">
+        <v>0</v>
+      </c>
+      <c r="G3" s="23">
+        <v>0</v>
+      </c>
+      <c r="H3" s="24">
         <v>5</v>
       </c>
-      <c r="I3" s="52">
+      <c r="I3" s="24">
         <v>1</v>
       </c>
-      <c r="J3" s="53">
+      <c r="J3" s="25">
         <v>3</v>
       </c>
-      <c r="K3" s="54" t="s">
+      <c r="K3" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
-      <c r="E4" s="18">
-        <v>0</v>
-      </c>
-      <c r="F4" s="18">
-        <v>0</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0</v>
-      </c>
-      <c r="H4" s="31">
-        <v>0</v>
-      </c>
-      <c r="I4" s="31">
-        <v>0</v>
-      </c>
-      <c r="J4" s="37">
-        <v>0</v>
-      </c>
-      <c r="K4" s="19" t="s">
+      <c r="D4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="F4" s="20">
+        <v>0</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0</v>
+      </c>
+      <c r="I4" s="21">
+        <v>0</v>
+      </c>
+      <c r="J4" s="22">
+        <v>0</v>
+      </c>
+      <c r="K4" s="20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="44">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="23">
         <v>2</v>
       </c>
-      <c r="E5" s="45">
-        <v>0</v>
-      </c>
-      <c r="F5" s="45">
-        <v>0</v>
-      </c>
-      <c r="G5" s="45">
+      <c r="E5" s="23">
+        <v>0</v>
+      </c>
+      <c r="F5" s="23">
+        <v>0</v>
+      </c>
+      <c r="G5" s="23">
         <v>2</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="24">
         <v>1</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="24">
         <v>11</v>
       </c>
-      <c r="J5" s="47">
-        <v>0</v>
-      </c>
-      <c r="K5" s="48" t="s">
+      <c r="J5" s="25">
+        <v>0</v>
+      </c>
+      <c r="K5" s="23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="27">
         <v>1</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="28">
         <v>1</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="28">
         <v>1</v>
       </c>
-      <c r="F6" s="41">
-        <v>0</v>
-      </c>
-      <c r="G6" s="41">
-        <v>0</v>
-      </c>
-      <c r="H6" s="42">
+      <c r="F6" s="28">
+        <v>0</v>
+      </c>
+      <c r="G6" s="28">
+        <v>0</v>
+      </c>
+      <c r="H6" s="29">
         <v>4</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="29">
         <v>2</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="30">
         <v>3</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="27">
         <v>2</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="22">
-        <v>0</v>
-      </c>
-      <c r="E7" s="22">
-        <v>0</v>
-      </c>
-      <c r="F7" s="22">
-        <v>0</v>
-      </c>
-      <c r="G7" s="22">
-        <v>0</v>
-      </c>
-      <c r="H7" s="32">
+      <c r="D7" s="28">
+        <v>0</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0</v>
+      </c>
+      <c r="F7" s="28">
+        <v>0</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0</v>
+      </c>
+      <c r="H7" s="29">
         <v>3</v>
       </c>
-      <c r="I7" s="32">
-        <v>0</v>
-      </c>
-      <c r="J7" s="38">
-        <v>0</v>
-      </c>
-      <c r="K7" s="23" t="s">
+      <c r="I7" s="29">
+        <v>0</v>
+      </c>
+      <c r="J7" s="30">
+        <v>0</v>
+      </c>
+      <c r="K7" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="24">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="27">
         <v>3</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="27">
-        <v>0</v>
-      </c>
-      <c r="E8" s="27">
-        <v>0</v>
-      </c>
-      <c r="F8" s="27">
-        <v>0</v>
-      </c>
-      <c r="G8" s="27">
-        <v>0</v>
-      </c>
-      <c r="H8" s="33">
-        <v>0</v>
-      </c>
-      <c r="I8" s="33">
-        <v>0</v>
-      </c>
-      <c r="J8" s="39">
+      <c r="D8" s="28">
+        <v>0</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0</v>
+      </c>
+      <c r="F8" s="28">
+        <v>0</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0</v>
+      </c>
+      <c r="I8" s="29">
+        <v>0</v>
+      </c>
+      <c r="J8" s="30">
         <v>0</v>
       </c>
       <c r="K8" s="28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="26">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="31">
         <v>4</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="28">
         <v>1</v>
       </c>
-      <c r="E9" s="27">
-        <v>0</v>
-      </c>
-      <c r="F9" s="27">
-        <v>0</v>
-      </c>
-      <c r="G9" s="27">
+      <c r="E9" s="28">
+        <v>0</v>
+      </c>
+      <c r="F9" s="28">
+        <v>0</v>
+      </c>
+      <c r="G9" s="28">
         <v>1</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="29">
         <v>2</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="29">
         <v>7</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="30">
         <v>0</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="56"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="55"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="55"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="33"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="33"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="32"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="40"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3291,8 +3192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3303,7 +3204,7 @@
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
     <col min="7" max="7" width="32.83203125" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="50"/>
+    <col min="8" max="8" width="8.83203125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -3328,7 +3229,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="15" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3354,7 +3255,7 @@
       <c r="G2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="16" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3380,7 +3281,7 @@
       <c r="G3" t="s">
         <v>139</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="16" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3406,7 +3307,7 @@
       <c r="G4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="16" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3432,7 +3333,7 @@
       <c r="G5" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3458,7 +3359,7 @@
       <c r="G6" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3484,7 +3385,7 @@
       <c r="G7" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3510,7 +3411,7 @@
       <c r="G8" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3536,7 +3437,7 @@
       <c r="G9" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3562,7 +3463,7 @@
       <c r="G10" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3588,7 +3489,7 @@
       <c r="G11" t="s">
         <v>139</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3614,7 +3515,7 @@
       <c r="G12" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="50" t="s">
+      <c r="H12" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3640,7 +3541,7 @@
       <c r="G13" t="s">
         <v>139</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3651,7 +3552,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="2"/>
       <c r="J17" s="7"/>
-      <c r="O17" s="50"/>
+      <c r="O17" s="16"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C9B13E-83AF-2F41-AA0A-565EB30EF9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67422175-B87E-5B48-A578-572AECF28141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="154">
   <si>
     <t>Data</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>Tumiati Impianti</t>
+  </si>
+  <si>
+    <t>0-2</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="157" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScale="157" workbookViewId="0">
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
@@ -3192,8 +3195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3334,7 +3337,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67422175-B87E-5B48-A578-572AECF28141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E393C3-9E64-0743-8A0D-F260D631AFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
     <t>Tumiati Impianti</t>
   </si>
   <si>
-    <t>0-2</t>
+    <t>0-3</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="157" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="157" workbookViewId="0">
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
@@ -2089,7 +2089,7 @@
         <v>9</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -3195,7 +3195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E393C3-9E64-0743-8A0D-F260D631AFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69CC17A-4DD8-794F-97D4-CB9F33887384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
     <t>Tumiati Impianti</t>
   </si>
   <si>
-    <t>0-3</t>
+    <t>1-3</t>
   </si>
 </sst>
 </file>
@@ -1077,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="157" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView topLeftCell="A9" zoomScale="157" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1358,7 +1358,7 @@
         <v>91</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3195,8 +3195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69CC17A-4DD8-794F-97D4-CB9F33887384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EEEA50-53DD-AB44-BF51-22A49DB5C832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
     <t>Tumiati Impianti</t>
   </si>
   <si>
-    <t>1-3</t>
+    <t>1-4</t>
   </si>
 </sst>
 </file>
@@ -1077,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="157" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="157" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2021,7 +2021,7 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -3195,7 +3195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EEEA50-53DD-AB44-BF51-22A49DB5C832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AAAE3A-E896-1440-BE3B-9EE54268D30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,7 +484,7 @@
     <t>Tumiati Impianti</t>
   </si>
   <si>
-    <t>1-4</t>
+    <t>2-4</t>
   </si>
 </sst>
 </file>
@@ -1077,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="157" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="157" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1307,7 +1307,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AAAE3A-E896-1440-BE3B-9EE54268D30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4ADBA9-DEC6-7C4A-8DD0-851242914F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
     <t>Tumiati Impianti</t>
   </si>
   <si>
-    <t>2-4</t>
+    <t>3-4</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="157" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="157" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1307,7 +1307,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3195,7 +3195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4ADBA9-DEC6-7C4A-8DD0-851242914F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B76A2B9-ADCE-6B4E-8CD8-35BD29237676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="154">
   <si>
     <t>Data</t>
   </si>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2781,8 +2781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14:L15"/>
+    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2831,32 +2831,32 @@
       <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="20">
-        <v>1</v>
-      </c>
-      <c r="E2" s="20">
-        <v>1</v>
-      </c>
-      <c r="F2" s="20">
-        <v>0</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="21">
+      <c r="D2" s="23">
+        <v>2</v>
+      </c>
+      <c r="E2" s="23">
+        <v>2</v>
+      </c>
+      <c r="F2" s="23">
+        <v>0</v>
+      </c>
+      <c r="G2" s="23">
+        <v>0</v>
+      </c>
+      <c r="H2" s="24">
+        <v>3</v>
+      </c>
+      <c r="I2" s="24">
+        <v>4</v>
+      </c>
+      <c r="J2" s="25">
         <v>6</v>
-      </c>
-      <c r="I2" s="21">
-        <v>0</v>
-      </c>
-      <c r="J2" s="22">
-        <v>3</v>
       </c>
       <c r="K2" s="20" t="s">
         <v>36</v>
@@ -2866,31 +2866,31 @@
       <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="20">
+        <v>2</v>
+      </c>
+      <c r="E3" s="20">
         <v>1</v>
       </c>
-      <c r="E3" s="23">
+      <c r="F3" s="20">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
         <v>1</v>
       </c>
-      <c r="F3" s="23">
-        <v>0</v>
-      </c>
-      <c r="G3" s="23">
-        <v>0</v>
-      </c>
-      <c r="H3" s="24">
-        <v>5</v>
-      </c>
-      <c r="I3" s="24">
-        <v>1</v>
-      </c>
-      <c r="J3" s="25">
+      <c r="H3" s="21">
+        <v>9</v>
+      </c>
+      <c r="I3" s="21">
+        <v>3</v>
+      </c>
+      <c r="J3" s="22">
         <v>3</v>
       </c>
       <c r="K3" s="23" t="s">
@@ -3118,6 +3118,33 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="33"/>
+      <c r="B13" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="23">
+        <v>1</v>
+      </c>
+      <c r="E13" s="23">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0</v>
+      </c>
+      <c r="H13" s="24">
+        <v>3</v>
+      </c>
+      <c r="I13" s="24">
+        <v>4</v>
+      </c>
+      <c r="J13" s="25">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="32"/>
@@ -3195,7 +3222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B76A2B9-ADCE-6B4E-8CD8-35BD29237676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC05F1A8-CD90-F745-BDDD-6937352FB8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="154">
   <si>
     <t>Data</t>
   </si>
@@ -629,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -702,6 +702,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2781,8 +2782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="189" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3118,33 +3119,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="33"/>
-      <c r="B13" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="23">
-        <v>1</v>
-      </c>
-      <c r="E13" s="23">
-        <v>1</v>
-      </c>
-      <c r="F13" s="23">
-        <v>0</v>
-      </c>
-      <c r="G13" s="23">
-        <v>0</v>
-      </c>
-      <c r="H13" s="24">
-        <v>3</v>
-      </c>
-      <c r="I13" s="24">
-        <v>4</v>
-      </c>
-      <c r="J13" s="25">
-        <v>6</v>
-      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="32"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC05F1A8-CD90-F745-BDDD-6937352FB8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE00DF00-39BC-1F4A-A075-8A5E61AAAE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="155">
   <si>
     <t>Data</t>
   </si>
@@ -163,9 +163,6 @@
     <t>Gianmarco Augusti</t>
   </si>
   <si>
-    <t>Luca Naluzzi</t>
-  </si>
-  <si>
     <t>Nico Roma</t>
   </si>
   <si>
@@ -485,6 +482,12 @@
   </si>
   <si>
     <t>3-4</t>
+  </si>
+  <si>
+    <t>Fabio De Bei</t>
+  </si>
+  <si>
+    <t>Andrea Passarella</t>
   </si>
 </sst>
 </file>
@@ -1076,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="157" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1104,7 +1107,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1146,13 +1149,13 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1163,7 +1166,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1180,7 +1183,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1197,7 +1200,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1214,7 +1217,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1231,7 +1234,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1248,13 +1251,13 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1262,16 +1265,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1282,16 +1285,16 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1299,16 +1302,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1316,16 +1319,16 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1333,16 +1336,16 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1350,16 +1353,16 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1367,13 +1370,13 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1384,16 +1387,16 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1401,13 +1404,13 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1418,13 +1421,13 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1435,13 +1438,13 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1452,12 +1455,12 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22">
         <v>66</v>
       </c>
       <c r="E22">
@@ -1469,13 +1472,13 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" t="s">
         <v>125</v>
       </c>
-      <c r="C23" t="s">
-        <v>124</v>
-      </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1486,13 +1489,13 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1500,16 +1503,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" t="s">
         <v>65</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1520,13 +1523,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1537,13 +1540,13 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1554,13 +1557,13 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1571,13 +1574,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1588,13 +1591,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1605,13 +1608,13 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1622,13 +1625,13 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1639,13 +1642,13 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1656,13 +1659,13 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1673,13 +1676,13 @@
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
       </c>
       <c r="D35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1690,13 +1693,13 @@
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1707,13 +1710,13 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1724,13 +1727,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
       </c>
       <c r="D38">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1738,16 +1741,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1758,13 +1761,13 @@
         <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1775,13 +1778,13 @@
         <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1792,13 +1795,13 @@
         <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1809,13 +1812,13 @@
         <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
       </c>
       <c r="D43">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1826,13 +1829,13 @@
         <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="D44">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1843,13 +1846,13 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1860,13 +1863,13 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D46">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1877,13 +1880,13 @@
         <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1894,13 +1897,13 @@
         <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D48">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1911,13 +1914,13 @@
         <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" t="s">
-        <v>66</v>
+        <v>44</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1928,13 +1931,13 @@
         <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1945,13 +1948,13 @@
         <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1962,13 +1965,13 @@
         <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1976,16 +1979,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>65</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1996,13 +1999,13 @@
         <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2013,16 +2016,16 @@
         <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2030,16 +2033,16 @@
         <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2047,16 +2050,16 @@
         <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
       </c>
       <c r="D57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2064,16 +2067,16 @@
         <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D58">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2081,13 +2084,13 @@
         <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2098,16 +2101,16 @@
         <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2115,16 +2118,16 @@
         <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2132,30 +2135,30 @@
         <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D62">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2166,13 +2169,13 @@
         <v>41</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2183,13 +2186,13 @@
         <v>41</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2200,13 +2203,13 @@
         <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2217,13 +2220,13 @@
         <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
       </c>
       <c r="D67">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2234,13 +2237,13 @@
         <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2251,13 +2254,13 @@
         <v>41</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D69">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2268,13 +2271,13 @@
         <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2285,13 +2288,13 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
       </c>
       <c r="D71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2302,16 +2305,16 @@
         <v>41</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D72">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2319,16 +2322,16 @@
         <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C73" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D73">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2336,30 +2339,30 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D74">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="13" t="s">
-        <v>152</v>
+      <c r="A75" t="s">
+        <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
       </c>
       <c r="D75">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2367,50 +2370,50 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D76">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B77" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D77">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B78" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D78">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2418,16 +2421,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B79" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2435,16 +2438,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B80" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D80">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2452,16 +2455,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B81" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D81">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2469,16 +2472,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B82" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D82">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2486,16 +2489,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B83" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D83">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2503,16 +2506,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B84" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C84" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2520,16 +2523,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B85" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2537,50 +2540,50 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B86" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D86">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B87" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C87" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D87">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="B88" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C88" t="s">
         <v>44</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2591,13 +2594,13 @@
         <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2608,16 +2611,16 @@
         <v>33</v>
       </c>
       <c r="B90" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -2625,16 +2628,16 @@
         <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
       </c>
       <c r="D91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -2642,13 +2645,13 @@
         <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D92">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -2659,16 +2662,16 @@
         <v>33</v>
       </c>
       <c r="B93" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D93">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -2676,16 +2679,16 @@
         <v>33</v>
       </c>
       <c r="B94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D94">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -2693,16 +2696,16 @@
         <v>33</v>
       </c>
       <c r="B95" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D95">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -2710,16 +2713,16 @@
         <v>33</v>
       </c>
       <c r="B96" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D96">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2727,16 +2730,16 @@
         <v>33</v>
       </c>
       <c r="B97" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D97">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2744,16 +2747,16 @@
         <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
       </c>
       <c r="D98">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2761,15 +2764,32 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99">
         <v>13</v>
       </c>
-      <c r="D99">
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100">
         <v>6</v>
       </c>
-      <c r="E99">
+      <c r="E100">
         <v>0</v>
       </c>
     </row>
@@ -2782,7 +2802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="189" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="189" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:K13"/>
     </sheetView>
   </sheetViews>
@@ -3078,7 +3098,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>25</v>
@@ -3105,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3207,7 +3227,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3270,7 +3290,7 @@
         <v>36</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3290,13 +3310,13 @@
         <v>40</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3322,7 +3342,7 @@
         <v>37</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3348,7 +3368,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3498,10 +3518,10 @@
         <v>35</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>27</v>
@@ -3550,10 +3570,10 @@
         <v>39</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>27</v>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE00DF00-39BC-1F4A-A075-8A5E61AAAE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081176BD-C7C1-7C4F-922D-378865D382EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="156">
   <si>
     <t>Data</t>
   </si>
@@ -488,6 +488,9 @@
   </si>
   <si>
     <t>Andrea Passarella</t>
+  </si>
+  <si>
+    <t>1-1</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1085,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1206,7 +1209,7 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1277,7 +1280,7 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2773,7 +2776,7 @@
         <v>13</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -3394,7 +3397,7 @@
         <v>39</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081176BD-C7C1-7C4F-922D-378865D382EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EBC73B-ECF4-A742-9B3A-CD9FB5E429EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,7 +490,7 @@
     <t>Andrea Passarella</t>
   </si>
   <si>
-    <t>1-1</t>
+    <t>2-1</t>
   </si>
 </sst>
 </file>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="157" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2708,7 +2708,7 @@
         <v>9</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -3230,7 +3230,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EBC73B-ECF4-A742-9B3A-CD9FB5E429EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7EAEC9-A461-2449-8C56-11732B4C9D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2708,7 +2708,7 @@
         <v>9</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7EAEC9-A461-2449-8C56-11732B4C9D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D02DA28-BEB5-B445-993E-E809A3FCE289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
     <t>Andrea Passarella</t>
   </si>
   <si>
-    <t>2-1</t>
+    <t>3-1</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="157" workbookViewId="0">
+    <sheetView topLeftCell="A83" zoomScale="157" workbookViewId="0">
       <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
@@ -3229,7 +3229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D02DA28-BEB5-B445-993E-E809A3FCE289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80EEDF0-8E98-464B-A787-A2DFB8271DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="157">
   <si>
     <t>Data</t>
   </si>
@@ -491,6 +491,9 @@
   </si>
   <si>
     <t>3-1</t>
+  </si>
+  <si>
+    <t>Brayan Finotti</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScale="157" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="157" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2793,6 +2796,23 @@
         <v>6</v>
       </c>
       <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" t="s">
+        <v>156</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
         <v>0</v>
       </c>
     </row>
@@ -3229,7 +3249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80EEDF0-8E98-464B-A787-A2DFB8271DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16678116-EDBB-B54F-9480-85F18F3FB675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,7 +493,7 @@
     <t>3-1</t>
   </si>
   <si>
-    <t>Brayan Finotti</t>
+    <t>Bryan Finotti</t>
   </si>
 </sst>
 </file>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16678116-EDBB-B54F-9480-85F18F3FB675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969A0821-0855-A84F-A60B-3D7C33F65698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="157">
   <si>
     <t>Data</t>
   </si>
@@ -1017,7 +1017,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1055,8 +1055,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>45849</v>
+      <c r="A2" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="2">
         <v>0.89583333333333337</v>
@@ -1065,16 +1065,16 @@
         <v>25</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>40</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -1087,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="157" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1266,7 +1266,7 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3249,8 +3249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969A0821-0855-A84F-A60B-3D7C33F65698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DEAA6D-F85B-7C43-B679-B1A78680A79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -490,10 +490,10 @@
     <t>Andrea Passarella</t>
   </si>
   <si>
-    <t>3-1</t>
-  </si>
-  <si>
     <t>Bryan Finotti</t>
+  </si>
+  <si>
+    <t>3-2</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+    <sheetView zoomScale="157" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -2804,7 +2804,7 @@
         <v>33</v>
       </c>
       <c r="B101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
@@ -3249,8 +3249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:G7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3417,7 +3417,7 @@
         <v>39</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DEAA6D-F85B-7C43-B679-B1A78680A79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7AFB3F-1F29-5445-AFCB-9A5646E9CC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="156">
   <si>
     <t>Data</t>
   </si>
@@ -491,9 +491,6 @@
   </si>
   <si>
     <t>Bryan Finotti</t>
-  </si>
-  <si>
-    <t>3-2</t>
   </si>
 </sst>
 </file>
@@ -1087,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView zoomScale="157" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="157" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2643,7 +2640,7 @@
         <v>3</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -3249,7 +3246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -3417,7 +3414,7 @@
         <v>39</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7AFB3F-1F29-5445-AFCB-9A5646E9CC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC2EE59-BF50-DC4B-A322-CF5B23A817B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="157">
   <si>
     <t>Data</t>
   </si>
@@ -491,6 +491,9 @@
   </si>
   <si>
     <t>Bryan Finotti</t>
+  </si>
+  <si>
+    <t>5-2</t>
   </si>
 </sst>
 </file>
@@ -1013,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1084,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="157" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView topLeftCell="A86" zoomScale="157" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2776,7 +2779,7 @@
         <v>13</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2822,8 +2825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:K13"/>
+    <sheetView zoomScale="189" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3019,10 +3022,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="28">
         <v>0</v>
@@ -3031,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="H6" s="29">
+        <v>9</v>
+      </c>
+      <c r="I6" s="29">
         <v>4</v>
       </c>
-      <c r="I6" s="29">
-        <v>2</v>
-      </c>
       <c r="J6" s="30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K6" s="28" t="s">
         <v>40</v>
@@ -3089,7 +3092,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="28">
         <v>0</v>
@@ -3098,13 +3101,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8" s="30">
         <v>0</v>
@@ -3414,7 +3417,7 @@
         <v>39</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC2EE59-BF50-DC4B-A322-CF5B23A817B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6C17F0-2A05-3449-B143-3C3779C0174E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6C17F0-2A05-3449-B143-3C3779C0174E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF41B7C-DCFD-9A42-8166-7FC7A5F025ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -638,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -703,15 +703,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+    <sheetView zoomScale="135" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
@@ -1087,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" zoomScale="157" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="157" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1671,7 +1662,7 @@
         <v>11</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1722,7 +1713,7 @@
         <v>11</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2823,7 +2814,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScale="189" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -2836,7 +2827,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2871,7 +2862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -2906,7 +2897,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -2941,7 +2932,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -2976,7 +2967,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="26">
         <v>4</v>
       </c>
@@ -3011,7 +3002,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="27">
         <v>1</v>
       </c>
@@ -3046,7 +3037,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="27">
         <v>2</v>
       </c>
@@ -3081,7 +3072,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="27">
         <v>3</v>
       </c>
@@ -3116,7 +3107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="31">
         <v>4</v>
       </c>
@@ -3151,30 +3142,23 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -3184,10 +3168,9 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -3198,10 +3181,9 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -3249,8 +3231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3477,7 +3459,7 @@
         <v>45853</v>
       </c>
       <c r="B9" s="2">
-        <v>0.89583333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>24</v>
@@ -3503,7 +3485,7 @@
         <v>45853</v>
       </c>
       <c r="B10" s="2">
-        <v>0.9375</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>25</v>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF41B7C-DCFD-9A42-8166-7FC7A5F025ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEFA03F-9BE5-AC4A-B88E-1526B2AC702D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="158">
   <si>
     <t>Data</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>5-2</t>
+  </si>
+  <si>
+    <t>0-2</t>
   </si>
 </sst>
 </file>
@@ -1078,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="157" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="157" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2719,7 +2722,7 @@
         <v>10</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -3231,8 +3234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3425,7 +3428,7 @@
         <v>40</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEFA03F-9BE5-AC4A-B88E-1526B2AC702D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4CB7F8-B1A5-364E-86EA-2F9B953ECF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
     <t>5-2</t>
   </si>
   <si>
-    <t>0-2</t>
+    <t>2-2</t>
   </si>
 </sst>
 </file>
@@ -1081,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="157" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView topLeftCell="A25" zoomScale="157" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1702,7 +1702,7 @@
         <v>9</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1736,7 +1736,7 @@
         <v>11</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -3234,7 +3234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4CB7F8-B1A5-364E-86EA-2F9B953ECF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3433E40D-8AD1-254F-9032-317345513470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -1081,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="157" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A6" zoomScale="157" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2819,8 +2819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="189" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3016,25 +3016,25 @@
         <v>25</v>
       </c>
       <c r="D6" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="28">
         <v>2</v>
       </c>
       <c r="F6" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="28">
         <v>0</v>
       </c>
       <c r="H6" s="29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I6" s="29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J6" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K6" s="28" t="s">
         <v>40</v>
@@ -3051,25 +3051,25 @@
         <v>25</v>
       </c>
       <c r="D7" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="28">
         <v>0</v>
       </c>
       <c r="F7" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="28">
         <v>0</v>
       </c>
       <c r="H7" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="28" t="s">
         <v>35</v>
@@ -3234,7 +3234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3433E40D-8AD1-254F-9032-317345513470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA7475B-46F4-1B4D-AC93-3D5C9BBAD04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="159">
   <si>
     <t>Data</t>
   </si>
@@ -497,6 +497,9 @@
   </si>
   <si>
     <t>2-2</t>
+  </si>
+  <si>
+    <t>Muro</t>
   </si>
 </sst>
 </file>
@@ -1081,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="157" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E25"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="157" workbookViewId="0">
+      <selection activeCell="C45" sqref="A45:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2342,7 +2345,7 @@
         <v>113</v>
       </c>
       <c r="C74" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="D74">
         <v>12</v>
@@ -2819,8 +2822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="189" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA7475B-46F4-1B4D-AC93-3D5C9BBAD04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0940132F-E3B0-4F43-B246-8265BE6510C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="159">
   <si>
     <t>Data</t>
   </si>
@@ -280,9 +280,6 @@
     <t>Boss</t>
   </si>
   <si>
-    <t>Francesco Pasqua</t>
-  </si>
-  <si>
     <t>Stefano Braghin</t>
   </si>
   <si>
@@ -500,6 +497,9 @@
   </si>
   <si>
     <t>Muro</t>
+  </si>
+  <si>
+    <t>0-1</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScale="157" workbookViewId="0">
-      <selection activeCell="C45" sqref="A45:C45"/>
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1254,7 +1254,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1271,7 +1271,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -1475,10 +1475,10 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
         <v>65</v>
@@ -1492,10 +1492,10 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
         <v>65</v>
@@ -1509,10 +1509,10 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
         <v>126</v>
-      </c>
-      <c r="C25" t="s">
-        <v>127</v>
       </c>
       <c r="D25" t="s">
         <v>65</v>
@@ -1730,7 +1730,7 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -1747,7 +1747,7 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
@@ -1866,13 +1866,13 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1883,13 +1883,13 @@
         <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D47">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1920,10 +1920,10 @@
         <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>65</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1937,10 +1937,10 @@
         <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" t="s">
-        <v>65</v>
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>20</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1982,16 +1982,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53" t="s">
         <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s">
-        <v>65</v>
+        <v>44</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2005,10 +2005,10 @@
         <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2022,13 +2022,13 @@
         <v>93</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2039,13 +2039,13 @@
         <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2059,10 +2059,10 @@
         <v>13</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2073,13 +2073,13 @@
         <v>96</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2090,10 +2090,10 @@
         <v>97</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D59">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2107,13 +2107,13 @@
         <v>98</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2124,13 +2124,13 @@
         <v>99</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2141,27 +2141,27 @@
         <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D63">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>103</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2192,10 +2192,10 @@
         <v>104</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2209,10 +2209,10 @@
         <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2229,7 +2229,7 @@
         <v>12</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2243,10 +2243,10 @@
         <v>107</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D68">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2260,10 +2260,10 @@
         <v>108</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2277,10 +2277,10 @@
         <v>109</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D70">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2297,7 +2297,7 @@
         <v>11</v>
       </c>
       <c r="D71">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2311,13 +2311,13 @@
         <v>111</v>
       </c>
       <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72">
         <v>11</v>
       </c>
-      <c r="D72">
-        <v>10</v>
-      </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2328,13 +2328,13 @@
         <v>112</v>
       </c>
       <c r="C73" t="s">
+        <v>157</v>
+      </c>
+      <c r="D73">
         <v>12</v>
       </c>
-      <c r="D73">
-        <v>11</v>
-      </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2342,30 +2342,30 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="D74">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>41</v>
+      <c r="A75" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="B75" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
       </c>
       <c r="D75">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2373,50 +2373,50 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B76" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s">
         <v>128</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D77">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B78" t="s">
         <v>129</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D78">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2424,16 +2424,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B79" t="s">
         <v>130</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D79">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2441,16 +2441,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B80" t="s">
         <v>131</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2458,16 +2458,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B81" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D81">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2475,16 +2475,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B82" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D82">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2492,16 +2492,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B83" t="s">
         <v>133</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2509,16 +2509,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B84" t="s">
         <v>134</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D84">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2526,16 +2526,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B85" t="s">
         <v>135</v>
       </c>
       <c r="C85" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2543,50 +2543,50 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B86" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D86">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B87" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D87">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C88" t="s">
         <v>44</v>
       </c>
       <c r="D88">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2600,10 +2600,10 @@
         <v>139</v>
       </c>
       <c r="C89" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>13</v>
       </c>
       <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
         <v>2</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -2631,16 +2631,16 @@
         <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -2648,13 +2648,13 @@
         <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D92">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -2665,16 +2665,16 @@
         <v>33</v>
       </c>
       <c r="B93" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D93">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -2685,13 +2685,13 @@
         <v>142</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D94">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -2702,13 +2702,13 @@
         <v>143</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -2719,13 +2719,13 @@
         <v>144</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D96">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E96">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2733,16 +2733,16 @@
         <v>33</v>
       </c>
       <c r="B97" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97">
         <v>11</v>
       </c>
-      <c r="D97">
-        <v>17</v>
-      </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2750,16 +2750,16 @@
         <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
       </c>
       <c r="D98">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2767,16 +2767,16 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D99">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2784,32 +2784,15 @@
         <v>33</v>
       </c>
       <c r="B100" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D100">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B101" t="s">
-        <v>155</v>
-      </c>
-      <c r="C101" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101">
-        <v>2</v>
-      </c>
-      <c r="E101">
         <v>0</v>
       </c>
     </row>
@@ -3118,7 +3101,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>25</v>
@@ -3145,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3238,7 +3221,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3301,7 +3284,7 @@
         <v>36</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3321,13 +3304,13 @@
         <v>40</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3353,7 +3336,7 @@
         <v>37</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3379,7 +3362,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3405,7 +3388,7 @@
         <v>39</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3431,7 +3414,7 @@
         <v>40</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3457,7 +3440,7 @@
         <v>38</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3529,10 +3512,10 @@
         <v>35</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>27</v>
@@ -3581,10 +3564,10 @@
         <v>39</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>27</v>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0940132F-E3B0-4F43-B246-8265BE6510C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E25804C-8833-5C41-9AED-37D0A60C5D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
     <t>Muro</t>
   </si>
   <si>
-    <t>0-1</t>
+    <t>0-2</t>
   </si>
 </sst>
 </file>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="157" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="157" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1790,7 +1790,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1943,7 +1943,7 @@
         <v>20</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -3221,7 +3221,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E25804C-8833-5C41-9AED-37D0A60C5D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A16C9A-3D87-2043-852D-868B7D0AEBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="157" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A27" zoomScale="157" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2806,7 +2806,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScale="189" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2877,7 +2877,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J2" s="25">
         <v>6</v>
@@ -2932,7 +2932,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="20">
         <v>0</v>
@@ -2944,13 +2944,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="21">
         <v>0</v>
       </c>
       <c r="J4" s="22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" s="20" t="s">
         <v>38</v>
@@ -3220,8 +3220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A16C9A-3D87-2043-852D-868B7D0AEBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328B8EBD-F7ED-0C49-A4F8-9A5BB4E61D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -2805,8 +2805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="189" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2862,7 +2862,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="23">
         <v>2</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="24">
         <v>3</v>
@@ -2935,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="20">
         <v>0</v>
@@ -3220,7 +3220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328B8EBD-F7ED-0C49-A4F8-9A5BB4E61D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2732599-B1F3-0240-92A3-F9AA5708EB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="167">
   <si>
     <t>Data</t>
   </si>
@@ -500,6 +500,30 @@
   </si>
   <si>
     <t>0-2</t>
+  </si>
+  <si>
+    <t>Semifinale</t>
+  </si>
+  <si>
+    <t>Prima Class Girone A</t>
+  </si>
+  <si>
+    <t>Seconda Class Girone B</t>
+  </si>
+  <si>
+    <t>Prima Class Girone B</t>
+  </si>
+  <si>
+    <t>Seconda Class Girone A</t>
+  </si>
+  <si>
+    <t>qmark.png</t>
+  </si>
+  <si>
+    <t>Finale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -644,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -709,6 +733,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2805,7 +2830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
+    <sheetView zoomScale="189" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -3220,8 +3245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3574,7 +3599,82 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
+      <c r="A14" s="4">
+        <v>45855</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>45855</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>45856</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="H17" s="4"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2732599-B1F3-0240-92A3-F9AA5708EB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CF16F5-A7B9-FC4D-824E-B2F75B215F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="168">
   <si>
     <t>Data</t>
   </si>
@@ -523,7 +523,10 @@
     <t>Finale</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Finalista 1</t>
+  </si>
+  <si>
+    <t>Finalista 2</t>
   </si>
 </sst>
 </file>
@@ -3246,7 +3249,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3667,7 +3670,7 @@
         <v>164</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G16" s="32" t="s">
         <v>164</v>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CF16F5-A7B9-FC4D-824E-B2F75B215F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C93D9D7-5BDD-B642-A415-FDD0361FB56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="169">
   <si>
     <t>Data</t>
   </si>
@@ -527,6 +527,9 @@
   </si>
   <si>
     <t>Finalista 2</t>
+  </si>
+  <si>
+    <t>Giulio Pico</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1045,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1080,26 +1083,26 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>34</v>
+      <c r="A2" s="4">
+        <v>45853</v>
       </c>
       <c r="B2" s="2">
-        <v>0.89583333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -1110,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="157" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A40" zoomScale="234" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1410,7 +1413,7 @@
         <v>91</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1852,7 +1855,7 @@
         <v>10</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1903,7 +1906,7 @@
         <v>9</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1971,7 +1974,7 @@
         <v>20</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1996,13 +1999,13 @@
         <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52">
         <v>11</v>
-      </c>
-      <c r="D52" t="s">
-        <v>65</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2010,16 +2013,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>65</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2030,13 +2033,13 @@
         <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2047,16 +2050,16 @@
         <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2064,16 +2067,16 @@
         <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2081,16 +2084,16 @@
         <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
       </c>
       <c r="D57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2098,16 +2101,16 @@
         <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D58">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2115,13 +2118,13 @@
         <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2132,16 +2135,16 @@
         <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2149,16 +2152,16 @@
         <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2166,30 +2169,30 @@
         <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D62">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2200,13 +2203,13 @@
         <v>41</v>
       </c>
       <c r="B64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2217,13 +2220,13 @@
         <v>41</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2234,13 +2237,13 @@
         <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2251,13 +2254,13 @@
         <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
       </c>
       <c r="D67">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2268,13 +2271,13 @@
         <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2285,13 +2288,13 @@
         <v>41</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D69">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2302,13 +2305,13 @@
         <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2319,13 +2322,13 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
       </c>
       <c r="D71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2336,16 +2339,16 @@
         <v>41</v>
       </c>
       <c r="B72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D72">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2353,16 +2356,16 @@
         <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C73" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="D73">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2370,30 +2373,30 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74">
+        <v>12</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" t="s">
         <v>118</v>
-      </c>
-      <c r="C74" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74">
-        <v>7</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B75" t="s">
-        <v>114</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
       </c>
       <c r="D75">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2404,16 +2407,16 @@
         <v>150</v>
       </c>
       <c r="B76" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D76">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2421,16 +2424,16 @@
         <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D77">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2438,13 +2441,13 @@
         <v>150</v>
       </c>
       <c r="B78" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D78">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2455,13 +2458,13 @@
         <v>150</v>
       </c>
       <c r="B79" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2472,13 +2475,13 @@
         <v>150</v>
       </c>
       <c r="B80" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D80">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2489,13 +2492,13 @@
         <v>150</v>
       </c>
       <c r="B81" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D81">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2506,13 +2509,13 @@
         <v>150</v>
       </c>
       <c r="B82" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D82">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2523,13 +2526,13 @@
         <v>150</v>
       </c>
       <c r="B83" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D83">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2540,13 +2543,13 @@
         <v>150</v>
       </c>
       <c r="B84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C84" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2557,13 +2560,13 @@
         <v>150</v>
       </c>
       <c r="B85" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2574,16 +2577,16 @@
         <v>150</v>
       </c>
       <c r="B86" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D86">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2591,30 +2594,30 @@
         <v>150</v>
       </c>
       <c r="B87" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C87" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D87">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="B88" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C88" t="s">
         <v>44</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2625,13 +2628,13 @@
         <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2642,16 +2645,16 @@
         <v>33</v>
       </c>
       <c r="B90" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -2659,16 +2662,16 @@
         <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
       </c>
       <c r="D91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -2676,13 +2679,13 @@
         <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D92">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -2693,16 +2696,16 @@
         <v>33</v>
       </c>
       <c r="B93" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D93">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -2710,16 +2713,16 @@
         <v>33</v>
       </c>
       <c r="B94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D94">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -2727,16 +2730,16 @@
         <v>33</v>
       </c>
       <c r="B95" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D95">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E95">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -2744,16 +2747,16 @@
         <v>33</v>
       </c>
       <c r="B96" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D96">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2761,16 +2764,16 @@
         <v>33</v>
       </c>
       <c r="B97" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D97">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2778,16 +2781,16 @@
         <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
       </c>
       <c r="D98">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2795,16 +2798,16 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99">
         <v>13</v>
       </c>
-      <c r="D99">
-        <v>6</v>
-      </c>
       <c r="E99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2812,15 +2815,32 @@
         <v>33</v>
       </c>
       <c r="B100" t="s">
+        <v>116</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100">
+        <v>6</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" t="s">
         <v>154</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>12</v>
       </c>
-      <c r="D100">
+      <c r="D101">
         <v>2</v>
       </c>
-      <c r="E100">
+      <c r="E101">
         <v>0</v>
       </c>
     </row>
@@ -3248,8 +3268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3494,7 +3514,7 @@
         <v>36</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C93D9D7-5BDD-B642-A415-FDD0361FB56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A516C6D-7182-4540-B0BE-9072E4A4DC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="170">
   <si>
     <t>Data</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>Giulio Pico</t>
+  </si>
+  <si>
+    <t>4-3</t>
   </si>
 </sst>
 </file>
@@ -3514,7 +3517,7 @@
         <v>36</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A516C6D-7182-4540-B0BE-9072E4A4DC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63901E6-172D-8B42-8C65-C7567985C48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -532,7 +532,7 @@
     <t>Giulio Pico</t>
   </si>
   <si>
-    <t>4-3</t>
+    <t>7-4</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -743,6 +743,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1047,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1090,22 +1099,22 @@
         <v>45853</v>
       </c>
       <c r="B2" s="2">
-        <v>0.85416666666666663</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -1119,7 +1128,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="234" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1858,7 +1867,7 @@
         <v>10</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1909,7 +1918,7 @@
         <v>9</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -2857,7 +2866,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScale="189" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2942,7 +2951,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>24</v>
@@ -2951,25 +2960,25 @@
         <v>2</v>
       </c>
       <c r="E3" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="20">
         <v>0</v>
       </c>
       <c r="G3" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="21">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I3" s="21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="22">
-        <v>3</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -2977,13 +2986,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="20">
         <v>1</v>
@@ -2992,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="21">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I4" s="21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="22">
         <v>3</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>38</v>
+      <c r="K4" s="23" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3198,56 +3207,56 @@
       <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
@@ -3271,8 +3280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="D1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G10" sqref="A10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63901E6-172D-8B42-8C65-C7567985C48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C041AFBF-9994-664A-B529-C91E99C019E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="171">
   <si>
     <t>Data</t>
   </si>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t>7-4</t>
+  </si>
+  <si>
+    <t>0-0</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+    <sheetView zoomScale="135" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
@@ -2865,7 +2868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="189" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="189" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -3280,8 +3283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G10" sqref="A10:G10"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3552,7 +3555,7 @@
         <v>35</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C041AFBF-9994-664A-B529-C91E99C019E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9651E6-7171-6240-BF2E-F8A9583B3E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,7 +535,7 @@
     <t>7-4</t>
   </si>
   <si>
-    <t>0-0</t>
+    <t>1-0</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1099,25 +1099,25 @@
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B2" s="2">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="C2" s="8" t="s">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -1130,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="234" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A26" zoomScale="234" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1666,7 +1666,7 @@
         <v>6</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2868,8 +2868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="189" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3100,10 +3100,10 @@
         <v>25</v>
       </c>
       <c r="D7" s="28">
+        <v>2</v>
+      </c>
+      <c r="E7" s="28">
         <v>1</v>
-      </c>
-      <c r="E7" s="28">
-        <v>0</v>
       </c>
       <c r="F7" s="28">
         <v>1</v>
@@ -3118,7 +3118,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K7" s="28" t="s">
         <v>35</v>
@@ -3135,7 +3135,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="28">
         <v>0</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="29">
         <v>2</v>
@@ -3283,8 +3283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9651E6-7171-6240-BF2E-F8A9583B3E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F26389B-AC59-4B4F-A451-2F43E54667DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,7 +535,7 @@
     <t>7-4</t>
   </si>
   <si>
-    <t>1-0</t>
+    <t>0-1</t>
   </si>
 </sst>
 </file>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F26389B-AC59-4B4F-A451-2F43E54667DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FFC28D-F301-9145-9C10-29EA23D921AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="173">
   <si>
     <t>Data</t>
   </si>
@@ -536,6 +536,12 @@
   </si>
   <si>
     <t>0-1</t>
+  </si>
+  <si>
+    <t>Edoardo Residori</t>
+  </si>
+  <si>
+    <t>Marco Andreotti</t>
   </si>
 </sst>
 </file>
@@ -680,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -746,15 +752,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1128,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="234" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="234" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2201,13 +2198,13 @@
         <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
       </c>
       <c r="D63">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2215,16 +2212,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2235,13 +2232,13 @@
         <v>41</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2252,13 +2249,13 @@
         <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2269,13 +2266,13 @@
         <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2286,13 +2283,13 @@
         <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
       </c>
       <c r="D68">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2303,13 +2300,13 @@
         <v>41</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2320,13 +2317,13 @@
         <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D70">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2337,13 +2334,13 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2354,13 +2351,13 @@
         <v>41</v>
       </c>
       <c r="B72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2371,16 +2368,16 @@
         <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D73">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2388,16 +2385,16 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C74" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="D74">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2405,30 +2402,30 @@
         <v>41</v>
       </c>
       <c r="B75" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75">
+        <v>12</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76" t="s">
         <v>118</v>
-      </c>
-      <c r="C75" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75">
-        <v>7</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B76" t="s">
-        <v>114</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
       </c>
       <c r="D76">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2439,16 +2436,16 @@
         <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D77">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2456,16 +2453,16 @@
         <v>150</v>
       </c>
       <c r="B78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D78">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -2473,13 +2470,13 @@
         <v>150</v>
       </c>
       <c r="B79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D79">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2490,13 +2487,13 @@
         <v>150</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2507,13 +2504,13 @@
         <v>150</v>
       </c>
       <c r="B81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D81">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2524,13 +2521,13 @@
         <v>150</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D82">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2541,13 +2538,13 @@
         <v>150</v>
       </c>
       <c r="B83" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D83">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2558,13 +2555,13 @@
         <v>150</v>
       </c>
       <c r="B84" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D84">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2575,13 +2572,13 @@
         <v>150</v>
       </c>
       <c r="B85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C85" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2592,13 +2589,13 @@
         <v>150</v>
       </c>
       <c r="B86" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2609,16 +2606,16 @@
         <v>150</v>
       </c>
       <c r="B87" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D87">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -2626,30 +2623,30 @@
         <v>150</v>
       </c>
       <c r="B88" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C88" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D88">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C89" t="s">
         <v>44</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2657,16 +2654,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="B90" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
       </c>
-      <c r="D90">
-        <v>2</v>
+      <c r="D90" t="s">
+        <v>65</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -2677,16 +2674,16 @@
         <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -2694,13 +2691,13 @@
         <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
       </c>
       <c r="D92">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -2711,16 +2708,16 @@
         <v>33</v>
       </c>
       <c r="B93" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D93">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -2728,16 +2725,16 @@
         <v>33</v>
       </c>
       <c r="B94" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
       </c>
       <c r="D94">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -2745,16 +2742,16 @@
         <v>33</v>
       </c>
       <c r="B95" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -2762,16 +2759,16 @@
         <v>33</v>
       </c>
       <c r="B96" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D96">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E96">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2779,16 +2776,16 @@
         <v>33</v>
       </c>
       <c r="B97" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C97" t="s">
         <v>11</v>
       </c>
       <c r="D97">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2796,16 +2793,16 @@
         <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
       </c>
       <c r="D98">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2813,16 +2810,16 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D99">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2830,16 +2827,16 @@
         <v>33</v>
       </c>
       <c r="B100" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D100">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -2847,17 +2844,54 @@
         <v>33</v>
       </c>
       <c r="B101" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
       </c>
       <c r="D101">
+        <v>13</v>
+      </c>
+      <c r="E101">
         <v>2</v>
       </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" t="s">
+        <v>116</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102">
+        <v>6</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B103" t="s">
+        <v>154</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3210,56 +3244,33 @@
       <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="37"/>
+      <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
@@ -3283,7 +3294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FFC28D-F301-9145-9C10-29EA23D921AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939F6FB1-2DA0-0F49-9792-A85FFA17C8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="172">
   <si>
     <t>Data</t>
   </si>
@@ -428,9 +428,6 @@
   </si>
   <si>
     <t>Francesco Calabrese</t>
-  </si>
-  <si>
-    <t>Omar Palma</t>
   </si>
   <si>
     <t>Francesco Ninni</t>
@@ -1111,10 +1108,10 @@
         <v>35</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -1125,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="234" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="234" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:XFD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1297,7 +1294,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1314,7 +1311,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -2011,7 +2008,7 @@
         <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
@@ -2198,7 +2195,7 @@
         <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
@@ -2405,7 +2402,7 @@
         <v>112</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D75">
         <v>12</v>
@@ -2433,7 +2430,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B77" t="s">
         <v>114</v>
@@ -2450,7 +2447,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B78" t="s">
         <v>127</v>
@@ -2467,7 +2464,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B79" t="s">
         <v>128</v>
@@ -2484,7 +2481,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B80" t="s">
         <v>129</v>
@@ -2501,7 +2498,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B81" t="s">
         <v>130</v>
@@ -2518,7 +2515,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B82" t="s">
         <v>131</v>
@@ -2535,7 +2532,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B83" t="s">
         <v>113</v>
@@ -2552,7 +2549,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B84" t="s">
         <v>132</v>
@@ -2569,7 +2566,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B85" t="s">
         <v>133</v>
@@ -2586,7 +2583,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B86" t="s">
         <v>134</v>
@@ -2603,10 +2600,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B87" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
@@ -2620,10 +2617,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B88" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
@@ -2637,10 +2634,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B89" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C89" t="s">
         <v>44</v>
@@ -2654,16 +2651,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="B90" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" t="s">
-        <v>65</v>
+        <v>44</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -2677,10 +2674,10 @@
         <v>138</v>
       </c>
       <c r="C91" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -2697,10 +2694,10 @@
         <v>13</v>
       </c>
       <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92">
         <v>2</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -2708,16 +2705,16 @@
         <v>33</v>
       </c>
       <c r="B93" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -2725,13 +2722,13 @@
         <v>33</v>
       </c>
       <c r="B94" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -2742,16 +2739,16 @@
         <v>33</v>
       </c>
       <c r="B95" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D95">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -2762,13 +2759,13 @@
         <v>141</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D96">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2779,13 +2776,13 @@
         <v>142</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2796,13 +2793,13 @@
         <v>143</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D98">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E98">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2810,16 +2807,16 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99">
         <v>11</v>
       </c>
-      <c r="D99">
-        <v>17</v>
-      </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2827,16 +2824,16 @@
         <v>33</v>
       </c>
       <c r="B100" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C100" t="s">
         <v>12</v>
       </c>
       <c r="D100">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -2844,16 +2841,16 @@
         <v>33</v>
       </c>
       <c r="B101" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="C101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D101">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -2861,37 +2858,20 @@
         <v>33</v>
       </c>
       <c r="B102" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D102">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B103" t="s">
-        <v>154</v>
-      </c>
-      <c r="C103" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103">
-        <v>2</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="13"/>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3198,7 +3178,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>25</v>
@@ -3225,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3378,13 +3358,13 @@
         <v>40</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3410,7 +3390,7 @@
         <v>37</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3436,7 +3416,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3462,7 +3442,7 @@
         <v>39</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3488,7 +3468,7 @@
         <v>40</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3514,7 +3494,7 @@
         <v>38</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3540,7 +3520,7 @@
         <v>36</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3566,7 +3546,7 @@
         <v>35</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3586,10 +3566,10 @@
         <v>35</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>27</v>
@@ -3638,10 +3618,10 @@
         <v>39</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>27</v>
@@ -3655,19 +3635,19 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="E14" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="E14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>161</v>
-      </c>
       <c r="G14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>27</v>
@@ -3681,19 +3661,19 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="E15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="G15" t="s">
         <v>163</v>
-      </c>
-      <c r="G15" t="s">
-        <v>164</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>27</v>
@@ -3707,19 +3687,19 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="E16" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>167</v>
-      </c>
       <c r="G16" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H16" s="16" t="s">
         <v>27</v>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939F6FB1-2DA0-0F49-9792-A85FFA17C8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB74DB5-12F2-D64F-A458-611D16B9B9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="173">
   <si>
     <t>Data</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>Marco Andreotti</t>
+  </si>
+  <si>
+    <t>2-3</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
+    <sheetView zoomScale="185" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1124,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="234" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90:XFD90"/>
+    <sheetView topLeftCell="A27" zoomScale="234" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1728,7 +1731,7 @@
         <v>10</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -2442,7 +2445,7 @@
         <v>22</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2459,7 +2462,7 @@
         <v>10</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -3274,7 +3277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -3572,7 +3575,7 @@
         <v>136</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB74DB5-12F2-D64F-A458-611D16B9B9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76833F90-95DF-7048-956A-C97CA941B6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,7 +541,7 @@
     <t>Marco Andreotti</t>
   </si>
   <si>
-    <t>2-3</t>
+    <t>4-4</t>
   </si>
 </sst>
 </file>
@@ -686,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -752,6 +752,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1127,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="234" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A76" zoomScale="234" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1612,7 +1613,7 @@
         <v>5</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1646,7 +1647,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2445,7 +2446,7 @@
         <v>22</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2886,7 +2887,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScale="189" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3117,13 +3118,13 @@
         <v>25</v>
       </c>
       <c r="D7" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="28">
         <v>1</v>
       </c>
       <c r="F7" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="28">
         <v>0</v>
@@ -3135,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7" s="28" t="s">
         <v>35</v>
@@ -3146,7 +3147,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>25</v>
@@ -3158,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="F8" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="29">
         <v>2</v>
       </c>
       <c r="I8" s="29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J8" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3181,13 +3182,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="28">
         <v>0</v>
@@ -3196,23 +3197,35 @@
         <v>0</v>
       </c>
       <c r="G9" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="29">
         <v>2</v>
       </c>
       <c r="I9" s="29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J9" s="30">
         <v>0</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
@@ -3277,8 +3290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76833F90-95DF-7048-956A-C97CA941B6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE912BE-A854-004E-B0F3-9B22396E14F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="170">
   <si>
     <t>Data</t>
   </si>
@@ -502,18 +502,6 @@
     <t>Semifinale</t>
   </si>
   <si>
-    <t>Prima Class Girone A</t>
-  </si>
-  <si>
-    <t>Seconda Class Girone B</t>
-  </si>
-  <si>
-    <t>Prima Class Girone B</t>
-  </si>
-  <si>
-    <t>Seconda Class Girone A</t>
-  </si>
-  <si>
     <t>qmark.png</t>
   </si>
   <si>
@@ -542,6 +530,9 @@
   </si>
   <si>
     <t>4-4</t>
+  </si>
+  <si>
+    <t>9-1</t>
   </si>
 </sst>
 </file>
@@ -752,7 +743,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1057,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="185" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="185" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1097,25 +1088,25 @@
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B2" s="2">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>25</v>
+        <v>0.875</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" t="s">
-        <v>136</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -1128,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="234" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView topLeftCell="A43" zoomScale="234" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1919,7 +1910,7 @@
         <v>9</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1936,7 +1927,7 @@
         <v>4</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -2004,7 +1995,7 @@
         <v>65</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -2012,7 +2003,7 @@
         <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
@@ -2038,7 +2029,7 @@
         <v>65</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2199,7 +2190,7 @@
         <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
@@ -2276,7 +2267,7 @@
         <v>3</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2607,7 +2598,7 @@
         <v>149</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
@@ -2887,7 +2878,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScale="189" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2936,70 +2927,70 @@
       <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="20">
         <v>3</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="20">
+        <v>3</v>
+      </c>
+      <c r="F2" s="20">
+        <v>0</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="21">
         <v>2</v>
       </c>
-      <c r="F2" s="23">
-        <v>0</v>
-      </c>
-      <c r="G2" s="23">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24">
-        <v>3</v>
-      </c>
-      <c r="I2" s="24">
-        <v>6</v>
-      </c>
-      <c r="J2" s="25">
-        <v>6</v>
+      <c r="I2" s="21">
+        <v>0</v>
+      </c>
+      <c r="J2" s="22">
+        <v>9</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="23">
+        <v>3</v>
+      </c>
+      <c r="E3" s="23">
         <v>2</v>
       </c>
-      <c r="E3" s="20">
-        <v>2</v>
-      </c>
-      <c r="F3" s="20">
-        <v>0</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0</v>
-      </c>
-      <c r="H3" s="21">
-        <v>2</v>
-      </c>
-      <c r="I3" s="21">
-        <v>0</v>
-      </c>
-      <c r="J3" s="22">
+      <c r="F3" s="23">
+        <v>0</v>
+      </c>
+      <c r="G3" s="23">
+        <v>1</v>
+      </c>
+      <c r="H3" s="24">
+        <v>3</v>
+      </c>
+      <c r="I3" s="24">
         <v>6</v>
       </c>
+      <c r="J3" s="25">
+        <v>6</v>
+      </c>
       <c r="K3" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3048,7 +3039,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="23">
         <v>0</v>
@@ -3057,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" s="24">
         <v>1</v>
@@ -3290,8 +3281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3536,7 +3527,7 @@
         <v>36</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3562,7 +3553,7 @@
         <v>35</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3588,7 +3579,7 @@
         <v>136</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3614,7 +3605,7 @@
         <v>42</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3648,22 +3639,22 @@
         <v>45855</v>
       </c>
       <c r="B14" s="2">
-        <v>0.85416666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>158</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>27</v>
@@ -3674,22 +3665,22 @@
         <v>45855</v>
       </c>
       <c r="B15" s="2">
-        <v>0.89583333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>158</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>27</v>
@@ -3700,22 +3691,22 @@
         <v>45856</v>
       </c>
       <c r="B16" s="2">
-        <v>0.89583333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H16" s="16" t="s">
         <v>27</v>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE912BE-A854-004E-B0F3-9B22396E14F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43FB0E1-783D-6A49-AC8E-BAA3213593D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="172">
   <si>
     <t>Data</t>
   </si>
@@ -533,6 +533,12 @@
   </si>
   <si>
     <t>9-1</t>
+  </si>
+  <si>
+    <t>NON DISPUTATA</t>
+  </si>
+  <si>
+    <t>N-N</t>
   </si>
 </sst>
 </file>
@@ -677,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -743,7 +749,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="185" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="185" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
@@ -3206,18 +3215,6 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-    </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -3281,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:G14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3616,7 +3613,7 @@
         <v>0.9375</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>32</v>
@@ -3631,7 +3628,7 @@
         <v>136</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3645,16 +3642,16 @@
         <v>158</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>27</v>
@@ -3671,16 +3668,16 @@
         <v>158</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>27</v>
@@ -3718,6 +3715,13 @@
       <c r="J17" s="7"/>
       <c r="O17" s="16"/>
     </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+    </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
     </row>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43FB0E1-783D-6A49-AC8E-BAA3213593D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D05A66-5329-414E-9753-09E2ABF43B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
     <sheet name="Rose" sheetId="2" r:id="rId2"/>
     <sheet name="Classifiche" sheetId="3" r:id="rId3"/>
     <sheet name="Calendario Partite" sheetId="4" r:id="rId4"/>
+    <sheet name="Finale" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="173">
   <si>
     <t>Data</t>
   </si>
@@ -514,9 +515,6 @@
     <t>Finalista 2</t>
   </si>
   <si>
-    <t>Giulio Pico</t>
-  </si>
-  <si>
     <t>7-4</t>
   </si>
   <si>
@@ -539,6 +537,12 @@
   </si>
   <si>
     <t>N-N</t>
+  </si>
+  <si>
+    <t>Vincitore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -548,7 +552,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,6 +580,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -643,7 +655,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -676,6 +688,17 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -749,10 +772,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1057,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="185" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1094,30 +1119,35 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="33" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B2" s="2">
         <v>0.875</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
+        <v>161</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>159</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="16"/>
+        <v>162</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1126,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="234" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A40" zoomScale="234" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2012,33 +2042,33 @@
         <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D52">
         <v>11</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s">
-        <v>65</v>
+        <v>44</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2046,13 +2076,13 @@
         <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2063,16 +2093,16 @@
         <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2080,16 +2110,16 @@
         <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2097,16 +2127,16 @@
         <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2114,16 +2144,16 @@
         <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2131,13 +2161,13 @@
         <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D59">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2148,16 +2178,16 @@
         <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2165,16 +2195,16 @@
         <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2182,16 +2212,16 @@
         <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2199,13 +2229,13 @@
         <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2213,16 +2243,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D64">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2233,13 +2263,13 @@
         <v>41</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C65" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2250,16 +2280,16 @@
         <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2267,16 +2297,16 @@
         <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2284,13 +2314,13 @@
         <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2301,13 +2331,13 @@
         <v>41</v>
       </c>
       <c r="B69" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2318,13 +2348,13 @@
         <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2335,13 +2365,13 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D71">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2352,13 +2382,13 @@
         <v>41</v>
       </c>
       <c r="B72" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
       </c>
       <c r="D72">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2369,16 +2399,16 @@
         <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73">
         <v>11</v>
       </c>
-      <c r="D73">
-        <v>10</v>
-      </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2386,16 +2416,16 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C74" t="s">
+        <v>156</v>
+      </c>
+      <c r="D74">
         <v>12</v>
       </c>
-      <c r="D74">
-        <v>11</v>
-      </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2403,33 +2433,33 @@
         <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C75" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="D75">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>41</v>
+      <c r="A76" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="B76" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
       </c>
       <c r="D76">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2437,16 +2467,16 @@
         <v>149</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D77">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2454,16 +2484,16 @@
         <v>149</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D78">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -2471,13 +2501,13 @@
         <v>149</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D79">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2488,13 +2518,13 @@
         <v>149</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D80">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2505,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2522,13 +2552,13 @@
         <v>149</v>
       </c>
       <c r="B82" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D82">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2539,13 +2569,13 @@
         <v>149</v>
       </c>
       <c r="B83" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D83">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2556,13 +2586,13 @@
         <v>149</v>
       </c>
       <c r="B84" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2573,13 +2603,13 @@
         <v>149</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D85">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2590,13 +2620,13 @@
         <v>149</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="C86" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2607,16 +2637,16 @@
         <v>149</v>
       </c>
       <c r="B87" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -2624,30 +2654,30 @@
         <v>149</v>
       </c>
       <c r="B88" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D88">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C89" t="s">
         <v>44</v>
       </c>
       <c r="D89">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2658,13 +2688,13 @@
         <v>33</v>
       </c>
       <c r="B90" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C90" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -2675,16 +2705,16 @@
         <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
       </c>
       <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
         <v>2</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -2692,16 +2722,16 @@
         <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -2709,13 +2739,13 @@
         <v>33</v>
       </c>
       <c r="B93" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D93">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -2726,16 +2756,16 @@
         <v>33</v>
       </c>
       <c r="B94" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D94">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -2743,16 +2773,16 @@
         <v>33</v>
       </c>
       <c r="B95" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D95">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -2760,16 +2790,16 @@
         <v>33</v>
       </c>
       <c r="B96" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D96">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2777,16 +2807,16 @@
         <v>33</v>
       </c>
       <c r="B97" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D97">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E97">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2794,16 +2824,16 @@
         <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98">
         <v>11</v>
       </c>
-      <c r="D98">
-        <v>17</v>
-      </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2811,16 +2841,16 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
       </c>
       <c r="D99">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2828,16 +2858,16 @@
         <v>33</v>
       </c>
       <c r="B100" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D100">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -2845,37 +2875,20 @@
         <v>33</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D101">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B102" t="s">
-        <v>153</v>
-      </c>
-      <c r="C102" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102">
-        <v>2</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="13"/>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3278,8 +3291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3524,7 +3537,7 @@
         <v>36</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3550,7 +3563,7 @@
         <v>35</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3576,7 +3589,7 @@
         <v>136</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3602,7 +3615,7 @@
         <v>42</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3613,7 +3626,7 @@
         <v>0.9375</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>32</v>
@@ -3628,7 +3641,7 @@
         <v>136</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3715,13 +3728,6 @@
       <c r="J17" s="7"/>
       <c r="O17" s="16"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-    </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
     </row>
@@ -3743,4 +3749,37 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D2EB7B-07A7-8143-8E19-A55CDA8FD46C}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView zoomScale="183" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D05A66-5329-414E-9753-09E2ABF43B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B49B301-98DC-D748-B54F-3B5D25A7DF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="174">
   <si>
     <t>Data</t>
   </si>
@@ -543,6 +543,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Francesco Marchetti</t>
   </si>
 </sst>
 </file>
@@ -1082,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1156,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="234" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="234" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2243,16 +2246,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2263,13 +2266,13 @@
         <v>41</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2280,16 +2283,16 @@
         <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2297,16 +2300,16 @@
         <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2314,13 +2317,13 @@
         <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
       </c>
       <c r="D68">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2331,13 +2334,13 @@
         <v>41</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2348,13 +2351,13 @@
         <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D70">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2365,13 +2368,13 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2382,13 +2385,13 @@
         <v>41</v>
       </c>
       <c r="B72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2399,16 +2402,16 @@
         <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D73">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2416,16 +2419,16 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="D74">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2433,33 +2436,33 @@
         <v>41</v>
       </c>
       <c r="B75" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" t="s">
+        <v>156</v>
+      </c>
+      <c r="D75">
+        <v>12</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76" t="s">
         <v>118</v>
-      </c>
-      <c r="C75" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75">
-        <v>7</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B76" t="s">
-        <v>114</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
       </c>
       <c r="D76">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2467,16 +2470,16 @@
         <v>149</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D77">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2484,16 +2487,16 @@
         <v>149</v>
       </c>
       <c r="B78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D78">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -2501,13 +2504,13 @@
         <v>149</v>
       </c>
       <c r="B79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D79">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2518,13 +2521,13 @@
         <v>149</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2535,13 +2538,13 @@
         <v>149</v>
       </c>
       <c r="B81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D81">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2552,13 +2555,13 @@
         <v>149</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D82">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2569,13 +2572,13 @@
         <v>149</v>
       </c>
       <c r="B83" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D83">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2586,13 +2589,13 @@
         <v>149</v>
       </c>
       <c r="B84" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D84">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2603,13 +2606,13 @@
         <v>149</v>
       </c>
       <c r="B85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C85" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2620,13 +2623,13 @@
         <v>149</v>
       </c>
       <c r="B86" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2637,16 +2640,16 @@
         <v>149</v>
       </c>
       <c r="B87" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D87">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -2654,30 +2657,30 @@
         <v>149</v>
       </c>
       <c r="B88" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C88" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D88">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="B89" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C89" t="s">
         <v>44</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2688,13 +2691,13 @@
         <v>33</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -2705,16 +2708,16 @@
         <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -2722,16 +2725,16 @@
         <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
       </c>
       <c r="D92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -2739,13 +2742,13 @@
         <v>33</v>
       </c>
       <c r="B93" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D93">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -2756,16 +2759,16 @@
         <v>33</v>
       </c>
       <c r="B94" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D94">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -2773,16 +2776,16 @@
         <v>33</v>
       </c>
       <c r="B95" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D95">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -2790,16 +2793,16 @@
         <v>33</v>
       </c>
       <c r="B96" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D96">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E96">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2807,16 +2810,16 @@
         <v>33</v>
       </c>
       <c r="B97" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2824,16 +2827,16 @@
         <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D98">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2841,16 +2844,16 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
       </c>
       <c r="D99">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2858,16 +2861,16 @@
         <v>33</v>
       </c>
       <c r="B100" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C100" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100">
         <v>13</v>
       </c>
-      <c r="D100">
-        <v>6</v>
-      </c>
       <c r="E100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -2875,20 +2878,37 @@
         <v>33</v>
       </c>
       <c r="B101" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101">
+        <v>6</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" t="s">
         <v>153</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>12</v>
       </c>
-      <c r="D101">
+      <c r="D102">
         <v>2</v>
       </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="13"/>
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3291,8 +3311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:H14"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3776,7 +3796,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="32"/>
     </row>
   </sheetData>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B49B301-98DC-D748-B54F-3B5D25A7DF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D9FB77-7297-DA4E-AF64-EB877E27F092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="175">
   <si>
     <t>Data</t>
   </si>
@@ -546,6 +546,9 @@
   </si>
   <si>
     <t>Francesco Marchetti</t>
+  </si>
+  <si>
+    <t>1-2</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1165,7 @@
   <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScale="234" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2105,7 +2108,7 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2139,7 +2142,7 @@
         <v>6</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2819,7 +2822,7 @@
         <v>10</v>
       </c>
       <c r="E97">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -3311,8 +3314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:E16"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3687,7 +3690,7 @@
         <v>37</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D9FB77-7297-DA4E-AF64-EB877E27F092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980A6D01-93DA-C947-94C4-53F02ADEDD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="174">
   <si>
     <t>Data</t>
   </si>
@@ -509,9 +509,6 @@
     <t>Finale</t>
   </si>
   <si>
-    <t>Finalista 1</t>
-  </si>
-  <si>
     <t>Finalista 2</t>
   </si>
   <si>
@@ -548,7 +545,7 @@
     <t>Francesco Marchetti</t>
   </si>
   <si>
-    <t>1-2</t>
+    <t>5-4</t>
   </si>
 </sst>
 </file>
@@ -1088,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1137,16 +1134,16 @@
         <v>0.875</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>162</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>159</v>
@@ -1164,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="234" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView topLeftCell="A88" zoomScale="234" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2142,7 +2139,7 @@
         <v>6</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2176,7 +2173,7 @@
         <v>9</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2218,7 +2215,7 @@
         <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
@@ -2252,7 +2249,7 @@
         <v>29</v>
       </c>
       <c r="B64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
@@ -2643,7 +2640,7 @@
         <v>149</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
@@ -2771,7 +2768,7 @@
         <v>7</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -2805,7 +2802,7 @@
         <v>9</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2822,7 +2819,7 @@
         <v>10</v>
       </c>
       <c r="E97">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -3315,7 +3312,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D16" sqref="D16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3560,7 +3557,7 @@
         <v>36</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3586,7 +3583,7 @@
         <v>35</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3612,7 +3609,7 @@
         <v>136</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3638,7 +3635,7 @@
         <v>42</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3649,7 +3646,7 @@
         <v>0.9375</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>32</v>
@@ -3664,7 +3661,7 @@
         <v>136</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3690,7 +3687,7 @@
         <v>37</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3730,13 +3727,13 @@
         <v>160</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>162</v>
       </c>
       <c r="G16" s="32" t="s">
         <v>159</v>
@@ -3795,7 +3792,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980A6D01-93DA-C947-94C4-53F02ADEDD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F853EE4-9C11-6448-9247-FE08EA7A83E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Classifiche" sheetId="3" r:id="rId3"/>
     <sheet name="Calendario Partite" sheetId="4" r:id="rId4"/>
     <sheet name="Finale" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="182">
   <si>
     <t>Data</t>
   </si>
@@ -546,6 +547,30 @@
   </si>
   <si>
     <t>5-4</t>
+  </si>
+  <si>
+    <t>Miglior portiere per me</t>
+  </si>
+  <si>
+    <t>zaninello</t>
+  </si>
+  <si>
+    <t>miglior giocatore</t>
+  </si>
+  <si>
+    <t>alessio</t>
+  </si>
+  <si>
+    <t>rivelazione</t>
+  </si>
+  <si>
+    <t>….</t>
+  </si>
+  <si>
+    <t>cannoniere</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -1085,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1161,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="234" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView topLeftCell="A64" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1646,7 +1671,7 @@
         <v>5</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1816,7 +1841,7 @@
         <v>11</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1901,7 +1926,7 @@
         <v>10</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -3311,8 +3336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:E16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3713,7 +3738,7 @@
         <v>35</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3776,7 +3801,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="183" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3796,8 +3821,57 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDCB63D-174E-8248-8D67-5E8436672D44}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" t="s">
+        <v>181</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F853EE4-9C11-6448-9247-FE08EA7A83E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A88FCD-35F1-6644-8A65-5762A7D27A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -504,15 +504,9 @@
     <t>Semifinale</t>
   </si>
   <si>
-    <t>qmark.png</t>
-  </si>
-  <si>
     <t>Finale</t>
   </si>
   <si>
-    <t>Finalista 2</t>
-  </si>
-  <si>
     <t>7-4</t>
   </si>
   <si>
@@ -571,6 +565,12 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>(0)2-2(2)</t>
+  </si>
+  <si>
+    <t>Semifinale (Rigori)</t>
   </si>
 </sst>
 </file>
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1159,7 +1159,7 @@
         <v>0.875</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>33</v>
@@ -1167,11 +1167,11 @@
       <c r="E2" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>159</v>
+      <c r="F2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>35</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>27</v>
@@ -1186,7 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="150" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -2240,7 +2240,7 @@
         <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
@@ -2274,7 +2274,7 @@
         <v>29</v>
       </c>
       <c r="B64" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
@@ -2665,7 +2665,7 @@
         <v>149</v>
       </c>
       <c r="B87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
@@ -2944,8 +2944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="189" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="E1" zoomScale="189" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3336,8 +3336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3582,7 +3582,7 @@
         <v>36</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3608,7 +3608,7 @@
         <v>35</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3634,7 +3634,7 @@
         <v>136</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3660,7 +3660,7 @@
         <v>42</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3671,7 +3671,7 @@
         <v>0.9375</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>32</v>
@@ -3686,7 +3686,7 @@
         <v>136</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3712,7 +3712,7 @@
         <v>37</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3723,7 +3723,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>30</v>
@@ -3738,7 +3738,7 @@
         <v>35</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3749,7 +3749,7 @@
         <v>0.875</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>33</v>
@@ -3758,10 +3758,10 @@
         <v>40</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="H16" s="16" t="s">
         <v>27</v>
@@ -3817,7 +3817,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3833,8 +3833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDCB63D-174E-8248-8D67-5E8436672D44}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="245" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3847,30 +3847,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" t="s">
         <v>174</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>176</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>178</v>
-      </c>
-      <c r="D1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" t="s">
         <v>175</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>177</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>179</v>
-      </c>
-      <c r="D2" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A88FCD-35F1-6644-8A65-5762A7D27A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005F6F0F-0EE4-9E44-865F-EEF1A477A33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,13 @@
     <sheet name="Classifiche" sheetId="3" r:id="rId3"/>
     <sheet name="Calendario Partite" sheetId="4" r:id="rId4"/>
     <sheet name="Finale" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="173">
   <si>
     <t>Data</t>
   </si>
@@ -108,9 +107,6 @@
     <t>Risultato</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Il Baretto</t>
   </si>
   <si>
@@ -541,30 +537,6 @@
   </si>
   <si>
     <t>5-4</t>
-  </si>
-  <si>
-    <t>Miglior portiere per me</t>
-  </si>
-  <si>
-    <t>zaninello</t>
-  </si>
-  <si>
-    <t>miglior giocatore</t>
-  </si>
-  <si>
-    <t>alessio</t>
-  </si>
-  <si>
-    <t>rivelazione</t>
-  </si>
-  <si>
-    <t>….</t>
-  </si>
-  <si>
-    <t>cannoniere</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>(0)2-2(2)</t>
@@ -1110,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1159,22 +1131,22 @@
         <v>0.875</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1186,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A81" zoomScale="172" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1212,18 +1184,18 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1234,10 +1206,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -1251,10 +1223,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1268,10 +1240,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1285,10 +1257,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1302,10 +1274,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1319,10 +1291,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1336,10 +1308,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1353,10 +1325,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1370,10 +1342,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -1387,13 +1359,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12">
         <v>72</v>
@@ -1404,10 +1376,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -1421,10 +1393,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -1438,10 +1410,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -1455,10 +1427,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -1472,10 +1444,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1489,10 +1461,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -1506,10 +1478,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -1523,10 +1495,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -1540,10 +1512,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -1557,10 +1529,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -1574,16 +1546,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1591,16 +1563,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1608,16 +1580,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
         <v>125</v>
       </c>
-      <c r="C25" t="s">
-        <v>126</v>
-      </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1625,13 +1597,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1642,10 +1614,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
@@ -1659,10 +1631,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -1676,10 +1648,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -1693,10 +1665,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -1705,15 +1677,15 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
@@ -1727,13 +1699,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32">
         <v>14</v>
@@ -1744,10 +1716,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -1761,10 +1733,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -1778,10 +1750,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -1795,10 +1767,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1812,10 +1784,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
@@ -1829,10 +1801,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -1841,15 +1813,15 @@
         <v>11</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
@@ -1863,13 +1835,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1880,10 +1852,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -1897,10 +1869,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -1914,10 +1886,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -1931,10 +1903,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
@@ -1948,13 +1920,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" t="s">
         <v>83</v>
-      </c>
-      <c r="C45" t="s">
-        <v>84</v>
       </c>
       <c r="D45">
         <v>14</v>
@@ -1965,10 +1937,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
@@ -1982,10 +1954,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
@@ -1999,13 +1971,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D48">
         <v>12</v>
@@ -2016,16 +1988,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2033,10 +2005,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
@@ -2050,16 +2022,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -2067,10 +2039,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
@@ -2084,13 +2056,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -2101,10 +2073,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -2118,10 +2090,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
@@ -2135,10 +2107,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
@@ -2152,10 +2124,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
@@ -2169,10 +2141,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -2186,10 +2158,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
@@ -2203,10 +2175,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
@@ -2220,10 +2192,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
@@ -2237,10 +2209,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
@@ -2254,10 +2226,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
@@ -2271,10 +2243,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
@@ -2288,13 +2260,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -2305,10 +2277,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
@@ -2322,10 +2294,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C67" t="s">
         <v>11</v>
@@ -2339,10 +2311,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
@@ -2356,10 +2328,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
@@ -2373,10 +2345,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -2390,10 +2362,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
@@ -2407,10 +2379,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
@@ -2424,10 +2396,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
@@ -2441,10 +2413,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -2458,13 +2430,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D75">
         <v>12</v>
@@ -2475,10 +2447,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
@@ -2492,10 +2464,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
@@ -2509,10 +2481,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
@@ -2526,10 +2498,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
@@ -2543,10 +2515,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
@@ -2560,10 +2532,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
@@ -2577,10 +2549,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
@@ -2594,10 +2566,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
@@ -2611,10 +2583,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C84" t="s">
         <v>11</v>
@@ -2628,10 +2600,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
@@ -2645,13 +2617,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -2662,10 +2634,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
@@ -2679,10 +2651,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
@@ -2696,13 +2668,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B89" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D89">
         <v>45</v>
@@ -2713,13 +2685,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B90" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -2730,10 +2702,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
@@ -2747,10 +2719,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B92" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
@@ -2764,10 +2736,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
@@ -2781,10 +2753,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C94" t="s">
         <v>12</v>
@@ -2798,10 +2770,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
@@ -2815,10 +2787,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C96" t="s">
         <v>11</v>
@@ -2832,10 +2804,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B97" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
@@ -2844,15 +2816,15 @@
         <v>10</v>
       </c>
       <c r="E97">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C98" t="s">
         <v>11</v>
@@ -2866,10 +2838,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
@@ -2883,10 +2855,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C100" t="s">
         <v>12</v>
@@ -2895,15 +2867,15 @@
         <v>13</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
@@ -2917,10 +2889,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C102" t="s">
         <v>12</v>
@@ -2944,8 +2916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView zoomScale="189" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2995,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>24</v>
@@ -3022,7 +2994,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3030,7 +3002,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>24</v>
@@ -3057,7 +3029,7 @@
         <v>6</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3065,7 +3037,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>24</v>
@@ -3092,7 +3064,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3100,7 +3072,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>24</v>
@@ -3127,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3135,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>25</v>
@@ -3162,7 +3134,7 @@
         <v>7</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -3170,7 +3142,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>25</v>
@@ -3197,7 +3169,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3205,7 +3177,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>25</v>
@@ -3232,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3240,7 +3212,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>25</v>
@@ -3267,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3337,7 +3309,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3388,19 +3360,19 @@
         <v>24</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
       <c r="F2" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3414,19 +3386,19 @@
         <v>25</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3440,19 +3412,19 @@
         <v>24</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
       <c r="F4" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3466,19 +3438,19 @@
         <v>24</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
       <c r="H5" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3492,24 +3464,24 @@
         <v>25</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2">
         <v>0.89583333333333337</v>
@@ -3518,19 +3490,19 @@
         <v>25</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3544,19 +3516,19 @@
         <v>24</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
       <c r="H8" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3570,19 +3542,19 @@
         <v>24</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3596,19 +3568,19 @@
         <v>25</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3622,19 +3594,19 @@
         <v>25</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3648,19 +3620,19 @@
         <v>24</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
         <v>41</v>
       </c>
-      <c r="G12" t="s">
-        <v>42</v>
-      </c>
       <c r="H12" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3671,22 +3643,22 @@
         <v>0.9375</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>166</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" t="s">
-        <v>136</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3697,22 +3669,22 @@
         <v>0.875</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3723,22 +3695,22 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3749,22 +3721,22 @@
         <v>0.875</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
@@ -3800,8 +3772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D2EB7B-07A7-8143-8E19-A55CDA8FD46C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="183" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3817,61 +3789,12 @@
         <v>23</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="32"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDCB63D-174E-8248-8D67-5E8436672D44}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView zoomScale="245" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="32.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" t="s">
-        <v>179</v>
-      </c>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005F6F0F-0EE4-9E44-865F-EEF1A477A33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45F85D3-6DFE-F043-902B-4F2700A617EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="174">
   <si>
     <t>Data</t>
   </si>
@@ -530,9 +530,6 @@
     <t>Vincitore</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Francesco Marchetti</t>
   </si>
   <si>
@@ -543,6 +540,12 @@
   </si>
   <si>
     <t>Semifinale (Rigori)</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>(Rigori)</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1131,7 +1134,7 @@
         <v>0.875</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>32</v>
@@ -1146,7 +1149,7 @@
         <v>34</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1158,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="172" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView topLeftCell="A22" zoomScale="172" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1813,7 +1816,7 @@
         <v>11</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -2246,7 +2249,7 @@
         <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
@@ -2765,7 +2768,7 @@
         <v>7</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -3684,7 +3687,7 @@
         <v>36</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3695,7 +3698,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>29</v>
@@ -3710,7 +3713,7 @@
         <v>34</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3736,7 +3739,7 @@
         <v>34</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
@@ -3772,7 +3775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D2EB7B-07A7-8143-8E19-A55CDA8FD46C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
+    <sheetView zoomScale="183" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45F85D3-6DFE-F043-902B-4F2700A617EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6E087D-ADA6-C749-A3BC-F62FDE87CD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prossime Partite" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="175">
   <si>
     <t>Data</t>
   </si>
@@ -546,6 +546,9 @@
   </si>
   <si>
     <t>(Rigori)</t>
+  </si>
+  <si>
+    <t>(2)3-3(3)</t>
   </si>
 </sst>
 </file>
@@ -1085,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1149,7 +1152,7 @@
         <v>34</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3775,8 +3778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D2EB7B-07A7-8143-8E19-A55CDA8FD46C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="183" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3796,8 +3799,15 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DATITORNEO.xlsx
+++ b/DATITORNEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto.libanora/Desktop/WEB DEV/torneoapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6E087D-ADA6-C749-A3BC-F62FDE87CD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4911D3A1-9EE6-FF42-AF9D-0C9603A25ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3779,7 +3779,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
